--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E17FC5-938C-4FA2-A342-6164E141AD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B5AD0-C755-43B9-B08F-6EB2852666D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0322h12,S3aH3,S5c1016h09,S4aH2,S5d1127h07,S4aH5,S5d1127h08,S5d1127h14,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S1aH2,S2aH3,S2b0322h18,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S3aH4,S4aH3,S4aH4,S5c1016h14,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S1aH3,S5c1016h10,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH4,S2aH2,S3aH2</t>
-  </si>
-  <si>
-    <t>S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2aH1,S3aH7,S5aH8,S5c1016h21,S5d1127h03,S5d1127h04,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S1aH6,S2b0322h19,S5c1016h05,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S2b0322h02,S2b0322h21,S5d1127h02,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S5c1016h23,S1aH1,S2aH7,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h06,S5c1016h03,S4aH1,S6aH1,S2b0322h04,S3aH8</t>
+    <t>S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH4,S2aH2,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH2,S2aH3,S2b0322h18,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S1aH3,S5c1016h10,S2b0322h12,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH4,S4aH3,S4aH4,S5c1016h14,S3aH3,S5c1016h09,S3aH2,S4aH2,S5d1127h07,S4aH5,S5d1127h08,S5d1127h14</t>
+  </si>
+  <si>
+    <t>S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S4aH1,S6aH1,S2b0322h06,S5c1016h03,S2b0322h02,S2b0322h21,S5d1127h02,S1aH1,S2aH7,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S1aH6,S2b0322h19,S5c1016h05,S5c1016h23,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2b0322h04,S3aH8,S2aH1,S3aH7,S5aH8,S5c1016h21,S5d1127h03,S5d1127h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2aH1,S3aH7,S5aH8,S5c1016h21,S5d1127h03,S5d1127h04,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S1aH6,S2b0322h19,S5c1016h05,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S2b0322h02,S2b0322h21,S5d1127h02,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S5c1016h23,S1aH1,S2aH7,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h06,S5c1016h03,S4aH1,S6aH1,S2b0322h04,S3aH8</v>
+        <v>S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S4aH1,S6aH1,S2b0322h06,S5c1016h03,S2b0322h02,S2b0322h21,S5d1127h02,S1aH1,S2aH7,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S1aH6,S2b0322h19,S5c1016h05,S5c1016h23,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2b0322h04,S3aH8,S2aH1,S3aH7,S5aH8,S5c1016h21,S5d1127h03,S5d1127h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0322h12,S3aH3,S5c1016h09,S4aH2,S5d1127h07,S4aH5,S5d1127h08,S5d1127h14,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S1aH2,S2aH3,S2b0322h18,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S3aH4,S4aH3,S4aH4,S5c1016h14,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S1aH3,S5c1016h10,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH4,S2aH2,S3aH2</v>
+        <v>S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH4,S2aH2,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH2,S2aH3,S2b0322h18,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S1aH3,S5c1016h10,S2b0322h12,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH4,S4aH3,S4aH4,S5c1016h14,S3aH3,S5c1016h09,S3aH2,S4aH2,S5d1127h07,S4aH5,S5d1127h08,S5d1127h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC262A7E-512D-4F32-A78F-DEAF1BA2C7EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB4099-189F-4DA5-B35F-5DC5E2E918FC}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7682698F-D72E-405E-9B10-1D7B9CD6166C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083344B2-9BE3-4AF3-ABC3-DDF0F6D9D833}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N4">
-        <v>0.19076754984976782</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.12029500136574706</v>
+        <v>0.52706910680142027</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>8.161704452335429E-2</v>
+        <v>0.12029500136574706</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>0.52706910680142027</v>
+        <v>0.1465173449877083</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.1465173449877083</v>
+        <v>0.19076754984976782</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D31F80-7B40-44DF-A4A6-C7FF052A6494}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6CDBBA-827E-442D-A333-11454DB6A7EB}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B5AD0-C755-43B9-B08F-6EB2852666D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DDEADF-5E71-4DBB-A40D-B62B1720209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH4,S2aH2,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH2,S2aH3,S2b0322h18,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S1aH3,S5c1016h10,S2b0322h12,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH4,S4aH3,S4aH4,S5c1016h14,S3aH3,S5c1016h09,S3aH2,S4aH2,S5d1127h07,S4aH5,S5d1127h08,S5d1127h14</t>
-  </si>
-  <si>
-    <t>S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S4aH1,S6aH1,S2b0322h06,S5c1016h03,S2b0322h02,S2b0322h21,S5d1127h02,S1aH1,S2aH7,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S1aH6,S2b0322h19,S5c1016h05,S5c1016h23,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2b0322h04,S3aH8,S2aH1,S3aH7,S5aH8,S5c1016h21,S5d1127h03,S5d1127h04</t>
+    <t>S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S4aH2,S5d1127h07,S2b0322h12,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S3aH4,S4aH3,S4aH4,S5c1016h14,S4aH5,S5d1127h08,S5d1127h14,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH2,S2aH3,S2b0322h18,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH3,S5c1016h10,S3aH2,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S3aH3,S5c1016h09,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12</t>
+  </si>
+  <si>
+    <t>S4aH1,S6aH1,S1aH6,S2b0322h19,S5c1016h05,S2aH1,S3aH7,S5aH8,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S5c1016h23,S5c1016h21,S5d1127h03,S5d1127h04,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h02,S2b0322h21,S5d1127h02,S2b0322h06,S5c1016h03,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h04,S3aH8,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S1aH1,S2aH7,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S4aH1,S6aH1,S2b0322h06,S5c1016h03,S2b0322h02,S2b0322h21,S5d1127h02,S1aH1,S2aH7,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S1aH6,S2b0322h19,S5c1016h05,S5c1016h23,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2b0322h04,S3aH8,S2aH1,S3aH7,S5aH8,S5c1016h21,S5d1127h03,S5d1127h04</v>
+        <v>S4aH1,S6aH1,S1aH6,S2b0322h19,S5c1016h05,S2aH1,S3aH7,S5aH8,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S5c1016h23,S5c1016h21,S5d1127h03,S5d1127h04,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h02,S2b0322h21,S5d1127h02,S2b0322h06,S5c1016h03,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h04,S3aH8,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S1aH1,S2aH7,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH4,S2aH2,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH2,S2aH3,S2b0322h18,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S1aH3,S5c1016h10,S2b0322h12,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH4,S4aH3,S4aH4,S5c1016h14,S3aH3,S5c1016h09,S3aH2,S4aH2,S5d1127h07,S4aH5,S5d1127h08,S5d1127h14</v>
+        <v>S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S4aH2,S5d1127h07,S2b0322h12,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S3aH4,S4aH3,S4aH4,S5c1016h14,S4aH5,S5d1127h08,S5d1127h14,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH2,S2aH3,S2b0322h18,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH3,S5c1016h10,S3aH2,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S3aH3,S5c1016h09,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB4099-189F-4DA5-B35F-5DC5E2E918FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FF5CB1-902C-4E6A-A2BC-DED958EE567D}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083344B2-9BE3-4AF3-ABC3-DDF0F6D9D833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A841E3-FF54-4B69-9BA9-4D4B1DB75932}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.52706910680142027</v>
+        <v>0.12029500136574706</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.12029500136574706</v>
+        <v>0.19076754984976782</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.13373395247200218</v>
+        <v>0.52706910680142027</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.19076754984976782</v>
+        <v>0.13373395247200218</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6CDBBA-827E-442D-A333-11454DB6A7EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FD2670-7E8A-4C7F-8A1E-8E540542914C}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DDEADF-5E71-4DBB-A40D-B62B1720209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C219F57-67E3-497B-A5A2-E939281AAF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S4aH2,S5d1127h07,S2b0322h12,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S3aH4,S4aH3,S4aH4,S5c1016h14,S4aH5,S5d1127h08,S5d1127h14,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH2,S2aH3,S2b0322h18,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH3,S5c1016h10,S3aH2,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S3aH3,S5c1016h09,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12</t>
-  </si>
-  <si>
-    <t>S4aH1,S6aH1,S1aH6,S2b0322h19,S5c1016h05,S2aH1,S3aH7,S5aH8,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S5c1016h23,S5c1016h21,S5d1127h03,S5d1127h04,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h02,S2b0322h21,S5d1127h02,S2b0322h06,S5c1016h03,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h04,S3aH8,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S1aH1,S2aH7,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22</t>
+    <t>S1aH4,S2aH2,S1aH3,S5c1016h10,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S4aH5,S5d1127h08,S5d1127h14,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH2,S2aH3,S2b0322h18,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S4aH2,S5d1127h07,S3aH3,S5c1016h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH4,S4aH3,S4aH4,S5c1016h14,S3aH2,S2b0322h12,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15</t>
+  </si>
+  <si>
+    <t>S4aH1,S6aH1,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S5c1016h21,S5d1127h03,S5d1127h04,S2b0322h06,S5c1016h03,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h02,S2b0322h21,S5d1127h02,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S2aH1,S3aH7,S5aH8,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S1aH6,S2b0322h19,S5c1016h05,S5c1016h23,S2b0322h04,S3aH8,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S1aH1,S2aH7,S2aH6,S3aH1,S5c1016h20,S5d1127h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S6aH1,S1aH6,S2b0322h19,S5c1016h05,S2aH1,S3aH7,S5aH8,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S5c1016h23,S5c1016h21,S5d1127h03,S5d1127h04,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h02,S2b0322h21,S5d1127h02,S2b0322h06,S5c1016h03,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2b0322h04,S3aH8,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S1aH1,S2aH7,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22</v>
+        <v>S4aH1,S6aH1,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S5c1016h21,S5d1127h03,S5d1127h04,S2b0322h06,S5c1016h03,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h02,S2b0322h21,S5d1127h02,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S2aH1,S3aH7,S5aH8,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S1aH6,S2b0322h19,S5c1016h05,S5c1016h23,S2b0322h04,S3aH8,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S1aH1,S2aH7,S2aH6,S3aH1,S5c1016h20,S5d1127h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S4aH2,S5d1127h07,S2b0322h12,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S3aH4,S4aH3,S4aH4,S5c1016h14,S4aH5,S5d1127h08,S5d1127h14,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH2,S2aH3,S2b0322h18,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S1aH3,S5c1016h10,S3aH2,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S3aH3,S5c1016h09,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12</v>
+        <v>S1aH4,S2aH2,S1aH3,S5c1016h10,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S4aH5,S5d1127h08,S5d1127h14,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH2,S2aH3,S2b0322h18,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S4aH2,S5d1127h07,S3aH3,S5c1016h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH4,S4aH3,S4aH4,S5c1016h14,S3aH2,S2b0322h12,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FF5CB1-902C-4E6A-A2BC-DED958EE567D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528EF024-671F-4003-ADD2-B9BABA575154}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A841E3-FF54-4B69-9BA9-4D4B1DB75932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBDF5C-AC8E-449F-8C9D-5724F1073093}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>8.161704452335429E-2</v>
+        <v>0.13373395247200218</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>0.12029500136574706</v>
+        <v>0.1465173449877083</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>0.19076754984976782</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.1465173449877083</v>
+        <v>0.12029500136574706</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3088,7 +3088,7 @@
         <v>84</v>
       </c>
       <c r="N8">
-        <v>0.52706910680142027</v>
+        <v>0.52706910680142049</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.13373395247200218</v>
+        <v>0.19076754984976782</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FD2670-7E8A-4C7F-8A1E-8E540542914C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E017FB5-74AD-4F8D-8CD6-C451E1C29627}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C219F57-67E3-497B-A5A2-E939281AAF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADCA8A-AE79-4E83-A2FD-676A01BE1154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S1aH3,S5c1016h10,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S4aH5,S5d1127h08,S5d1127h14,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH2,S2aH3,S2b0322h18,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S4aH2,S5d1127h07,S3aH3,S5c1016h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH4,S4aH3,S4aH4,S5c1016h14,S3aH2,S2b0322h12,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15</t>
-  </si>
-  <si>
-    <t>S4aH1,S6aH1,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S5c1016h21,S5d1127h03,S5d1127h04,S2b0322h06,S5c1016h03,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h02,S2b0322h21,S5d1127h02,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S2aH1,S3aH7,S5aH8,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S1aH6,S2b0322h19,S5c1016h05,S5c1016h23,S2b0322h04,S3aH8,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S1aH1,S2aH7,S2aH6,S3aH1,S5c1016h20,S5d1127h19</t>
+    <t>S1aH3,S5c1016h10,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S1aH2,S2aH3,S2b0322h18,S2b0322h12,S4aH5,S5d1127h08,S5d1127h14,S1aH4,S2aH2,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S3aH4,S4aH3,S4aH4,S5c1016h14,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S4aH2,S5d1127h07,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S3aH3,S5c1016h09</t>
+  </si>
+  <si>
+    <t>S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S2b0322h02,S2b0322h21,S5d1127h02,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S5c1016h21,S5d1127h03,S5d1127h04,S4aH1,S6aH1,S1aH1,S2aH7,S2b0322h06,S5c1016h03,S5c1016h23,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S2aH1,S3aH7,S5aH8,S2b0322h04,S3aH8,S1aH6,S2b0322h19,S5c1016h05,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S6aH1,S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S5c1016h21,S5d1127h03,S5d1127h04,S2b0322h06,S5c1016h03,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h02,S2b0322h21,S5d1127h02,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S2aH1,S3aH7,S5aH8,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24,S1aH6,S2b0322h19,S5c1016h05,S5c1016h23,S2b0322h04,S3aH8,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S1aH1,S2aH7,S2aH6,S3aH1,S5c1016h20,S5d1127h19</v>
+        <v>S1aH7,S2b0322h03,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S2aH8,S2b0322h24,S5c1016h02,S5c1016h04,S5c1016h22,S5d1127h05,S5d1127h06,S5d1127h21,S5d1127h22,S2b0322h02,S2b0322h21,S5d1127h02,S2b0322h01,S5c1016h06,S5d1127h23,S6aH8,S5c1016h21,S5d1127h03,S5d1127h04,S4aH1,S6aH1,S1aH1,S2aH7,S2b0322h06,S5c1016h03,S5c1016h23,S4aH8,S5c1016h01,S5c1016h19,S5d1127h01,S2aH6,S3aH1,S5c1016h20,S5d1127h19,S2aH1,S3aH7,S5aH8,S2b0322h04,S3aH8,S1aH6,S2b0322h19,S5c1016h05,S1aH8,S2b0322h20,S5aH1,S5c1016h24,S6aH7,S2b0322h05,S2b0322h22,S2b0322h23,S4aH6,S5d1127h20,S5d1127h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S1aH3,S5c1016h10,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S4aH5,S5d1127h08,S5d1127h14,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S1aH2,S2aH3,S2b0322h18,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S4aH2,S5d1127h07,S3aH3,S5c1016h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH4,S4aH3,S4aH4,S5c1016h14,S3aH2,S2b0322h12,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15</v>
+        <v>S1aH3,S5c1016h10,S2b0322h09,S5c1016h08,S5c1016h16,S5d1127h12,S1aH2,S2aH3,S2b0322h18,S2b0322h12,S4aH5,S5d1127h08,S5d1127h14,S1aH4,S2aH2,S2b0322h08,S2b0322h15,S2b0322h16,S5c1016h18,S5d1127h17,S2b0322h10,S2b0322h13,S2b0322h14,S5aH4,S5d1127h09,S5d1127h11,S5d1127h13,S5d1127h15,S6aH3,S6aH4,S3aH4,S4aH3,S4aH4,S5c1016h14,S2b0322h07,S2b0322h17,S5c1016h17,S5d1127h10,S6aH5,S2b0322h11,S5c1016h07,S5c1016h11,S5c1016h15,S4aH2,S5d1127h07,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5c1016h12,S5c1016h13,S6aH2,S3aH5,S5aH3,S5d1127h16,S5d1127h18,S3aH3,S5c1016h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528EF024-671F-4003-ADD2-B9BABA575154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264666AE-072B-4790-8F04-713648F33A46}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBDF5C-AC8E-449F-8C9D-5724F1073093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8EA391-8A88-4D1D-9934-AC11FED0F261}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.13373395247200218</v>
+        <v>0.12029500136574706</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.1465173449877083</v>
+        <v>0.13373395247200218</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>8.161704452335429E-2</v>
+        <v>0.52706910680142027</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.12029500136574706</v>
+        <v>0.19076754984976782</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.52706910680142049</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>0.19076754984976782</v>
+        <v>0.1465173449877083</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E017FB5-74AD-4F8D-8CD6-C451E1C29627}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825A670C-2D73-490C-84C9-9E2E9EF378BE}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D9BE7D-3609-4274-B964-1FAD5AA5726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7748F346-E48E-4754-B2B7-4290EA70E9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5c1013h17,S5d1107h09,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S5d1107h08,S1aH3,S5c1013h13,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S3aH3,S5d1107h07,S1b0203h16,S4aH5,S5c1013h07,S5c1013h18,S5d1107h12,S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h10,S3aH7,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h15,S5c1013h09,S6aH5,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18</t>
-  </si>
-  <si>
-    <t>S1aH1,S1b0203h03,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S3aH8,S5d1107h04,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S3aH2,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S5c1013h19,S1b0203h22,S3aH1,S5d1107h21,S1b0203h24,S5c1013h01,S5d1107h05,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S2aH8,S4aH2,S1b0203h04,S5d1107h06,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h01,S5c1013h22,S5d1107h01</t>
+    <t>S1b0203h15,S5c1013h09,S6aH5,S5d1107h08,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1b0203h10,S3aH7,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h16,S4aH5,S5c1013h07,S1aH3,S5c1013h13,S5c1013h18,S5d1107h12,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S5c1013h17,S5d1107h09,S3aH3,S5d1107h07,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1aH5,S2aH4,S2aH5,S5aH5</t>
+  </si>
+  <si>
+    <t>S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S3aH8,S5d1107h04,S1b0203h04,S5d1107h06,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h01,S5c1013h22,S5d1107h01,S2aH8,S4aH2,S1b0203h22,S3aH1,S5d1107h21,S3aH2,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1aH1,S1b0203h03,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S5c1013h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH1,S1b0203h03,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S3aH8,S5d1107h04,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S3aH2,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S5c1013h19,S1b0203h22,S3aH1,S5d1107h21,S1b0203h24,S5c1013h01,S5d1107h05,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S2aH8,S4aH2,S1b0203h04,S5d1107h06,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h01,S5c1013h22,S5d1107h01</v>
+        <v>S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S3aH8,S5d1107h04,S1b0203h04,S5d1107h06,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h01,S5c1013h22,S5d1107h01,S2aH8,S4aH2,S1b0203h22,S3aH1,S5d1107h21,S3aH2,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1aH1,S1b0203h03,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S5c1013h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5c1013h17,S5d1107h09,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S5d1107h08,S1aH3,S5c1013h13,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S3aH3,S5d1107h07,S1b0203h16,S4aH5,S5c1013h07,S5c1013h18,S5d1107h12,S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h10,S3aH7,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h15,S5c1013h09,S6aH5,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18</v>
+        <v>S1b0203h15,S5c1013h09,S6aH5,S5d1107h08,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1b0203h10,S3aH7,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h16,S4aH5,S5c1013h07,S1aH3,S5c1013h13,S5c1013h18,S5d1107h12,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S5c1013h17,S5d1107h09,S3aH3,S5d1107h07,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1aH5,S2aH4,S2aH5,S5aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7276748B-C5E0-40FD-B7C0-93626B166C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00073AAD-5200-4339-A320-51BB52211888}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA5EA91-67DA-4AE3-B007-DBB7B48737E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B5A11A-5553-4EE7-822C-8205C7A1ABA3}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>0.11210051898388418</v>
+        <v>8.5878175361922965E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>8.5878175361922965E-2</v>
+        <v>0.14323955203496314</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.1858508604206501</v>
+        <v>0.11210051898388418</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.14323955203496314</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9819F3-9265-47DD-9B26-717905E87ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696EB5A7-06A3-40E2-8E91-B3A72FE19C35}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF3B790-CB9F-441B-974C-5DB62DF80398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1ABF5-8159-4371-8DAE-E4C53FA72DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="305">
   <si>
     <t>UC_N</t>
   </si>
@@ -930,274 +930,13 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5c1013h18,S5d1107h12,S1b0203h16,S4aH5,S5c1013h07,S3aH3,S5d1107h07,S1b0203h10,S3aH7,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S5c1013h17,S5d1107h09,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1aH3,S5c1013h13,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h15,S5c1013h09,S6aH5,S1aH5,S2aH4,S2aH5,S5aH5,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S5d1107h08</t>
-  </si>
-  <si>
-    <t>S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH2,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S2aH8,S4aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1aH1,S1b0203h03,S1b0203h22,S3aH1,S5d1107h21,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h01,S5c1013h22,S5d1107h01,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h24,S5c1013h01,S5d1107h05,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S5c1013h19,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h04,S5d1107h06,S3aH8,S5d1107h04</t>
+    <t>S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h15,S5c1013h09,S6aH5,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S5c1013h17,S5d1107h09,S5d1107h08,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5c1013h18,S5d1107h12,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h10,S3aH7,S3aH3,S5d1107h07,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH3,S5c1013h13,S1b0203h16,S4aH5,S5c1013h07,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15</t>
+  </si>
+  <si>
+    <t>S1b0203h24,S5c1013h01,S5d1107h05,S5c1013h19,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h04,S5d1107h06,S1aH1,S1b0203h03,S3aH8,S5d1107h04,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h22,S3aH1,S5d1107h21,S2aH8,S4aH2,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S3aH2,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;a&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aH1</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aH2</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aH3</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aH4</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aH5</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aH6</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aH7</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aH8</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h01</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h02</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h03</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h04</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h05</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h06</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h07</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h08</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h09</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h10</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h11</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h12</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h13</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h14</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h15</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h16</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h17</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h18</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h19</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h20</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h21</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h22</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h23</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;b0203h24</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h01</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h02</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h03</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h04</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h05</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h06</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h07</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h08</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h09</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h10</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h11</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h12</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h13</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h14</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h15</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h16</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h17</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h18</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h19</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h20</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h21</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h22</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h23</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;c1013h24</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h01</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h02</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h03</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h04</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h05</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h06</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h07</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h08</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h09</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h10</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h11</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h12</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h13</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h14</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h15</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h16</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h17</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h18</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h19</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h20</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h21</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h22</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h23</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;d1107h24</t>
-  </si>
-  <si>
-    <t>S1a&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>S2a&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>S3a&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>S4a&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>S5a&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>S6a&lt;NA&gt;</t>
   </si>
   <si>
     <t>elc_industry</t>
@@ -1765,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH2,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S2aH8,S4aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1aH1,S1b0203h03,S1b0203h22,S3aH1,S5d1107h21,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h01,S5c1013h22,S5d1107h01,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h24,S5c1013h01,S5d1107h05,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S5c1013h19,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h04,S5d1107h06,S3aH8,S5d1107h04</v>
+        <v>S1b0203h24,S5c1013h01,S5d1107h05,S5c1013h19,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h04,S5d1107h06,S1aH1,S1b0203h03,S3aH8,S5d1107h04,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h22,S3aH1,S5d1107h21,S2aH8,S4aH2,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S3aH2,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1797,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5c1013h18,S5d1107h12,S1b0203h16,S4aH5,S5c1013h07,S3aH3,S5d1107h07,S1b0203h10,S3aH7,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S5c1013h17,S5d1107h09,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1aH3,S5c1013h13,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h15,S5c1013h09,S6aH5,S1aH5,S2aH4,S2aH5,S5aH5,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S5d1107h08</v>
+        <v>S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h15,S5c1013h09,S6aH5,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S5c1013h17,S5d1107h09,S5d1107h08,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5c1013h18,S5d1107h12,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h10,S3aH7,S3aH3,S5d1107h07,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH3,S5c1013h13,S1b0203h16,S4aH5,S5c1013h07,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2410,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389D1C01-018D-4A2D-ADF7-779D67E593FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45C6463-5DC5-45E7-AEC5-B23E9F4DDDDF}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3127,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71B8AED-6842-4E6A-87CE-70B81D34DBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D2588-F766-4384-9EF3-1B8AAF0F9ACF}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3142,7 +2881,7 @@
         <v>291</v>
       </c>
       <c r="M2" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
@@ -3174,10 +2913,10 @@
         <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>388</v>
+        <v>301</v>
       </c>
       <c r="O3" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -3206,13 +2945,13 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N4">
-        <v>0.5913138486752253</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O4" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
@@ -3241,13 +2980,13 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.1858508604206501</v>
+        <v>0.5913138486752253</v>
       </c>
       <c r="O5" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
@@ -3282,7 +3021,7 @@
         <v>0.14323955203496314</v>
       </c>
       <c r="O6" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
@@ -3311,13 +3050,13 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>8.161704452335429E-2</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O7" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
@@ -3346,13 +3085,13 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>8.5878175361922965E-2</v>
+        <v>0.11210051898388418</v>
       </c>
       <c r="O8" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
@@ -3381,13 +3120,13 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>0.11210051898388418</v>
+        <v>8.5878175361922965E-2</v>
       </c>
       <c r="O9" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -3415,12 +3154,6 @@
       <c r="K10" t="s">
         <v>292</v>
       </c>
-      <c r="N10">
-        <v>1.2</v>
-      </c>
-      <c r="O10" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -3465,7 +3198,7 @@
         <v>179</v>
       </c>
       <c r="I12">
-        <v>9.8605624061659991E-4</v>
+        <v>4.9302812030829995E-4</v>
       </c>
       <c r="J12" t="s">
         <v>170</v>
@@ -3491,7 +3224,7 @@
         <v>180</v>
       </c>
       <c r="I13">
-        <v>1.0085254972082001E-3</v>
+        <v>5.0426274860410005E-4</v>
       </c>
       <c r="J13" t="s">
         <v>170</v>
@@ -3517,7 +3250,7 @@
         <v>181</v>
       </c>
       <c r="I14">
-        <v>1.0435181592752E-3</v>
+        <v>5.2175907963760001E-4</v>
       </c>
       <c r="J14" t="s">
         <v>170</v>
@@ -3543,7 +3276,7 @@
         <v>182</v>
       </c>
       <c r="I15">
-        <v>1.0643680099862E-3</v>
+        <v>5.3218400499310001E-4</v>
       </c>
       <c r="J15" t="s">
         <v>170</v>
@@ -3569,7 +3302,7 @@
         <v>183</v>
       </c>
       <c r="I16">
-        <v>1.0804406133498E-3</v>
+        <v>5.4022030667489999E-4</v>
       </c>
       <c r="J16" t="s">
         <v>170</v>
@@ -3595,7 +3328,7 @@
         <v>184</v>
       </c>
       <c r="I17">
-        <v>1.0872960982438E-3</v>
+        <v>5.436480491219E-4</v>
       </c>
       <c r="J17" t="s">
         <v>170</v>
@@ -3621,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="I18">
-        <v>1.0854877616774E-3</v>
+        <v>5.4274388083869998E-4</v>
       </c>
       <c r="J18" t="s">
         <v>170</v>
@@ -3647,7 +3380,7 @@
         <v>186</v>
       </c>
       <c r="I19">
-        <v>1.0791720787436E-3</v>
+        <v>5.3958603937179998E-4</v>
       </c>
       <c r="J19" t="s">
         <v>170</v>
@@ -3673,7 +3406,7 @@
         <v>187</v>
       </c>
       <c r="I20">
-        <v>1.0746242472291999E-3</v>
+        <v>5.3731212361459997E-4</v>
       </c>
       <c r="J20" t="s">
         <v>170</v>
@@ -3687,7 +3420,7 @@
         <v>188</v>
       </c>
       <c r="C21">
-        <v>2.252E-4</v>
+        <v>1.126E-4</v>
       </c>
       <c r="D21" t="s">
         <v>170</v>
@@ -3699,7 +3432,7 @@
         <v>188</v>
       </c>
       <c r="I21">
-        <v>1.1187665525210001E-3</v>
+        <v>5.5938327626050004E-4</v>
       </c>
       <c r="J21" t="s">
         <v>170</v>
@@ -3713,7 +3446,7 @@
         <v>189</v>
       </c>
       <c r="C22">
-        <v>5.7463999999999996E-4</v>
+        <v>2.8731999999999998E-4</v>
       </c>
       <c r="D22" t="s">
         <v>170</v>
@@ -3725,7 +3458,7 @@
         <v>189</v>
       </c>
       <c r="I22">
-        <v>1.157335402574E-3</v>
+        <v>5.7866770128699998E-4</v>
       </c>
       <c r="J22" t="s">
         <v>170</v>
@@ -3739,7 +3472,7 @@
         <v>190</v>
       </c>
       <c r="C23">
-        <v>4.0559999999999999E-4</v>
+        <v>2.028E-4</v>
       </c>
       <c r="D23" t="s">
         <v>170</v>
@@ -3751,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="I23">
-        <v>1.1723958772624E-3</v>
+        <v>5.861979386312E-4</v>
       </c>
       <c r="J23" t="s">
         <v>170</v>
@@ -3765,7 +3498,7 @@
         <v>191</v>
       </c>
       <c r="C24">
-        <v>8.8949999999999999E-4</v>
+        <v>4.4475E-4</v>
       </c>
       <c r="D24" t="s">
         <v>170</v>
@@ -3777,7 +3510,7 @@
         <v>191</v>
       </c>
       <c r="I24">
-        <v>1.1657563131526E-3</v>
+        <v>5.8287815657629999E-4</v>
       </c>
       <c r="J24" t="s">
         <v>170</v>
@@ -3791,7 +3524,7 @@
         <v>192</v>
       </c>
       <c r="C25">
-        <v>9.2002000000000002E-4</v>
+        <v>4.6001000000000001E-4</v>
       </c>
       <c r="D25" t="s">
         <v>170</v>
@@ -3803,7 +3536,7 @@
         <v>192</v>
       </c>
       <c r="I25">
-        <v>1.1449334525393999E-3</v>
+        <v>5.7246672626969997E-4</v>
       </c>
       <c r="J25" t="s">
         <v>170</v>
@@ -3817,7 +3550,7 @@
         <v>193</v>
       </c>
       <c r="C26">
-        <v>9.3011999999999999E-4</v>
+        <v>4.6506E-4</v>
       </c>
       <c r="D26" t="s">
         <v>170</v>
@@ -3829,7 +3562,7 @@
         <v>193</v>
       </c>
       <c r="I26">
-        <v>1.1523692245406E-3</v>
+        <v>5.7618461227029998E-4</v>
       </c>
       <c r="J26" t="s">
         <v>170</v>
@@ -3843,7 +3576,7 @@
         <v>194</v>
       </c>
       <c r="C27">
-        <v>7.8242000000000003E-4</v>
+        <v>3.9121000000000002E-4</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -3855,7 +3588,7 @@
         <v>194</v>
       </c>
       <c r="I27">
-        <v>1.1455002445976E-3</v>
+        <v>5.7275012229880001E-4</v>
       </c>
       <c r="J27" t="s">
         <v>170</v>
@@ -3869,7 +3602,7 @@
         <v>195</v>
       </c>
       <c r="C28">
-        <v>4.0939999999999998E-5</v>
+        <v>2.0469999999999999E-5</v>
       </c>
       <c r="D28" t="s">
         <v>170</v>
@@ -3881,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="I28">
-        <v>1.1107235033145999E-3</v>
+        <v>5.5536175165729997E-4</v>
       </c>
       <c r="J28" t="s">
         <v>170</v>
@@ -3895,7 +3628,7 @@
         <v>196</v>
       </c>
       <c r="C29">
-        <v>1.378E-5</v>
+        <v>6.8900000000000001E-6</v>
       </c>
       <c r="D29" t="s">
         <v>170</v>
@@ -3907,7 +3640,7 @@
         <v>196</v>
       </c>
       <c r="I29">
-        <v>1.0643275248392E-3</v>
+        <v>5.3216376241959999E-4</v>
       </c>
       <c r="J29" t="s">
         <v>170</v>
@@ -3933,7 +3666,7 @@
         <v>197</v>
       </c>
       <c r="I30">
-        <v>1.0236669421904E-3</v>
+        <v>5.1183347109520002E-4</v>
       </c>
       <c r="J30" t="s">
         <v>170</v>
@@ -3959,7 +3692,7 @@
         <v>198</v>
       </c>
       <c r="I31">
-        <v>9.8391052782500002E-4</v>
+        <v>4.9195526391250001E-4</v>
       </c>
       <c r="J31" t="s">
         <v>170</v>
@@ -3985,7 +3718,7 @@
         <v>199</v>
       </c>
       <c r="I32">
-        <v>8.744926705014E-4</v>
+        <v>4.372463352507E-4</v>
       </c>
       <c r="J32" t="s">
         <v>170</v>
@@ -4011,7 +3744,7 @@
         <v>200</v>
       </c>
       <c r="I33">
-        <v>8.3052580084680004E-4</v>
+        <v>4.1526290042340002E-4</v>
       </c>
       <c r="J33" t="s">
         <v>170</v>
@@ -4037,7 +3770,7 @@
         <v>201</v>
       </c>
       <c r="I34">
-        <v>7.8546583222279995E-4</v>
+        <v>3.9273291611139998E-4</v>
       </c>
       <c r="J34" t="s">
         <v>170</v>
@@ -4063,7 +3796,7 @@
         <v>202</v>
       </c>
       <c r="I35">
-        <v>7.7188981292479995E-4</v>
+        <v>3.8594490646239998E-4</v>
       </c>
       <c r="J35" t="s">
         <v>170</v>
@@ -4921,7 +4654,7 @@
         <v>235</v>
       </c>
       <c r="I68">
-        <v>4.4560651810866878E-5</v>
+        <v>2.2280325905433439E-5</v>
       </c>
       <c r="J68" t="s">
         <v>170</v>
@@ -4947,7 +4680,7 @@
         <v>236</v>
       </c>
       <c r="I69">
-        <v>5.3237968320372458E-5</v>
+        <v>2.6618984160186229E-5</v>
       </c>
       <c r="J69" t="s">
         <v>170</v>
@@ -4973,7 +4706,7 @@
         <v>237</v>
       </c>
       <c r="I70">
-        <v>5.1564582243889275E-5</v>
+        <v>2.5782291121944637E-5</v>
       </c>
       <c r="J70" t="s">
         <v>170</v>
@@ -4999,7 +4732,7 @@
         <v>238</v>
       </c>
       <c r="I71">
-        <v>4.3508037988562942E-5</v>
+        <v>2.1754018994281471E-5</v>
       </c>
       <c r="J71" t="s">
         <v>170</v>
@@ -5025,7 +4758,7 @@
         <v>239</v>
       </c>
       <c r="I72">
-        <v>3.2509573050387135E-5</v>
+        <v>1.6254786525193567E-5</v>
       </c>
       <c r="J72" t="s">
         <v>170</v>
@@ -5051,7 +4784,7 @@
         <v>240</v>
       </c>
       <c r="I73">
-        <v>2.3238474384710103E-5</v>
+        <v>1.1619237192355052E-5</v>
       </c>
       <c r="J73" t="s">
         <v>170</v>
@@ -5077,7 +4810,7 @@
         <v>241</v>
       </c>
       <c r="I74">
-        <v>1.5289890521414956E-5</v>
+        <v>7.644945260707478E-6</v>
       </c>
       <c r="J74" t="s">
         <v>170</v>
@@ -5103,7 +4836,7 @@
         <v>242</v>
       </c>
       <c r="I75">
-        <v>1.1457296604308292E-5</v>
+        <v>5.7286483021541462E-6</v>
       </c>
       <c r="J75" t="s">
         <v>170</v>
@@ -5117,7 +4850,7 @@
         <v>243</v>
       </c>
       <c r="C76">
-        <v>1.0179999999999999E-4</v>
+        <v>5.0899999999999997E-5</v>
       </c>
       <c r="D76" t="s">
         <v>170</v>
@@ -5129,7 +4862,7 @@
         <v>243</v>
       </c>
       <c r="I76">
-        <v>1.1889138172432987E-5</v>
+        <v>5.9445690862164937E-6</v>
       </c>
       <c r="J76" t="s">
         <v>170</v>
@@ -5143,7 +4876,7 @@
         <v>244</v>
       </c>
       <c r="C77">
-        <v>6.3754000000000003E-4</v>
+        <v>3.1877000000000001E-4</v>
       </c>
       <c r="D77" t="s">
         <v>170</v>
@@ -5155,7 +4888,7 @@
         <v>244</v>
       </c>
       <c r="I77">
-        <v>1.731414787199946E-5</v>
+        <v>8.6570739359997298E-6</v>
       </c>
       <c r="J77" t="s">
         <v>170</v>
@@ -5169,7 +4902,7 @@
         <v>245</v>
       </c>
       <c r="C78">
-        <v>6.3049999999999998E-4</v>
+        <v>3.1524999999999999E-4</v>
       </c>
       <c r="D78" t="s">
         <v>170</v>
@@ -5181,7 +4914,7 @@
         <v>245</v>
       </c>
       <c r="I78">
-        <v>2.5762048548438793E-5</v>
+        <v>1.2881024274219397E-5</v>
       </c>
       <c r="J78" t="s">
         <v>170</v>
@@ -5195,7 +4928,7 @@
         <v>246</v>
       </c>
       <c r="C79">
-        <v>7.5316000000000001E-4</v>
+        <v>3.7658E-4</v>
       </c>
       <c r="D79" t="s">
         <v>170</v>
@@ -5207,7 +4940,7 @@
         <v>246</v>
       </c>
       <c r="I79">
-        <v>3.9027681719269242E-5</v>
+        <v>1.9513840859634621E-5</v>
       </c>
       <c r="J79" t="s">
         <v>170</v>
@@ -5221,7 +4954,7 @@
         <v>247</v>
       </c>
       <c r="C80">
-        <v>8.7306000000000005E-4</v>
+        <v>4.3653000000000002E-4</v>
       </c>
       <c r="D80" t="s">
         <v>170</v>
@@ -5233,7 +4966,7 @@
         <v>247</v>
       </c>
       <c r="I80">
-        <v>5.6773671159393395E-5</v>
+        <v>2.8386835579696698E-5</v>
       </c>
       <c r="J80" t="s">
         <v>170</v>
@@ -5247,7 +4980,7 @@
         <v>248</v>
       </c>
       <c r="C81">
-        <v>8.6941999999999998E-4</v>
+        <v>4.3470999999999999E-4</v>
       </c>
       <c r="D81" t="s">
         <v>170</v>
@@ -5259,7 +4992,7 @@
         <v>248</v>
       </c>
       <c r="I81">
-        <v>6.3035373897201458E-5</v>
+        <v>3.1517686948600729E-5</v>
       </c>
       <c r="J81" t="s">
         <v>170</v>
@@ -5273,7 +5006,7 @@
         <v>249</v>
       </c>
       <c r="C82">
-        <v>8.6206E-4</v>
+        <v>4.3103E-4</v>
       </c>
       <c r="D82" t="s">
         <v>170</v>
@@ -5285,7 +5018,7 @@
         <v>249</v>
       </c>
       <c r="I82">
-        <v>7.2508898297936935E-5</v>
+        <v>3.6254449148968468E-5</v>
       </c>
       <c r="J82" t="s">
         <v>170</v>
@@ -5299,7 +5032,7 @@
         <v>250</v>
       </c>
       <c r="C83">
-        <v>8.3770000000000003E-4</v>
+        <v>4.1885000000000002E-4</v>
       </c>
       <c r="D83" t="s">
         <v>170</v>
@@ -5311,7 +5044,7 @@
         <v>250</v>
       </c>
       <c r="I83">
-        <v>6.7124373745382167E-5</v>
+        <v>3.3562186872691083E-5</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
@@ -5325,7 +5058,7 @@
         <v>251</v>
       </c>
       <c r="C84">
-        <v>6.1541999999999999E-4</v>
+        <v>3.0770999999999999E-4</v>
       </c>
       <c r="D84" t="s">
         <v>170</v>
@@ -5337,7 +5070,7 @@
         <v>251</v>
       </c>
       <c r="I84">
-        <v>7.5707224911860456E-5</v>
+        <v>3.7853612455930228E-5</v>
       </c>
       <c r="J84" t="s">
         <v>170</v>
@@ -5351,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="C85">
-        <v>5.9280000000000002E-5</v>
+        <v>2.9640000000000001E-5</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -5363,7 +5096,7 @@
         <v>252</v>
       </c>
       <c r="I85">
-        <v>7.7164690204281297E-5</v>
+        <v>3.8582345102140648E-5</v>
       </c>
       <c r="J85" t="s">
         <v>170</v>
@@ -5377,7 +5110,7 @@
         <v>253</v>
       </c>
       <c r="C86">
-        <v>3.3809999999999998E-4</v>
+        <v>1.6904999999999999E-4</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -5389,7 +5122,7 @@
         <v>253</v>
       </c>
       <c r="I86">
-        <v>6.5194581737824931E-5</v>
+        <v>3.2597290868912465E-5</v>
       </c>
       <c r="J86" t="s">
         <v>170</v>
@@ -5415,7 +5148,7 @@
         <v>254</v>
       </c>
       <c r="I87">
-        <v>5.5909988023144009E-5</v>
+        <v>2.7954994011572004E-5</v>
       </c>
       <c r="J87" t="s">
         <v>170</v>
@@ -5441,7 +5174,7 @@
         <v>255</v>
       </c>
       <c r="I88">
-        <v>4.8676641757055374E-5</v>
+        <v>2.4338320878527687E-5</v>
       </c>
       <c r="J88" t="s">
         <v>170</v>
@@ -5467,7 +5200,7 @@
         <v>256</v>
       </c>
       <c r="I89">
-        <v>3.9189622307316003E-5</v>
+        <v>1.9594811153658002E-5</v>
       </c>
       <c r="J89" t="s">
         <v>170</v>
@@ -5493,7 +5226,7 @@
         <v>257</v>
       </c>
       <c r="I90">
-        <v>3.2914424520504033E-5</v>
+        <v>1.6457212260252017E-5</v>
       </c>
       <c r="J90" t="s">
         <v>170</v>
@@ -5519,7 +5252,7 @@
         <v>258</v>
       </c>
       <c r="I91">
-        <v>2.6909127713770009E-5</v>
+        <v>1.3454563856885005E-5</v>
       </c>
       <c r="J91" t="s">
         <v>170</v>
@@ -5545,7 +5278,7 @@
         <v>259</v>
       </c>
       <c r="I92">
-        <v>3.8887333209620002E-4</v>
+        <v>1.9443666604810001E-4</v>
       </c>
       <c r="J92" t="s">
         <v>170</v>
@@ -5571,7 +5304,7 @@
         <v>260</v>
       </c>
       <c r="I93">
-        <v>2.9991396906259998E-4</v>
+        <v>1.4995698453129999E-4</v>
       </c>
       <c r="J93" t="s">
         <v>170</v>
@@ -5597,7 +5330,7 @@
         <v>261</v>
       </c>
       <c r="I94">
-        <v>2.7407095022000003E-4</v>
+        <v>1.3703547511000001E-4</v>
       </c>
       <c r="J94" t="s">
         <v>170</v>
@@ -5623,7 +5356,7 @@
         <v>262</v>
       </c>
       <c r="I95">
-        <v>2.6529916836760001E-4</v>
+        <v>1.326495841838E-4</v>
       </c>
       <c r="J95" t="s">
         <v>170</v>
@@ -5649,7 +5382,7 @@
         <v>263</v>
       </c>
       <c r="I96">
-        <v>2.5655437661299999E-4</v>
+        <v>1.282771883065E-4</v>
       </c>
       <c r="J96" t="s">
         <v>170</v>
@@ -5675,7 +5408,7 @@
         <v>264</v>
       </c>
       <c r="I97">
-        <v>2.7551492046339998E-4</v>
+        <v>1.3775746023169999E-4</v>
       </c>
       <c r="J97" t="s">
         <v>170</v>
@@ -5701,7 +5434,7 @@
         <v>265</v>
       </c>
       <c r="I98">
-        <v>2.249084866988E-4</v>
+        <v>1.124542433494E-4</v>
       </c>
       <c r="J98" t="s">
         <v>170</v>
@@ -5727,7 +5460,7 @@
         <v>266</v>
       </c>
       <c r="I99">
-        <v>2.0484134883E-4</v>
+        <v>1.02420674415E-4</v>
       </c>
       <c r="J99" t="s">
         <v>170</v>
@@ -5753,7 +5486,7 @@
         <v>267</v>
       </c>
       <c r="I100">
-        <v>2.1556991278819999E-4</v>
+        <v>1.0778495639409999E-4</v>
       </c>
       <c r="J100" t="s">
         <v>170</v>
@@ -5767,7 +5500,7 @@
         <v>268</v>
       </c>
       <c r="C101">
-        <v>6.1676000000000005E-4</v>
+        <v>3.0838000000000003E-4</v>
       </c>
       <c r="D101" t="s">
         <v>170</v>
@@ -5779,7 +5512,7 @@
         <v>268</v>
       </c>
       <c r="I101">
-        <v>1.8486867630438083E-4</v>
+        <v>9.2434338152190415E-5</v>
       </c>
       <c r="J101" t="s">
         <v>170</v>
@@ -5793,7 +5526,7 @@
         <v>269</v>
       </c>
       <c r="C102">
-        <v>3.9742E-4</v>
+        <v>1.9871E-4</v>
       </c>
       <c r="D102" t="s">
         <v>170</v>
@@ -5805,7 +5538,7 @@
         <v>269</v>
       </c>
       <c r="I102">
-        <v>1.506992122265144E-4</v>
+        <v>7.53496061132572E-5</v>
       </c>
       <c r="J102" t="s">
         <v>170</v>
@@ -5819,7 +5552,7 @@
         <v>270</v>
       </c>
       <c r="C103">
-        <v>9.3495999999999998E-4</v>
+        <v>4.6747999999999999E-4</v>
       </c>
       <c r="D103" t="s">
         <v>170</v>
@@ -5831,7 +5564,7 @@
         <v>270</v>
       </c>
       <c r="I103">
-        <v>1.2798704475295623E-4</v>
+        <v>6.3993522376478115E-5</v>
       </c>
       <c r="J103" t="s">
         <v>170</v>
@@ -5845,7 +5578,7 @@
         <v>271</v>
       </c>
       <c r="C104">
-        <v>9.7110000000000002E-4</v>
+        <v>4.8555000000000001E-4</v>
       </c>
       <c r="D104" t="s">
         <v>170</v>
@@ -5857,7 +5590,7 @@
         <v>271</v>
       </c>
       <c r="I104">
-        <v>1.0308867934076685E-4</v>
+        <v>5.1544339670383427E-5</v>
       </c>
       <c r="J104" t="s">
         <v>170</v>
@@ -5871,7 +5604,7 @@
         <v>272</v>
       </c>
       <c r="C105">
-        <v>9.6551999999999999E-4</v>
+        <v>4.8275999999999999E-4</v>
       </c>
       <c r="D105" t="s">
         <v>170</v>
@@ -5883,7 +5616,7 @@
         <v>272</v>
       </c>
       <c r="I105">
-        <v>7.3102680454108403E-5</v>
+        <v>3.6551340227054201E-5</v>
       </c>
       <c r="J105" t="s">
         <v>170</v>
@@ -5897,7 +5630,7 @@
         <v>273</v>
       </c>
       <c r="C106">
-        <v>9.4609999999999996E-4</v>
+        <v>4.7304999999999998E-4</v>
       </c>
       <c r="D106" t="s">
         <v>170</v>
@@ -5909,7 +5642,7 @@
         <v>273</v>
       </c>
       <c r="I106">
-        <v>1.8609672576373543E-5</v>
+        <v>9.3048362881867714E-6</v>
       </c>
       <c r="J106" t="s">
         <v>170</v>
@@ -5923,7 +5656,7 @@
         <v>274</v>
       </c>
       <c r="C107">
-        <v>9.0087999999999995E-4</v>
+        <v>4.5043999999999998E-4</v>
       </c>
       <c r="D107" t="s">
         <v>170</v>
@@ -5935,7 +5668,7 @@
         <v>274</v>
       </c>
       <c r="I107">
-        <v>3.6301681820482106E-6</v>
+        <v>1.8150840910241053E-6</v>
       </c>
       <c r="J107" t="s">
         <v>170</v>
@@ -5949,7 +5682,7 @@
         <v>275</v>
       </c>
       <c r="C108">
-        <v>7.9927999999999998E-4</v>
+        <v>3.9963999999999999E-4</v>
       </c>
       <c r="D108" t="s">
         <v>170</v>
@@ -5961,7 +5694,7 @@
         <v>275</v>
       </c>
       <c r="I108">
-        <v>1.2685346063662892E-6</v>
+        <v>6.342673031831446E-7</v>
       </c>
       <c r="J108" t="s">
         <v>170</v>
@@ -5975,7 +5708,7 @@
         <v>276</v>
       </c>
       <c r="C109">
-        <v>5.9763999999999998E-4</v>
+        <v>2.9881999999999999E-4</v>
       </c>
       <c r="D109" t="s">
         <v>170</v>
@@ -5987,7 +5720,7 @@
         <v>276</v>
       </c>
       <c r="I109">
-        <v>1.2415445083584959E-6</v>
+        <v>6.2077225417924794E-7</v>
       </c>
       <c r="J109" t="s">
         <v>170</v>
@@ -6013,7 +5746,7 @@
         <v>277</v>
       </c>
       <c r="I110">
-        <v>2.1996929876351612E-6</v>
+        <v>1.0998464938175806E-6</v>
       </c>
       <c r="J110" t="s">
         <v>170</v>
@@ -6039,7 +5772,7 @@
         <v>278</v>
       </c>
       <c r="I111">
-        <v>4.6827820043521529E-6</v>
+        <v>2.3413910021760765E-6</v>
       </c>
       <c r="J111" t="s">
         <v>170</v>
@@ -6065,7 +5798,7 @@
         <v>279</v>
       </c>
       <c r="I112">
-        <v>1.0215752095949798E-5</v>
+        <v>5.1078760479748992E-6</v>
       </c>
       <c r="J112" t="s">
         <v>170</v>
@@ -6091,7 +5824,7 @@
         <v>280</v>
       </c>
       <c r="I113">
-        <v>1.4925524198309744E-5</v>
+        <v>7.4627620991548721E-6</v>
       </c>
       <c r="J113" t="s">
         <v>170</v>
@@ -6117,7 +5850,7 @@
         <v>281</v>
       </c>
       <c r="I114">
-        <v>1.55193063544812E-5</v>
+        <v>7.7596531772406E-6</v>
       </c>
       <c r="J114" t="s">
         <v>170</v>
@@ -6143,7 +5876,7 @@
         <v>282</v>
       </c>
       <c r="I115">
-        <v>1.4642128169227915E-5</v>
+        <v>7.3210640846139573E-6</v>
       </c>
       <c r="J115" t="s">
         <v>170</v>
@@ -6366,8 +6099,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA898DAD-D4AE-4BBE-9816-0BFDA973ED00}">
-  <dimension ref="B2:O417"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E480DB6-D76C-4304-B2EF-62CBF0CC11E4}">
+  <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6413,7 +6146,7 @@
         <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -6433,19 +6166,19 @@
         <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="J4">
-        <v>0.24806903305642378</v>
+        <v>7.0344479861463471E-2</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="O4">
-        <v>0.29810125766371054</v>
+        <v>0.30968720604742561</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
@@ -6465,19 +6198,19 @@
         <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="J5">
-        <v>4.0171462500983135E-2</v>
+        <v>1.8033196386909336E-2</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="O5">
-        <v>0.35520168275108466</v>
+        <v>0.1928345090586705</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
@@ -6497,19 +6230,19 @@
         <v>298</v>
       </c>
       <c r="I6" t="s">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c r="J6">
-        <v>1.0287146068685289E-2</v>
+        <v>1.9274877117294156E-2</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c r="O6">
-        <v>0.23912691524416885</v>
+        <v>0.18165042571789325</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
@@ -6529,19 +6262,19 @@
         <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="J7">
-        <v>1.1103804213295742E-2</v>
+        <v>0.13825345156045782</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="O7">
-        <v>0.22007425204025743</v>
+        <v>0.17530064938790746</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
@@ -6561,19 +6294,19 @@
         <v>298</v>
       </c>
       <c r="I8" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="J8">
-        <v>8.0691231869520083E-2</v>
+        <v>1.9663800947041225E-2</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="O8">
-        <v>0.20260556829383947</v>
+        <v>0.17024657556105471</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
@@ -6593,19 +6326,19 @@
         <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="J9">
-        <v>1.1464127490939512E-2</v>
+        <v>1.9809797529270097E-2</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="O9">
-        <v>0.1983305723945239</v>
+        <v>0.16800611614323202</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -6625,19 +6358,19 @@
         <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="J10">
-        <v>1.1520846307757798E-2</v>
+        <v>1.9867380823482533E-2</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="O10">
-        <v>0.1982017084444474</v>
+        <v>0.16556716216965373</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -6657,27 +6390,27 @@
         <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="J11">
-        <v>1.1556653871399694E-2</v>
+        <v>0.12272809274439068</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="O11">
-        <v>0.19555660775355221</v>
+        <v>0.26883721543452221</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C12">
-        <v>4.3093089360150507E-5</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D12" t="s">
         <v>179</v>
@@ -6689,27 +6422,27 @@
         <v>298</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="J12">
-        <v>7.127376073384252E-2</v>
+        <v>8.8735740909545843E-5</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="O12">
-        <v>0.30160320781667127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C13">
-        <v>2.9833677249334962E-5</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D13" t="s">
         <v>180</v>
@@ -6721,16 +6454,16 @@
         <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="J13">
-        <v>4.4367870454772922E-5</v>
+        <v>8.6442600874537393E-5</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6738,10 +6471,10 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C14">
-        <v>3.3148530277038847E-5</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D14" t="s">
         <v>181</v>
@@ -6753,16 +6486,16 @@
         <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="J14">
-        <v>4.3221300437268696E-5</v>
+        <v>8.6224206585488943E-5</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6770,10 +6503,10 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C15">
-        <v>2.9170706643794186E-5</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D15" t="s">
         <v>182</v>
@@ -6785,16 +6518,16 @@
         <v>298</v>
       </c>
       <c r="I15" t="s">
-        <v>310</v>
+        <v>182</v>
       </c>
       <c r="J15">
-        <v>4.3112103292744471E-5</v>
+        <v>8.7134182789857384E-5</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>310</v>
+        <v>182</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -6802,10 +6535,10 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C16">
-        <v>4.2430118754609728E-5</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D16" t="s">
         <v>183</v>
@@ -6817,16 +6550,16 @@
         <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="J16">
-        <v>4.3567091394928692E-5</v>
+        <v>9.0446496173758487E-5</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
       </c>
       <c r="N16" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -6834,10 +6567,10 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C17">
-        <v>1.1535688536409519E-4</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D17" t="s">
         <v>184</v>
@@ -6849,16 +6582,16 @@
         <v>298</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="J17">
-        <v>4.5223248086879243E-5</v>
+        <v>9.8417887724026006E-5</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
       </c>
       <c r="N17" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -6866,10 +6599,10 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C18">
-        <v>3.3811500882579627E-4</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D18" t="s">
         <v>185</v>
@@ -6881,16 +6614,16 @@
         <v>298</v>
       </c>
       <c r="I18" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="J18">
-        <v>4.9208943862013003E-5</v>
+        <v>1.0966519361001989E-4</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
       </c>
       <c r="N18" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -6898,10 +6631,10 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C19">
-        <v>3.8120809818594675E-4</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D19" t="s">
         <v>186</v>
@@ -6913,16 +6646,16 @@
         <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="J19">
-        <v>5.4832596805009945E-5</v>
+        <v>1.1527064702892946E-4</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
       </c>
       <c r="N19" t="s">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -6930,10 +6663,10 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C20">
-        <v>2.9170706643794189E-4</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D20" t="s">
         <v>187</v>
@@ -6945,16 +6678,16 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="J20">
-        <v>5.7635323514464729E-5</v>
+        <v>1.1599862799242421E-4</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
       </c>
       <c r="N20" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -6962,10 +6695,10 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C21">
-        <v>2.8905518401577877E-4</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D21" t="s">
         <v>188</v>
@@ -6977,16 +6710,16 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>316</v>
+        <v>188</v>
       </c>
       <c r="J21">
-        <v>5.7999313996212106E-5</v>
+        <v>1.1476106035448314E-4</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>316</v>
+        <v>188</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -6994,10 +6727,10 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C22">
-        <v>2.817625073548302E-4</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D22" t="s">
         <v>189</v>
@@ -7009,16 +6742,16 @@
         <v>298</v>
       </c>
       <c r="I22" t="s">
-        <v>317</v>
+        <v>189</v>
       </c>
       <c r="J22">
-        <v>5.7380530177241569E-5</v>
+        <v>1.126863146085231E-4</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>317</v>
+        <v>189</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -7026,10 +6759,10 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C23">
-        <v>2.8109953674928942E-4</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D23" t="s">
         <v>190</v>
@@ -7041,16 +6774,16 @@
         <v>298</v>
       </c>
       <c r="I23" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="J23">
-        <v>5.6343157304261548E-5</v>
+        <v>1.1264991556034837E-4</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
       </c>
       <c r="N23" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -7058,10 +6791,10 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C24">
-        <v>2.8507736038253404E-4</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D24" t="s">
         <v>191</v>
@@ -7073,16 +6806,16 @@
         <v>298</v>
       </c>
       <c r="I24" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="J24">
-        <v>5.6324957780174186E-5</v>
+        <v>1.1246792031947467E-4</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
       </c>
       <c r="N24" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -7090,10 +6823,10 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C25">
-        <v>2.9767380188780885E-4</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D25" t="s">
         <v>192</v>
@@ -7105,16 +6838,16 @@
         <v>298</v>
       </c>
       <c r="I25" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="J25">
-        <v>5.6233960159737337E-5</v>
+        <v>1.1206753078955255E-4</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
       </c>
       <c r="N25" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -7122,10 +6855,10 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C26">
-        <v>3.0098865491551274E-4</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D26" t="s">
         <v>193</v>
@@ -7137,16 +6870,16 @@
         <v>298</v>
       </c>
       <c r="I26" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="J26">
-        <v>5.6033765394776276E-5</v>
+        <v>1.1476106035448314E-4</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
       </c>
       <c r="N26" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -7154,10 +6887,10 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C27">
-        <v>3.4474471488120406E-4</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D27" t="s">
         <v>194</v>
@@ -7169,16 +6902,16 @@
         <v>298</v>
       </c>
       <c r="I27" t="s">
-        <v>322</v>
+        <v>194</v>
       </c>
       <c r="J27">
-        <v>5.7380530177241569E-5</v>
+        <v>1.1854656136465584E-4</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>322</v>
+        <v>194</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -7186,10 +6919,10 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C28">
-        <v>4.4419030571232054E-4</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D28" t="s">
         <v>195</v>
@@ -7201,16 +6934,16 @@
         <v>298</v>
       </c>
       <c r="I28" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="J28">
-        <v>5.9273280682327918E-5</v>
+        <v>1.205485090142664E-4</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -7218,10 +6951,10 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C29">
-        <v>4.4419030571232054E-4</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D29" t="s">
         <v>196</v>
@@ -7233,16 +6966,16 @@
         <v>298</v>
       </c>
       <c r="I29" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="J29">
-        <v>6.0274254507133202E-5</v>
+        <v>1.2367882715729381E-4</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
       </c>
       <c r="N29" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -7250,10 +6983,10 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C30">
-        <v>3.4474471488120406E-4</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -7265,16 +6998,16 @@
         <v>298</v>
       </c>
       <c r="I30" t="s">
-        <v>325</v>
+        <v>197</v>
       </c>
       <c r="J30">
-        <v>6.1839413578646904E-5</v>
+        <v>1.2397001954269173E-4</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>325</v>
+        <v>197</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -7282,10 +7015,10 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C31">
-        <v>3.1159618460416515E-4</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D31" t="s">
         <v>198</v>
@@ -7297,16 +7030,16 @@
         <v>298</v>
       </c>
       <c r="I31" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="J31">
-        <v>6.1985009771345866E-5</v>
+        <v>1.2346043286824539E-4</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
       </c>
       <c r="N31" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -7314,10 +7047,10 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C32">
-        <v>2.187802998284564E-4</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -7329,16 +7062,16 @@
         <v>298</v>
       </c>
       <c r="I32" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="J32">
-        <v>6.1730216434122693E-5</v>
+        <v>1.2087610044783904E-4</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -7346,10 +7079,10 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C33">
-        <v>1.5911294532978647E-4</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -7361,16 +7094,16 @@
         <v>298</v>
       </c>
       <c r="I33" t="s">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="J33">
-        <v>6.0438050223919519E-5</v>
+        <v>1.168722051486179E-4</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -7378,10 +7111,10 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C34">
-        <v>1.1270500294193207E-4</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D34" t="s">
         <v>201</v>
@@ -7393,16 +7126,16 @@
         <v>298</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="J34">
-        <v>5.8436102574308952E-5</v>
+        <v>1.0264017731229555E-4</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -7410,10 +7143,10 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C35">
-        <v>5.9667354498669924E-5</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D35" t="s">
         <v>202</v>
@@ -7425,16 +7158,16 @@
         <v>298</v>
       </c>
       <c r="I35" t="s">
-        <v>330</v>
+        <v>202</v>
       </c>
       <c r="J35">
-        <v>5.1320088656147775E-5</v>
+        <v>9.7289517230609156E-5</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>330</v>
+        <v>202</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -7457,19 +7190,19 @@
         <v>298</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="J36">
-        <v>4.8644758615304578E-5</v>
+        <v>1.1618491642361225E-2</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.13557690684047885</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.45">
@@ -7489,19 +7222,19 @@
         <v>298</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>204</v>
       </c>
       <c r="J37">
-        <v>3.7063497124910716E-5</v>
+        <v>2.9641832599645607E-3</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>332</v>
+        <v>204</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>9.401420358471424E-2</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.45">
@@ -7521,19 +7254,19 @@
         <v>298</v>
       </c>
       <c r="I38" t="s">
-        <v>333</v>
+        <v>205</v>
       </c>
       <c r="J38">
-        <v>3.6972499504473887E-5</v>
+        <v>3.2721556065710145E-3</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>205</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>8.0094983227168237E-2</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.45">
@@ -7553,19 +7286,19 @@
         <v>298</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="J39">
-        <v>3.6972499504473887E-5</v>
+        <v>2.444025550181483E-2</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>8.616848019234391E-2</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.45">
@@ -7585,19 +7318,19 @@
         <v>298</v>
       </c>
       <c r="I40" t="s">
-        <v>335</v>
+        <v>207</v>
       </c>
       <c r="J40">
-        <v>3.7482086178920206E-5</v>
+        <v>3.4522216978914409E-3</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>335</v>
+        <v>207</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>7.5493088763244565E-2</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.45">
@@ -7617,19 +7350,19 @@
         <v>298</v>
       </c>
       <c r="I41" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="J41">
-        <v>3.9283839063569706E-5</v>
+        <v>3.4406831996200487E-3</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>7.4480096150344011E-2</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.45">
@@ -7649,19 +7382,19 @@
         <v>298</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="J42">
-        <v>4.2323159586160294E-5</v>
+        <v>3.4449782873046675E-3</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>7.3339010065282428E-2</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.45">
@@ -7681,19 +7414,19 @@
         <v>298</v>
       </c>
       <c r="I43" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="J43">
-        <v>4.827440396272987E-5</v>
+        <v>2.130229355867071E-2</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.1652013281314475</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.45">
@@ -7713,19 +7446,19 @@
         <v>298</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
       <c r="J44">
-        <v>5.2569491647348888E-5</v>
+        <v>1.2099385218372427E-2</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.12902234379322008</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.45">
@@ -7745,19 +7478,19 @@
         <v>298</v>
       </c>
       <c r="I45" t="s">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="J45">
-        <v>5.2096304021077299E-5</v>
+        <v>3.1109202530815116E-3</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>7.7971777086821348E-2</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.45">
@@ -7777,19 +7510,19 @@
         <v>298</v>
       </c>
       <c r="I46" t="s">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="J46">
-        <v>5.2005306400640456E-5</v>
+        <v>3.4309042855856283E-3</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>7.5128972124680171E-2</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.45">
@@ -7809,19 +7542,19 @@
         <v>298</v>
       </c>
       <c r="I47" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
       <c r="J47">
-        <v>5.2078104496989937E-5</v>
+        <v>2.5746085566459274E-2</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>8.9979101399537242E-2</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.45">
@@ -7841,19 +7574,19 @@
         <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>215</v>
       </c>
       <c r="J48">
-        <v>5.2005306400640456E-5</v>
+        <v>3.6409267935538633E-3</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>343</v>
+        <v>215</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>6.9084149488111368E-2</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.45">
@@ -7873,19 +7606,19 @@
         <v>298</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="J49">
-        <v>5.1604916870718348E-5</v>
+        <v>3.6276411409700842E-3</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
       </c>
       <c r="N49" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>6.3174949759052135E-2</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.45">
@@ -7905,19 +7638,19 @@
         <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="J50">
-        <v>5.1313724485320438E-5</v>
+        <v>3.6309170553058107E-3</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>6.2079126041543642E-2</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
@@ -7937,19 +7670,19 @@
         <v>298</v>
       </c>
       <c r="I51" t="s">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="J51">
-        <v>5.1313724485320438E-5</v>
+        <v>2.2260330718005539E-2</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
       </c>
       <c r="N51" t="s">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.16140851710514448</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.45">
@@ -7969,19 +7702,19 @@
         <v>298</v>
       </c>
       <c r="I52" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="J52">
-        <v>5.1677714967067822E-5</v>
+        <v>1.2069541818935983E-2</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
       </c>
       <c r="N52" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.12968033057013195</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.45">
@@ -8001,19 +7734,19 @@
         <v>298</v>
       </c>
       <c r="I53" t="s">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="J53">
-        <v>5.2624090219611E-5</v>
+        <v>3.0851941698449752E-3</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>6.1360497773364164E-2</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.45">
@@ -8033,19 +7766,19 @@
         <v>298</v>
       </c>
       <c r="I54" t="s">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="J54">
-        <v>5.3989054526163642E-5</v>
+        <v>3.4037222404221024E-3</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>6.2348795815322156E-2</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
@@ -8065,19 +7798,19 @@
         <v>298</v>
       </c>
       <c r="I55" t="s">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="J55">
-        <v>5.3970855002076287E-5</v>
+        <v>2.5888025363005423E-2</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
       </c>
       <c r="N55" t="s">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>7.4828164883293136E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
@@ -8097,19 +7830,19 @@
         <v>298</v>
       </c>
       <c r="I56" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="J56">
-        <v>5.3606864520328909E-5</v>
+        <v>3.679008241767642E-3</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
       </c>
       <c r="N56" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>5.5692523827888252E-2</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
@@ -8129,19 +7862,19 @@
         <v>298</v>
       </c>
       <c r="I57" t="s">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="J57">
-        <v>5.1896109256116252E-5</v>
+        <v>3.6607723186320991E-3</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>5.2492277498669804E-2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
@@ -8161,19 +7894,19 @@
         <v>298</v>
       </c>
       <c r="I58" t="s">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="J58">
-        <v>4.9439173504321457E-5</v>
+        <v>3.6654677958466403E-3</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>5.1982932420116645E-2</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.45">
@@ -8193,19 +7926,19 @@
         <v>298</v>
       </c>
       <c r="I59" t="s">
-        <v>354</v>
+        <v>226</v>
       </c>
       <c r="J59">
-        <v>4.4652698669343482E-5</v>
+        <v>2.239138719914744E-2</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>354</v>
+        <v>226</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.13724813331890484</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
@@ -8225,19 +7958,19 @@
         <v>298</v>
       </c>
       <c r="I60" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="J60">
-        <v>4.1194789092743424E-5</v>
+        <v>3.8154971965589771E-2</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.25674709503588833</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
@@ -8257,19 +7990,19 @@
         <v>298</v>
       </c>
       <c r="I61" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="J61">
-        <v>4.3998022295654277E-5</v>
+        <v>9.7988707437378728E-3</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.16088521887752272</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
@@ -8289,19 +8022,19 @@
         <v>298</v>
       </c>
       <c r="I62" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="J62">
-        <v>4.3561233717557432E-5</v>
+        <v>1.0591824008224528E-2</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.13014044950551518</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
@@ -8321,19 +8054,19 @@
         <v>298</v>
       </c>
       <c r="I63" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="J63">
-        <v>4.3597632765732162E-5</v>
+        <v>7.6190141719304341E-2</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.14185074137602682</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
@@ -8353,19 +8086,19 @@
         <v>298</v>
       </c>
       <c r="I64" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="J64">
-        <v>4.5708777559866941E-5</v>
+        <v>1.078037107776967E-2</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.1523067200337056</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
@@ -8385,19 +8118,19 @@
         <v>298</v>
       </c>
       <c r="I65" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="J65">
-        <v>5.3024986242989171E-5</v>
+        <v>1.0826379474662536E-2</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.15096980037616792</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
@@ -8417,19 +8150,19 @@
         <v>298</v>
       </c>
       <c r="I66" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="J66">
-        <v>6.2470539244333543E-5</v>
+        <v>1.0862960518078149E-2</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.14552256375484984</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
@@ -8449,27 +8182,27 @@
         <v>298</v>
       </c>
       <c r="I67" t="s">
-        <v>362</v>
+        <v>234</v>
       </c>
       <c r="J67">
-        <v>6.6001246917283082E-5</v>
+        <v>6.8016881047859731E-2</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>362</v>
+        <v>234</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.23431183189039029</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B68">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C68">
-        <v>4.3093089360150507E-5</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D68" t="s">
         <v>235</v>
@@ -8481,16 +8214,16 @@
         <v>298</v>
       </c>
       <c r="I68" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
       <c r="J68">
-        <v>6.7784800277845213E-5</v>
+        <v>7.4126994249821431E-5</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -8498,10 +8231,10 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B69">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C69">
-        <v>2.9833677249334962E-5</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D69" t="s">
         <v>236</v>
@@ -8513,16 +8246,16 @@
         <v>298</v>
       </c>
       <c r="I69" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="J69">
-        <v>6.572825405597254E-5</v>
+        <v>7.3944999008947773E-5</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -8530,10 +8263,10 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B70">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C70">
-        <v>3.3148530277038847E-5</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D70" t="s">
         <v>237</v>
@@ -8545,16 +8278,16 @@
         <v>298</v>
       </c>
       <c r="I70" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="J70">
-        <v>6.5073071188827272E-5</v>
+        <v>7.3944999008947773E-5</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -8562,10 +8295,10 @@
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B71">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C71">
-        <v>2.9170706643794186E-5</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D71" t="s">
         <v>238</v>
@@ -8577,16 +8310,16 @@
         <v>298</v>
       </c>
       <c r="I71" t="s">
-        <v>366</v>
+        <v>238</v>
       </c>
       <c r="J71">
-        <v>6.3416914496876721E-5</v>
+        <v>7.4964172357840412E-5</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>366</v>
+        <v>238</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -8594,10 +8327,10 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B72">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C72">
-        <v>4.2430118754609728E-5</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D72" t="s">
         <v>239</v>
@@ -8609,16 +8342,16 @@
         <v>298</v>
       </c>
       <c r="I72" t="s">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="J72">
-        <v>6.3307717352352509E-5</v>
+        <v>7.8567678127139411E-5</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -8626,10 +8359,10 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B73">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C73">
-        <v>1.1535688536409519E-4</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D73" t="s">
         <v>240</v>
@@ -8641,16 +8374,16 @@
         <v>298</v>
       </c>
       <c r="I73" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="J73">
-        <v>6.3307717352352509E-5</v>
+        <v>8.4646319172320588E-5</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -8658,10 +8391,10 @@
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B74">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C74">
-        <v>3.3811500882579627E-4</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D74" t="s">
         <v>241</v>
@@ -8673,16 +8406,16 @@
         <v>298</v>
       </c>
       <c r="I74" t="s">
-        <v>369</v>
+        <v>241</v>
       </c>
       <c r="J74">
-        <v>6.2889128298343033E-5</v>
+        <v>9.654880792545974E-5</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>369</v>
+        <v>241</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -8690,10 +8423,10 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B75">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C75">
-        <v>3.8120809818594675E-4</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D75" t="s">
         <v>242</v>
@@ -8705,16 +8438,16 @@
         <v>298</v>
       </c>
       <c r="I75" t="s">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="J75">
-        <v>6.2688933533381979E-5</v>
+        <v>1.0513898329469778E-4</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -8722,10 +8455,10 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B76">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C76">
-        <v>2.9170706643794189E-4</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D76" t="s">
         <v>243</v>
@@ -8737,16 +8470,16 @@
         <v>298</v>
       </c>
       <c r="I76" t="s">
-        <v>371</v>
+        <v>243</v>
       </c>
       <c r="J76">
-        <v>6.3981099743585159E-5</v>
+        <v>1.041926080421546E-4</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>371</v>
+        <v>243</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -8754,10 +8487,10 @@
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B77">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C77">
-        <v>2.8905518401577877E-4</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D77" t="s">
         <v>244</v>
@@ -8769,16 +8502,16 @@
         <v>298</v>
       </c>
       <c r="I77" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="J77">
-        <v>6.4035698315847251E-5</v>
+        <v>1.0401061280128091E-4</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -8786,10 +8519,10 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B78">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C78">
-        <v>2.817625073548302E-4</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D78" t="s">
         <v>245</v>
@@ -8801,16 +8534,16 @@
         <v>298</v>
       </c>
       <c r="I78" t="s">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="J78">
-        <v>6.6474434543554664E-5</v>
+        <v>1.0415620899397987E-4</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -8818,10 +8551,10 @@
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B79">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C79">
-        <v>2.8109953674928942E-4</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D79" t="s">
         <v>246</v>
@@ -8833,16 +8566,16 @@
         <v>298</v>
       </c>
       <c r="I79" t="s">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="J79">
-        <v>6.6674629308515732E-5</v>
+        <v>1.0401061280128091E-4</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -8850,10 +8583,10 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B80">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C80">
-        <v>2.8507736038253404E-4</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D80" t="s">
         <v>247</v>
@@ -8865,16 +8598,16 @@
         <v>298</v>
       </c>
       <c r="I80" t="s">
-        <v>375</v>
+        <v>247</v>
       </c>
       <c r="J80">
-        <v>6.5564458339186237E-5</v>
+        <v>1.032098337414367E-4</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>375</v>
+        <v>247</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -8882,10 +8615,10 @@
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B81">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C81">
-        <v>2.9767380188780885E-4</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D81" t="s">
         <v>248</v>
@@ -8897,16 +8630,16 @@
         <v>298</v>
       </c>
       <c r="I81" t="s">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="J81">
-        <v>6.1123774461868257E-5</v>
+        <v>1.0262744897064088E-4</v>
       </c>
       <c r="M81" t="s">
         <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -8914,10 +8647,10 @@
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B82">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C82">
-        <v>3.0098865491551274E-4</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D82" t="s">
         <v>249</v>
@@ -8929,16 +8662,16 @@
         <v>298</v>
       </c>
       <c r="I82" t="s">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="J82">
-        <v>5.551832104295869E-5</v>
+        <v>1.0262744897064088E-4</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -8946,10 +8679,10 @@
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B83">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C83">
-        <v>3.4474471488120406E-4</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D83" t="s">
         <v>250</v>
@@ -8961,16 +8694,16 @@
         <v>298</v>
       </c>
       <c r="I83" t="s">
-        <v>378</v>
+        <v>250</v>
       </c>
       <c r="J83">
-        <v>5.0458853346670172E-5</v>
+        <v>1.0335542993413564E-4</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>378</v>
+        <v>250</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -8978,10 +8711,10 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B84">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C84">
-        <v>4.4419030571232054E-4</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D84" t="s">
         <v>251</v>
@@ -8993,16 +8726,16 @@
         <v>298</v>
       </c>
       <c r="I84" t="s">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="J84">
-        <v>4.6327561378837478E-5</v>
+        <v>1.05248180439222E-4</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -9010,10 +8743,10 @@
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B85">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C85">
-        <v>4.4419030571232054E-4</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D85" t="s">
         <v>252</v>
@@ -9025,27 +8758,27 @@
         <v>298</v>
       </c>
       <c r="I85" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="J85">
-        <v>0.10699376924257734</v>
+        <v>1.0797810905232728E-4</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="O85">
-        <v>0.26356772440594867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B86">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C86">
-        <v>3.4474471488120406E-4</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D86" t="s">
         <v>253</v>
@@ -9057,27 +8790,27 @@
         <v>298</v>
       </c>
       <c r="I86" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="J86">
-        <v>1.7586119965365868E-2</v>
+        <v>1.0794171000415257E-4</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="O86">
-        <v>0.30968720604742561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B87">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C87">
-        <v>3.1159618460416515E-4</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D87" t="s">
         <v>254</v>
@@ -9089,27 +8822,27 @@
         <v>298</v>
       </c>
       <c r="I87" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="J87">
-        <v>4.5082990967273339E-3</v>
+        <v>1.0721372904065782E-4</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="O87">
-        <v>0.1928345090586705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B88">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C88">
-        <v>2.187802998284564E-4</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D88" t="s">
         <v>255</v>
@@ -9121,27 +8854,27 @@
         <v>298</v>
       </c>
       <c r="I88" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="J88">
-        <v>4.8187192793235391E-3</v>
+        <v>1.037922185122325E-4</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="O88">
-        <v>0.18165042571789325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B89">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C89">
-        <v>1.5911294532978647E-4</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D89" t="s">
         <v>256</v>
@@ -9153,27 +8886,27 @@
         <v>298</v>
       </c>
       <c r="I89" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="J89">
-        <v>3.4563362890114455E-2</v>
+        <v>9.8878347008642914E-5</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="O89">
-        <v>0.17530064938790746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B90">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C90">
-        <v>1.1270500294193207E-4</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D90" t="s">
         <v>257</v>
@@ -9185,27 +8918,27 @@
         <v>298</v>
       </c>
       <c r="I90" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="J90">
-        <v>4.9159502367603063E-3</v>
+        <v>8.9305397338686963E-5</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="O90">
-        <v>0.17024657556105471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C91">
-        <v>5.9667354498669924E-5</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D91" t="s">
         <v>258</v>
@@ -9217,27 +8950,27 @@
         <v>298</v>
       </c>
       <c r="I91" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="J91">
-        <v>4.9524493823175243E-3</v>
+        <v>8.2389578185486847E-5</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="O91">
-        <v>0.16800611614323202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C92">
-        <v>4.3093089360150507E-5</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D92" t="s">
         <v>259</v>
@@ -9249,27 +8982,27 @@
         <v>298</v>
       </c>
       <c r="I92" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="J92">
-        <v>4.9668452058706332E-3</v>
+        <v>8.7996044591308553E-5</v>
       </c>
       <c r="M92" t="s">
         <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="O92">
-        <v>0.16556716216965373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C93">
-        <v>2.9833677249334962E-5</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D93" t="s">
         <v>260</v>
@@ -9281,27 +9014,27 @@
         <v>298</v>
       </c>
       <c r="I93" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="J93">
-        <v>3.0682023186097671E-2</v>
+        <v>8.7122467435114863E-5</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="O93">
-        <v>0.26883721543452221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C94">
-        <v>3.3148530277038847E-5</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D94" t="s">
         <v>261</v>
@@ -9313,16 +9046,16 @@
         <v>298</v>
       </c>
       <c r="I94" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="J94">
-        <v>4.4367870454772922E-5</v>
+        <v>8.7195265531464324E-5</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -9330,10 +9063,10 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C95">
-        <v>2.9170706643794186E-5</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D95" t="s">
         <v>262</v>
@@ -9345,16 +9078,16 @@
         <v>298</v>
       </c>
       <c r="I95" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="J95">
-        <v>4.3221300437268696E-5</v>
+        <v>9.1417555119733881E-5</v>
       </c>
       <c r="M95" t="s">
         <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -9362,10 +9095,10 @@
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B96">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C96">
-        <v>4.2430118754609728E-5</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D96" t="s">
         <v>263</v>
@@ -9377,16 +9110,16 @@
         <v>298</v>
       </c>
       <c r="I96" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="J96">
-        <v>4.3112103292744471E-5</v>
+        <v>1.0604997248597834E-4</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -9394,10 +9127,10 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B97">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C97">
-        <v>1.1535688536409519E-4</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D97" t="s">
         <v>264</v>
@@ -9409,16 +9142,16 @@
         <v>298</v>
       </c>
       <c r="I97" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="J97">
-        <v>4.3567091394928692E-5</v>
+        <v>1.2494107848866709E-4</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -9426,10 +9159,10 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B98">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C98">
-        <v>3.3811500882579627E-4</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D98" t="s">
         <v>265</v>
@@ -9441,16 +9174,16 @@
         <v>298</v>
       </c>
       <c r="I98" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="J98">
-        <v>4.5223248086879243E-5</v>
+        <v>1.3200249383456616E-4</v>
       </c>
       <c r="M98" t="s">
         <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -9458,10 +9191,10 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B99">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C99">
-        <v>3.8120809818594675E-4</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D99" t="s">
         <v>266</v>
@@ -9473,16 +9206,16 @@
         <v>298</v>
       </c>
       <c r="I99" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="J99">
-        <v>4.9208943862013003E-5</v>
+        <v>1.3556960055569043E-4</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -9490,10 +9223,10 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B100">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C100">
-        <v>2.9170706643794189E-4</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D100" t="s">
         <v>267</v>
@@ -9505,16 +9238,16 @@
         <v>298</v>
       </c>
       <c r="I100" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="J100">
-        <v>5.4832596805009945E-5</v>
+        <v>1.3145650811194508E-4</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -9522,10 +9255,10 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B101">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C101">
-        <v>2.8905518401577877E-4</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D101" t="s">
         <v>268</v>
@@ -9537,16 +9270,16 @@
         <v>298</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="J101">
-        <v>5.7635323514464729E-5</v>
+        <v>1.3014614237765454E-4</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -9554,10 +9287,10 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B102">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C102">
-        <v>2.817625073548302E-4</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D102" t="s">
         <v>269</v>
@@ -9569,16 +9302,16 @@
         <v>298</v>
       </c>
       <c r="I102" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="J102">
-        <v>5.7999313996212106E-5</v>
+        <v>1.2683382899375344E-4</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -9586,10 +9319,10 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B103">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C103">
-        <v>2.8109953674928942E-4</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D103" t="s">
         <v>270</v>
@@ -9601,16 +9334,16 @@
         <v>298</v>
       </c>
       <c r="I103" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="J103">
-        <v>5.7380530177241569E-5</v>
+        <v>1.2661543470470502E-4</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -9618,10 +9351,10 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B104">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C104">
-        <v>2.8507736038253404E-4</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D104" t="s">
         <v>271</v>
@@ -9633,16 +9366,16 @@
         <v>298</v>
       </c>
       <c r="I104" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="J104">
-        <v>5.6343157304261548E-5</v>
+        <v>1.2661543470470502E-4</v>
       </c>
       <c r="M104" t="s">
         <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -9650,10 +9383,10 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B105">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C105">
-        <v>2.9767380188780885E-4</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D105" t="s">
         <v>272</v>
@@ -9665,16 +9398,16 @@
         <v>298</v>
       </c>
       <c r="I105" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="J105">
-        <v>5.6324957780174186E-5</v>
+        <v>1.2577825659668607E-4</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -9682,10 +9415,10 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B106">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C106">
-        <v>3.0098865491551274E-4</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D106" t="s">
         <v>273</v>
@@ -9697,16 +9430,16 @@
         <v>298</v>
       </c>
       <c r="I106" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="J106">
-        <v>5.6233960159737337E-5</v>
+        <v>1.2537786706676396E-4</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -9714,10 +9447,10 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B107">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C107">
-        <v>3.4474471488120406E-4</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D107" t="s">
         <v>274</v>
@@ -9729,16 +9462,16 @@
         <v>298</v>
       </c>
       <c r="I107" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="J107">
-        <v>5.6033765394776276E-5</v>
+        <v>1.2796219948717032E-4</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -9746,10 +9479,10 @@
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B108">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C108">
-        <v>4.4419030571232054E-4</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D108" t="s">
         <v>275</v>
@@ -9761,16 +9494,16 @@
         <v>298</v>
       </c>
       <c r="I108" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="J108">
-        <v>5.7380530177241569E-5</v>
+        <v>1.280713966316945E-4</v>
       </c>
       <c r="M108" t="s">
         <v>14</v>
       </c>
       <c r="N108" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -9778,10 +9511,10 @@
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B109">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C109">
-        <v>4.4419030571232054E-4</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D109" t="s">
         <v>276</v>
@@ -9793,16 +9526,16 @@
         <v>298</v>
       </c>
       <c r="I109" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="J109">
-        <v>5.9273280682327918E-5</v>
+        <v>1.3294886908710933E-4</v>
       </c>
       <c r="M109" t="s">
         <v>14</v>
       </c>
       <c r="N109" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -9810,10 +9543,10 @@
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B110">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C110">
-        <v>3.4474471488120406E-4</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D110" t="s">
         <v>277</v>
@@ -9825,16 +9558,16 @@
         <v>298</v>
       </c>
       <c r="I110" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="J110">
-        <v>6.0274254507133202E-5</v>
+        <v>1.3334925861703146E-4</v>
       </c>
       <c r="M110" t="s">
         <v>14</v>
       </c>
       <c r="N110" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -9842,10 +9575,10 @@
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B111">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C111">
-        <v>3.1159618460416515E-4</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D111" t="s">
         <v>278</v>
@@ -9857,16 +9590,16 @@
         <v>298</v>
       </c>
       <c r="I111" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="J111">
-        <v>6.1839413578646904E-5</v>
+        <v>1.3112891667837247E-4</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
       </c>
       <c r="N111" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="O111">
         <v>0</v>
@@ -9874,10 +9607,10 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B112">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C112">
-        <v>2.187802998284564E-4</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D112" t="s">
         <v>279</v>
@@ -9889,16 +9622,16 @@
         <v>298</v>
       </c>
       <c r="I112" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="J112">
-        <v>6.1985009771345866E-5</v>
+        <v>1.2224754892373651E-4</v>
       </c>
       <c r="M112" t="s">
         <v>14</v>
       </c>
       <c r="N112" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -9906,10 +9639,10 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B113">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C113">
-        <v>1.5911294532978647E-4</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D113" t="s">
         <v>280</v>
@@ -9921,16 +9654,16 @@
         <v>298</v>
       </c>
       <c r="I113" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="J113">
-        <v>6.1730216434122693E-5</v>
+        <v>1.1103664208591738E-4</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
       </c>
       <c r="N113" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -9938,10 +9671,10 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B114">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C114">
-        <v>1.1270500294193207E-4</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D114" t="s">
         <v>281</v>
@@ -9953,16 +9686,16 @@
         <v>298</v>
       </c>
       <c r="I114" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="J114">
-        <v>6.0438050223919519E-5</v>
+        <v>1.0091770669334034E-4</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
       </c>
       <c r="N114" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="O114">
         <v>0</v>
@@ -9970,10 +9703,10 @@
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B115">
-        <v>2.2831050228310502E-4</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C115">
-        <v>5.9667354498669924E-5</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D115" t="s">
         <v>282</v>
@@ -9985,16 +9718,16 @@
         <v>298</v>
       </c>
       <c r="I115" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="J115">
-        <v>5.8436102574308952E-5</v>
+        <v>9.2655122757674956E-5</v>
       </c>
       <c r="M115" t="s">
         <v>14</v>
       </c>
       <c r="N115" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -10017,19 +9750,19 @@
         <v>298</v>
       </c>
       <c r="I116" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="J116">
-        <v>5.1320088656147775E-5</v>
+        <v>1.639897949720967E-2</v>
       </c>
       <c r="M116" t="s">
         <v>14</v>
       </c>
       <c r="N116" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.16444092841228675</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.45">
@@ -10049,19 +9782,19 @@
         <v>298</v>
       </c>
       <c r="I117" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="J117">
-        <v>4.8644758615304578E-5</v>
+        <v>4.156219461202898E-3</v>
       </c>
       <c r="M117" t="s">
         <v>14</v>
       </c>
       <c r="N117" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>7.2669806171538731E-2</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.45">
@@ -10081,19 +9814,19 @@
         <v>298</v>
       </c>
       <c r="I118" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="J118">
-        <v>1.8483815688549624E-2</v>
+        <v>4.4417335950855388E-3</v>
       </c>
       <c r="M118" t="s">
         <v>14</v>
       </c>
       <c r="N118" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="O118">
-        <v>0.1824009628970642</v>
+        <v>6.3220197574453074E-2</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.45">
@@ -10113,19 +9846,19 @@
         <v>298</v>
       </c>
       <c r="I119" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="J119">
-        <v>2.9046229105903062E-3</v>
+        <v>3.224696776703867E-2</v>
       </c>
       <c r="M119" t="s">
         <v>14</v>
       </c>
       <c r="N119" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="O119">
-        <v>0.13557690684047885</v>
+        <v>5.7847842369799451E-2</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.45">
@@ -10145,19 +9878,19 @@
         <v>298</v>
       </c>
       <c r="I120" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="J120">
-        <v>7.4104581499114018E-4</v>
+        <v>4.6401812057342076E-3</v>
       </c>
       <c r="M120" t="s">
         <v>14</v>
       </c>
       <c r="N120" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="O120">
-        <v>9.401420358471424E-2</v>
+        <v>5.1610108979386338E-2</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.45">
@@ -10177,19 +9910,19 @@
         <v>298</v>
       </c>
       <c r="I121" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="J121">
-        <v>8.1803890164275361E-4</v>
+        <v>4.7181115678763203E-3</v>
       </c>
       <c r="M121" t="s">
         <v>14</v>
       </c>
       <c r="N121" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="O121">
-        <v>8.0094983227168237E-2</v>
+        <v>4.3075393499384385E-2</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.45">
@@ -10209,19 +9942,19 @@
         <v>298</v>
       </c>
       <c r="I122" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="J122">
-        <v>6.1100638754537076E-3</v>
+        <v>4.7549110055809807E-3</v>
       </c>
       <c r="M122" t="s">
         <v>14</v>
       </c>
       <c r="N122" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="O122">
-        <v>8.616848019234391E-2</v>
+        <v>3.6124360668927213E-2</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.45">
@@ -10241,4036 +9974,1339 @@
         <v>298</v>
       </c>
       <c r="I123" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="J123">
-        <v>8.6305542447286023E-4</v>
+        <v>2.8396057667295967E-2</v>
       </c>
       <c r="M123" t="s">
         <v>14</v>
       </c>
       <c r="N123" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="O123">
-        <v>7.5493088763244565E-2</v>
+        <v>0.16551913133020602</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H124" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I124" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="J124">
-        <v>8.6017079990501218E-4</v>
-      </c>
-      <c r="M124" t="s">
-        <v>14</v>
-      </c>
-      <c r="N124" t="s">
-        <v>208</v>
-      </c>
-      <c r="O124">
-        <v>7.4480096150344011E-2</v>
+        <v>8.4349031955440093E-2</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H125" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I125" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="J125">
-        <v>8.6124457182616687E-4</v>
-      </c>
-      <c r="M125" t="s">
-        <v>14</v>
-      </c>
-      <c r="N125" t="s">
-        <v>209</v>
-      </c>
-      <c r="O125">
-        <v>7.3339010065282428E-2</v>
+        <v>1.7142937612904609E-2</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H126" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I126" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="J126">
-        <v>5.3255733896676776E-3</v>
-      </c>
-      <c r="M126" t="s">
-        <v>14</v>
-      </c>
-      <c r="N126" t="s">
-        <v>210</v>
-      </c>
-      <c r="O126">
-        <v>0.1652013281314475</v>
+        <v>1.7228486572248278E-2</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I127" t="s">
-        <v>382</v>
+        <v>174</v>
       </c>
       <c r="J127">
-        <v>1.9386777757833533E-2</v>
-      </c>
-      <c r="M127" t="s">
-        <v>14</v>
-      </c>
-      <c r="N127" t="s">
-        <v>382</v>
-      </c>
-      <c r="O127">
-        <v>0.19066122244253392</v>
+        <v>0.12082878796171624</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I128" t="s">
+        <v>175</v>
+      </c>
+      <c r="J128">
+        <v>1.725528253362919E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H129" t="s">
+        <v>299</v>
+      </c>
+      <c r="I129" t="s">
+        <v>176</v>
+      </c>
+      <c r="J129">
+        <v>1.7265341363867738E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H130" t="s">
+        <v>299</v>
+      </c>
+      <c r="I130" t="s">
+        <v>177</v>
+      </c>
+      <c r="J130">
+        <v>1.726930872099498E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H131" t="s">
+        <v>299</v>
+      </c>
+      <c r="I131" t="s">
+        <v>178</v>
+      </c>
+      <c r="J131">
+        <v>0.11975912628649642</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H132" t="s">
+        <v>299</v>
+      </c>
+      <c r="I132" t="s">
+        <v>179</v>
+      </c>
+      <c r="J132">
+        <v>1.1168083398699013E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H133" t="s">
+        <v>299</v>
+      </c>
+      <c r="I133" t="s">
+        <v>180</v>
+      </c>
+      <c r="J133">
+        <v>1.1152284188900252E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H134" t="s">
+        <v>299</v>
+      </c>
+      <c r="I134" t="s">
+        <v>181</v>
+      </c>
+      <c r="J134">
+        <v>1.1150779502252752E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H135" t="s">
+        <v>299</v>
+      </c>
+      <c r="I135" t="s">
+        <v>182</v>
+      </c>
+      <c r="J135">
+        <v>1.1157049029950673E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H136" t="s">
+        <v>299</v>
+      </c>
+      <c r="I136" t="s">
+        <v>183</v>
+      </c>
+      <c r="J136">
+        <v>1.1179870110771103E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H137" t="s">
+        <v>299</v>
+      </c>
+      <c r="I137" t="s">
+        <v>184</v>
+      </c>
+      <c r="J137">
+        <v>1.1234791173404888E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H138" t="s">
+        <v>299</v>
+      </c>
+      <c r="I138" t="s">
+        <v>185</v>
+      </c>
+      <c r="J138">
+        <v>1.131228253575119E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H139" t="s">
+        <v>299</v>
+      </c>
+      <c r="I139" t="s">
+        <v>186</v>
+      </c>
+      <c r="J139">
+        <v>1.135090282637038E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H140" t="s">
+        <v>299</v>
+      </c>
+      <c r="I140" t="s">
+        <v>187</v>
+      </c>
+      <c r="J140">
+        <v>1.1355918448528717E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H141" t="s">
+        <v>299</v>
+      </c>
+      <c r="I141" t="s">
+        <v>188</v>
+      </c>
+      <c r="J141">
+        <v>1.1347391890859544E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H142" t="s">
+        <v>299</v>
+      </c>
+      <c r="I142" t="s">
+        <v>189</v>
+      </c>
+      <c r="J142">
+        <v>1.1333097367708286E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H143" t="s">
+        <v>299</v>
+      </c>
+      <c r="I143" t="s">
+        <v>190</v>
+      </c>
+      <c r="J143">
+        <v>1.1332846586600369E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H144" t="s">
+        <v>299</v>
+      </c>
+      <c r="I144" t="s">
+        <v>191</v>
+      </c>
+      <c r="J144">
+        <v>1.1331592681060784E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H145" t="s">
+        <v>299</v>
+      </c>
+      <c r="I145" t="s">
+        <v>192</v>
+      </c>
+      <c r="J145">
+        <v>1.1328834088873699E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H146" t="s">
+        <v>299</v>
+      </c>
+      <c r="I146" t="s">
+        <v>193</v>
+      </c>
+      <c r="J146">
+        <v>1.1347391890859544E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H147" t="s">
+        <v>299</v>
+      </c>
+      <c r="I147" t="s">
+        <v>194</v>
+      </c>
+      <c r="J147">
+        <v>1.1373473126082895E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H148" t="s">
+        <v>299</v>
+      </c>
+      <c r="I148" t="s">
+        <v>195</v>
+      </c>
+      <c r="J148">
+        <v>1.138726608701832E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H149" t="s">
+        <v>299</v>
+      </c>
+      <c r="I149" t="s">
+        <v>196</v>
+      </c>
+      <c r="J149">
+        <v>1.1408833262299169E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H150" t="s">
+        <v>299</v>
+      </c>
+      <c r="I150" t="s">
+        <v>197</v>
+      </c>
+      <c r="J150">
+        <v>1.1410839511162502E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H151" t="s">
+        <v>299</v>
+      </c>
+      <c r="I151" t="s">
+        <v>198</v>
+      </c>
+      <c r="J151">
+        <v>1.1407328575651667E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H152" t="s">
+        <v>299</v>
+      </c>
+      <c r="I152" t="s">
+        <v>199</v>
+      </c>
+      <c r="J152">
+        <v>1.1389523116989572E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H153" t="s">
+        <v>299</v>
+      </c>
+      <c r="I153" t="s">
+        <v>200</v>
+      </c>
+      <c r="J153">
+        <v>1.1361937195118721E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H154" t="s">
+        <v>299</v>
+      </c>
+      <c r="I154" t="s">
+        <v>201</v>
+      </c>
+      <c r="J154">
+        <v>1.1263881781923241E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H155" t="s">
+        <v>299</v>
+      </c>
+      <c r="I155" t="s">
+        <v>202</v>
+      </c>
+      <c r="J155">
+        <v>1.1227016959059468E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H156" t="s">
+        <v>299</v>
+      </c>
+      <c r="I156" t="s">
+        <v>203</v>
+      </c>
+      <c r="J156">
+        <v>1.6851037656440571E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H157" t="s">
+        <v>299</v>
+      </c>
+      <c r="I157" t="s">
+        <v>204</v>
+      </c>
+      <c r="J157">
+        <v>3.4143354765993751E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H158" t="s">
+        <v>299</v>
+      </c>
+      <c r="I158" t="s">
+        <v>205</v>
+      </c>
+      <c r="J158">
+        <v>3.4355540661402178E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H159" t="s">
+        <v>299</v>
+      </c>
+      <c r="I159" t="s">
+        <v>206</v>
+      </c>
+      <c r="J159">
+        <v>2.4154647903056527E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H160" t="s">
+        <v>299</v>
+      </c>
+      <c r="I160" t="s">
+        <v>207</v>
+      </c>
+      <c r="J160">
+        <v>3.4479602075488634E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H161" t="s">
+        <v>299</v>
+      </c>
+      <c r="I161" t="s">
+        <v>208</v>
+      </c>
+      <c r="J161">
+        <v>3.4471652314367668E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H162" t="s">
+        <v>299</v>
+      </c>
+      <c r="I162" t="s">
+        <v>209</v>
+      </c>
+      <c r="J162">
+        <v>3.4474611531441087E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H163" t="s">
+        <v>299</v>
+      </c>
+      <c r="I163" t="s">
+        <v>210</v>
+      </c>
+      <c r="J163">
+        <v>2.3938449509921429E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H164" t="s">
+        <v>299</v>
+      </c>
+      <c r="I164" t="s">
         <v>211</v>
       </c>
-      <c r="J128">
-        <v>3.0248463045931067E-3</v>
-      </c>
-      <c r="M128" t="s">
-        <v>14</v>
-      </c>
-      <c r="N128" t="s">
-        <v>211</v>
-      </c>
-      <c r="O128">
-        <v>0.12902234379322008</v>
-      </c>
-    </row>
-    <row r="129" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H129" t="s">
-        <v>298</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="J164">
+        <v>1.740431708644628E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H165" t="s">
+        <v>299</v>
+      </c>
+      <c r="I165" t="s">
         <v>212</v>
       </c>
-      <c r="J129">
-        <v>7.7773006327037789E-4</v>
-      </c>
-      <c r="M129" t="s">
-        <v>14</v>
-      </c>
-      <c r="N129" t="s">
-        <v>212</v>
-      </c>
-      <c r="O129">
-        <v>7.7971777086821348E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H130" t="s">
-        <v>298</v>
-      </c>
-      <c r="I130" t="s">
+      <c r="J165">
+        <v>3.5284747121894816E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H166" t="s">
+        <v>299</v>
+      </c>
+      <c r="I166" t="s">
         <v>213</v>
       </c>
-      <c r="J130">
-        <v>8.5772607139640708E-4</v>
-      </c>
-      <c r="M130" t="s">
-        <v>14</v>
-      </c>
-      <c r="N130" t="s">
-        <v>213</v>
-      </c>
-      <c r="O130">
-        <v>7.5128972124680171E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H131" t="s">
-        <v>298</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="J166">
+        <v>3.5505208793864497E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H167" t="s">
+        <v>299</v>
+      </c>
+      <c r="I167" t="s">
         <v>214</v>
       </c>
-      <c r="J131">
-        <v>6.4365213916148184E-3</v>
-      </c>
-      <c r="M131" t="s">
-        <v>14</v>
-      </c>
-      <c r="N131" t="s">
-        <v>214</v>
-      </c>
-      <c r="O131">
-        <v>8.9979101399537242E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H132" t="s">
-        <v>298</v>
-      </c>
-      <c r="I132" t="s">
+      <c r="J167">
+        <v>2.4972822353809383E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H168" t="s">
+        <v>299</v>
+      </c>
+      <c r="I168" t="s">
         <v>215</v>
       </c>
-      <c r="J132">
-        <v>9.1023169838846583E-4</v>
-      </c>
-      <c r="M132" t="s">
-        <v>14</v>
-      </c>
-      <c r="N132" t="s">
-        <v>215</v>
-      </c>
-      <c r="O132">
-        <v>6.9084149488111368E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H133" t="s">
-        <v>298</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="J168">
+        <v>3.5649909493132505E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H169" t="s">
+        <v>299</v>
+      </c>
+      <c r="I169" t="s">
         <v>216</v>
       </c>
-      <c r="J133">
-        <v>9.0691028524252104E-4</v>
-      </c>
-      <c r="M133" t="s">
-        <v>14</v>
-      </c>
-      <c r="N133" t="s">
-        <v>216</v>
-      </c>
-      <c r="O133">
-        <v>6.3174949759052135E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H134" t="s">
-        <v>298</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="J169">
+        <v>3.5640755982693541E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H170" t="s">
+        <v>299</v>
+      </c>
+      <c r="I170" t="s">
         <v>217</v>
       </c>
-      <c r="J134">
-        <v>9.0772926382645268E-4</v>
-      </c>
-      <c r="M134" t="s">
-        <v>14</v>
-      </c>
-      <c r="N134" t="s">
-        <v>217</v>
-      </c>
-      <c r="O134">
-        <v>6.2079126041543642E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H135" t="s">
-        <v>298</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="J170">
+        <v>3.5643013012664794E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H171" t="s">
+        <v>299</v>
+      </c>
+      <c r="I171" t="s">
         <v>218</v>
       </c>
-      <c r="J135">
-        <v>5.5650826795013847E-3</v>
-      </c>
-      <c r="M135" t="s">
-        <v>14</v>
-      </c>
-      <c r="N135" t="s">
-        <v>218</v>
-      </c>
-      <c r="O135">
-        <v>0.16140851710514448</v>
-      </c>
-    </row>
-    <row r="136" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H136" t="s">
-        <v>298</v>
-      </c>
-      <c r="I136" t="s">
-        <v>383</v>
-      </c>
-      <c r="J136">
-        <v>1.9460779786900577E-2</v>
-      </c>
-      <c r="M136" t="s">
-        <v>14</v>
-      </c>
-      <c r="N136" t="s">
-        <v>383</v>
-      </c>
-      <c r="O136">
-        <v>0.17562633450621856</v>
-      </c>
-    </row>
-    <row r="137" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H137" t="s">
-        <v>298</v>
-      </c>
-      <c r="I137" t="s">
+      <c r="J171">
+        <v>2.4732661825812834E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H172" t="s">
+        <v>299</v>
+      </c>
+      <c r="I172" t="s">
         <v>219</v>
       </c>
-      <c r="J137">
-        <v>3.0173854547339957E-3</v>
-      </c>
-      <c r="M137" t="s">
-        <v>14</v>
-      </c>
-      <c r="N137" t="s">
-        <v>219</v>
-      </c>
-      <c r="O137">
-        <v>0.12968033057013195</v>
-      </c>
-    </row>
-    <row r="138" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H138" t="s">
-        <v>298</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="J172">
+        <v>1.7398424200624808E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H173" t="s">
+        <v>299</v>
+      </c>
+      <c r="I173" t="s">
         <v>220</v>
       </c>
-      <c r="J138">
-        <v>7.712985424612438E-4</v>
-      </c>
-      <c r="M138" t="s">
-        <v>14</v>
-      </c>
-      <c r="N138" t="s">
-        <v>220</v>
-      </c>
-      <c r="O138">
-        <v>6.1360497773364164E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H139" t="s">
-        <v>298</v>
-      </c>
-      <c r="I139" t="s">
+      <c r="J173">
+        <v>3.525934895171415E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H174" t="s">
+        <v>299</v>
+      </c>
+      <c r="I174" t="s">
         <v>221</v>
       </c>
-      <c r="J139">
-        <v>8.5093056010552561E-4</v>
-      </c>
-      <c r="M139" t="s">
-        <v>14</v>
-      </c>
-      <c r="N139" t="s">
-        <v>221</v>
-      </c>
-      <c r="O139">
-        <v>6.2348795815322156E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H140" t="s">
-        <v>298</v>
-      </c>
-      <c r="I140" t="s">
+      <c r="J174">
+        <v>3.5478807499252172E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H175" t="s">
+        <v>299</v>
+      </c>
+      <c r="I175" t="s">
         <v>222</v>
       </c>
-      <c r="J140">
-        <v>6.4720063407513557E-3</v>
-      </c>
-      <c r="M140" t="s">
-        <v>14</v>
-      </c>
-      <c r="N140" t="s">
-        <v>222</v>
-      </c>
-      <c r="O140">
-        <v>7.4828164883293136E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H141" t="s">
-        <v>298</v>
-      </c>
-      <c r="I141" t="s">
+      <c r="J175">
+        <v>2.4977230239300319E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H176" t="s">
+        <v>299</v>
+      </c>
+      <c r="I176" t="s">
         <v>223</v>
       </c>
-      <c r="J141">
-        <v>9.1975206044191051E-4</v>
-      </c>
-      <c r="M141" t="s">
-        <v>14</v>
-      </c>
-      <c r="N141" t="s">
-        <v>223</v>
-      </c>
-      <c r="O141">
-        <v>5.5692523827888252E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H142" t="s">
-        <v>298</v>
-      </c>
-      <c r="I142" t="s">
+      <c r="J176">
+        <v>3.5668473251169665E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H177" t="s">
+        <v>299</v>
+      </c>
+      <c r="I177" t="s">
         <v>224</v>
       </c>
-      <c r="J142">
-        <v>9.1519307965802477E-4</v>
-      </c>
-      <c r="M142" t="s">
-        <v>14</v>
-      </c>
-      <c r="N142" t="s">
-        <v>224</v>
-      </c>
-      <c r="O142">
-        <v>5.2492277498669804E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H143" t="s">
-        <v>298</v>
-      </c>
-      <c r="I143" t="s">
+      <c r="J177">
+        <v>3.5655909117663035E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H178" t="s">
+        <v>299</v>
+      </c>
+      <c r="I178" t="s">
         <v>225</v>
       </c>
-      <c r="J143">
-        <v>9.1636694896166007E-4</v>
-      </c>
-      <c r="M143" t="s">
-        <v>14</v>
-      </c>
-      <c r="N143" t="s">
-        <v>225</v>
-      </c>
-      <c r="O143">
-        <v>5.1982932420116645E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H144" t="s">
-        <v>298</v>
-      </c>
-      <c r="I144" t="s">
+      <c r="J178">
+        <v>3.565914419395516E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H179" t="s">
+        <v>299</v>
+      </c>
+      <c r="I179" t="s">
         <v>226</v>
       </c>
-      <c r="J144">
-        <v>5.5978467997868601E-3</v>
-      </c>
-      <c r="M144" t="s">
-        <v>14</v>
-      </c>
-      <c r="N144" t="s">
-        <v>226</v>
-      </c>
-      <c r="O144">
-        <v>0.13724813331890484</v>
-      </c>
-    </row>
-    <row r="145" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H145" t="s">
-        <v>298</v>
-      </c>
-      <c r="I145" t="s">
-        <v>384</v>
-      </c>
-      <c r="J145">
-        <v>5.8805600138806646E-2</v>
-      </c>
-      <c r="M145" t="s">
-        <v>14</v>
-      </c>
-      <c r="N145" t="s">
-        <v>384</v>
-      </c>
-      <c r="O145">
-        <v>0.23294043096794192</v>
-      </c>
-    </row>
-    <row r="146" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H146" t="s">
-        <v>298</v>
-      </c>
-      <c r="I146" t="s">
+      <c r="J179">
+        <v>2.4736319875791099E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H180" t="s">
+        <v>299</v>
+      </c>
+      <c r="I180" t="s">
         <v>227</v>
       </c>
-      <c r="J146">
-        <v>9.5387429913974427E-3</v>
-      </c>
-      <c r="M146" t="s">
-        <v>14</v>
-      </c>
-      <c r="N146" t="s">
-        <v>227</v>
-      </c>
-      <c r="O146">
-        <v>0.25674709503588833</v>
-      </c>
-    </row>
-    <row r="147" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H147" t="s">
-        <v>298</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="J180">
+        <v>5.0043354761196444E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H181" t="s">
+        <v>299</v>
+      </c>
+      <c r="I181" t="s">
         <v>228</v>
       </c>
-      <c r="J147">
-        <v>2.4497176859344682E-3</v>
-      </c>
-      <c r="M147" t="s">
-        <v>14</v>
-      </c>
-      <c r="N147" t="s">
-        <v>228</v>
-      </c>
-      <c r="O147">
-        <v>0.16088521887752272</v>
-      </c>
-    </row>
-    <row r="148" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H148" t="s">
-        <v>298</v>
-      </c>
-      <c r="I148" t="s">
+      <c r="J181">
+        <v>1.0158032669179039E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H182" t="s">
+        <v>299</v>
+      </c>
+      <c r="I182" t="s">
         <v>229</v>
       </c>
-      <c r="J148">
-        <v>2.6479560020561321E-3</v>
-      </c>
-      <c r="M148" t="s">
-        <v>14</v>
-      </c>
-      <c r="N148" t="s">
-        <v>229</v>
-      </c>
-      <c r="O148">
-        <v>0.13014044950551518</v>
-      </c>
-    </row>
-    <row r="149" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H149" t="s">
-        <v>298</v>
-      </c>
-      <c r="I149" t="s">
+      <c r="J182">
+        <v>1.0212665333538722E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H183" t="s">
+        <v>299</v>
+      </c>
+      <c r="I183" t="s">
         <v>230</v>
       </c>
-      <c r="J149">
-        <v>1.9047535429826085E-2</v>
-      </c>
-      <c r="M149" t="s">
-        <v>14</v>
-      </c>
-      <c r="N149" t="s">
-        <v>230</v>
-      </c>
-      <c r="O149">
-        <v>0.14185074137602682</v>
-      </c>
-    </row>
-    <row r="150" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H150" t="s">
-        <v>298</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="J183">
+        <v>7.1629716692352116E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H184" t="s">
+        <v>299</v>
+      </c>
+      <c r="I184" t="s">
         <v>231</v>
       </c>
-      <c r="J150">
-        <v>2.6950927694424174E-3</v>
-      </c>
-      <c r="M150" t="s">
-        <v>14</v>
-      </c>
-      <c r="N150" t="s">
-        <v>231</v>
-      </c>
-      <c r="O150">
-        <v>0.1523067200337056</v>
-      </c>
-    </row>
-    <row r="151" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H151" t="s">
-        <v>298</v>
-      </c>
-      <c r="I151" t="s">
+      <c r="J184">
+        <v>1.0225655794928812E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H185" t="s">
+        <v>299</v>
+      </c>
+      <c r="I185" t="s">
         <v>232</v>
       </c>
-      <c r="J151">
-        <v>2.7065948686656339E-3</v>
-      </c>
-      <c r="M151" t="s">
-        <v>14</v>
-      </c>
-      <c r="N151" t="s">
-        <v>232</v>
-      </c>
-      <c r="O151">
-        <v>0.15096980037616792</v>
-      </c>
-    </row>
-    <row r="152" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H152" t="s">
-        <v>298</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="J185">
+        <v>1.0228825668132883E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H186" t="s">
+        <v>299</v>
+      </c>
+      <c r="I186" t="s">
         <v>233</v>
       </c>
-      <c r="J152">
-        <v>2.7157401295195374E-3</v>
-      </c>
-      <c r="M152" t="s">
-        <v>14</v>
-      </c>
-      <c r="N152" t="s">
-        <v>233</v>
-      </c>
-      <c r="O152">
-        <v>0.14552256375484984</v>
-      </c>
-    </row>
-    <row r="153" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H153" t="s">
-        <v>298</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="J186">
+        <v>1.0231346018267445E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H187" t="s">
+        <v>299</v>
+      </c>
+      <c r="I187" t="s">
         <v>234</v>
       </c>
-      <c r="J153">
-        <v>1.7004220261964933E-2</v>
-      </c>
-      <c r="M153" t="s">
-        <v>14</v>
-      </c>
-      <c r="N153" t="s">
-        <v>234</v>
-      </c>
-      <c r="O153">
-        <v>0.23431183189039029</v>
-      </c>
-    </row>
-    <row r="154" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H154" t="s">
-        <v>298</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="J187">
+        <v>7.1066597745769178E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H188" t="s">
+        <v>299</v>
+      </c>
+      <c r="I188" t="s">
         <v>235</v>
       </c>
-      <c r="J154">
-        <v>3.7063497124910716E-5</v>
-      </c>
-      <c r="M154" t="s">
-        <v>14</v>
-      </c>
-      <c r="N154" t="s">
-        <v>235</v>
-      </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H155" t="s">
-        <v>298</v>
-      </c>
-      <c r="I155" t="s">
+      <c r="J188">
+        <v>1.1167656308793467E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H189" t="s">
+        <v>299</v>
+      </c>
+      <c r="I189" t="s">
         <v>236</v>
       </c>
-      <c r="J155">
-        <v>3.6972499504473887E-5</v>
-      </c>
-      <c r="M155" t="s">
-        <v>14</v>
-      </c>
-      <c r="N155" t="s">
-        <v>236</v>
-      </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H156" t="s">
-        <v>298</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="J189">
+        <v>1.1166402403253881E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H190" t="s">
+        <v>299</v>
+      </c>
+      <c r="I190" t="s">
         <v>237</v>
       </c>
-      <c r="J156">
-        <v>3.6972499504473887E-5</v>
-      </c>
-      <c r="M156" t="s">
-        <v>14</v>
-      </c>
-      <c r="N156" t="s">
-        <v>237</v>
-      </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H157" t="s">
-        <v>298</v>
-      </c>
-      <c r="I157" t="s">
+      <c r="J190">
+        <v>1.1166402403253881E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H191" t="s">
+        <v>299</v>
+      </c>
+      <c r="I191" t="s">
         <v>238</v>
       </c>
-      <c r="J157">
-        <v>3.7482086178920206E-5</v>
-      </c>
-      <c r="M157" t="s">
-        <v>14</v>
-      </c>
-      <c r="N157" t="s">
-        <v>238</v>
-      </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H158" t="s">
-        <v>298</v>
-      </c>
-      <c r="I158" t="s">
+      <c r="J191">
+        <v>1.1173424274275554E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H192" t="s">
+        <v>299</v>
+      </c>
+      <c r="I192" t="s">
         <v>239</v>
       </c>
-      <c r="J158">
-        <v>3.9283839063569706E-5</v>
-      </c>
-      <c r="M158" t="s">
-        <v>14</v>
-      </c>
-      <c r="N158" t="s">
-        <v>239</v>
-      </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H159" t="s">
-        <v>298</v>
-      </c>
-      <c r="I159" t="s">
+      <c r="J192">
+        <v>1.119825160395932E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H193" t="s">
+        <v>299</v>
+      </c>
+      <c r="I193" t="s">
         <v>240</v>
       </c>
-      <c r="J159">
-        <v>4.2323159586160294E-5</v>
-      </c>
-      <c r="M159" t="s">
-        <v>14</v>
-      </c>
-      <c r="N159" t="s">
-        <v>240</v>
-      </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H160" t="s">
-        <v>298</v>
-      </c>
-      <c r="I160" t="s">
+      <c r="J193">
+        <v>1.1240132048981429E-4</v>
+      </c>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H194" t="s">
+        <v>299</v>
+      </c>
+      <c r="I194" t="s">
         <v>241</v>
       </c>
-      <c r="J160">
-        <v>4.827440396272987E-5</v>
-      </c>
-      <c r="M160" t="s">
-        <v>14</v>
-      </c>
-      <c r="N160" t="s">
-        <v>241</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H161" t="s">
-        <v>298</v>
-      </c>
-      <c r="I161" t="s">
+      <c r="J194">
+        <v>1.1322137471270232E-4</v>
+      </c>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H195" t="s">
+        <v>299</v>
+      </c>
+      <c r="I195" t="s">
         <v>242</v>
       </c>
-      <c r="J161">
-        <v>5.2569491647348888E-5</v>
-      </c>
-      <c r="M161" t="s">
-        <v>14</v>
-      </c>
-      <c r="N161" t="s">
-        <v>242</v>
-      </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H162" t="s">
-        <v>298</v>
-      </c>
-      <c r="I162" t="s">
+      <c r="J195">
+        <v>1.1381321812738604E-4</v>
+      </c>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H196" t="s">
+        <v>299</v>
+      </c>
+      <c r="I196" t="s">
         <v>243</v>
       </c>
-      <c r="J162">
-        <v>5.2096304021077299E-5</v>
-      </c>
-      <c r="M162" t="s">
-        <v>14</v>
-      </c>
-      <c r="N162" t="s">
-        <v>243</v>
-      </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H163" t="s">
-        <v>298</v>
-      </c>
-      <c r="I163" t="s">
+      <c r="J196">
+        <v>1.1374801503932768E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>299</v>
+      </c>
+      <c r="I197" t="s">
         <v>244</v>
       </c>
-      <c r="J163">
-        <v>5.2005306400640456E-5</v>
-      </c>
-      <c r="M163" t="s">
-        <v>14</v>
-      </c>
-      <c r="N163" t="s">
-        <v>244</v>
-      </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H164" t="s">
-        <v>298</v>
-      </c>
-      <c r="I164" t="s">
+      <c r="J197">
+        <v>1.1373547598393182E-4</v>
+      </c>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H198" t="s">
+        <v>299</v>
+      </c>
+      <c r="I198" t="s">
         <v>245</v>
       </c>
-      <c r="J164">
-        <v>5.2078104496989937E-5</v>
-      </c>
-      <c r="M164" t="s">
-        <v>14</v>
-      </c>
-      <c r="N164" t="s">
-        <v>245</v>
-      </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H165" t="s">
-        <v>298</v>
-      </c>
-      <c r="I165" t="s">
+      <c r="J198">
+        <v>1.137455072282485E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H199" t="s">
+        <v>299</v>
+      </c>
+      <c r="I199" t="s">
         <v>246</v>
       </c>
-      <c r="J165">
-        <v>5.2005306400640456E-5</v>
-      </c>
-      <c r="M165" t="s">
-        <v>14</v>
-      </c>
-      <c r="N165" t="s">
-        <v>246</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H166" t="s">
-        <v>298</v>
-      </c>
-      <c r="I166" t="s">
+      <c r="J199">
+        <v>1.1373547598393182E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H200" t="s">
+        <v>299</v>
+      </c>
+      <c r="I200" t="s">
         <v>247</v>
       </c>
-      <c r="J166">
-        <v>5.1604916870718348E-5</v>
-      </c>
-      <c r="M166" t="s">
-        <v>14</v>
-      </c>
-      <c r="N166" t="s">
-        <v>247</v>
-      </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H167" t="s">
-        <v>298</v>
-      </c>
-      <c r="I167" t="s">
+      <c r="J200">
+        <v>1.1368030414019013E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H201" t="s">
+        <v>299</v>
+      </c>
+      <c r="I201" t="s">
         <v>248</v>
       </c>
-      <c r="J167">
-        <v>5.1313724485320438E-5</v>
-      </c>
-      <c r="M167" t="s">
-        <v>14</v>
-      </c>
-      <c r="N167" t="s">
-        <v>248</v>
-      </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H168" t="s">
-        <v>298</v>
-      </c>
-      <c r="I168" t="s">
+      <c r="J201">
+        <v>1.1364017916292343E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H202" t="s">
+        <v>299</v>
+      </c>
+      <c r="I202" t="s">
         <v>249</v>
       </c>
-      <c r="J168">
-        <v>5.1313724485320438E-5</v>
-      </c>
-      <c r="M168" t="s">
-        <v>14</v>
-      </c>
-      <c r="N168" t="s">
-        <v>249</v>
-      </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H169" t="s">
-        <v>298</v>
-      </c>
-      <c r="I169" t="s">
+      <c r="J202">
+        <v>1.1364017916292343E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H203" t="s">
+        <v>299</v>
+      </c>
+      <c r="I203" t="s">
         <v>250</v>
       </c>
-      <c r="J169">
-        <v>5.1677714967067822E-5</v>
-      </c>
-      <c r="M169" t="s">
-        <v>14</v>
-      </c>
-      <c r="N169" t="s">
-        <v>250</v>
-      </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H170" t="s">
-        <v>298</v>
-      </c>
-      <c r="I170" t="s">
+      <c r="J203">
+        <v>1.1369033538450681E-4</v>
+      </c>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H204" t="s">
+        <v>299</v>
+      </c>
+      <c r="I204" t="s">
         <v>251</v>
       </c>
-      <c r="J170">
-        <v>5.2624090219611E-5</v>
-      </c>
-      <c r="M170" t="s">
-        <v>14</v>
-      </c>
-      <c r="N170" t="s">
-        <v>251</v>
-      </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H171" t="s">
-        <v>298</v>
-      </c>
-      <c r="I171" t="s">
+      <c r="J204">
+        <v>1.1382074156062354E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H205" t="s">
+        <v>299</v>
+      </c>
+      <c r="I205" t="s">
         <v>252</v>
       </c>
-      <c r="J171">
-        <v>5.3989054526163642E-5</v>
-      </c>
-      <c r="M171" t="s">
-        <v>14</v>
-      </c>
-      <c r="N171" t="s">
-        <v>252</v>
-      </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H172" t="s">
-        <v>298</v>
-      </c>
-      <c r="I172" t="s">
+      <c r="J205">
+        <v>1.1400882739156117E-4</v>
+      </c>
+    </row>
+    <row r="206" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H206" t="s">
+        <v>299</v>
+      </c>
+      <c r="I206" t="s">
         <v>253</v>
       </c>
-      <c r="J172">
-        <v>5.3970855002076287E-5</v>
-      </c>
-      <c r="M172" t="s">
-        <v>14</v>
-      </c>
-      <c r="N172" t="s">
-        <v>253</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H173" t="s">
-        <v>298</v>
-      </c>
-      <c r="I173" t="s">
+      <c r="J206">
+        <v>1.14006319580482E-4</v>
+      </c>
+    </row>
+    <row r="207" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H207" t="s">
+        <v>299</v>
+      </c>
+      <c r="I207" t="s">
         <v>254</v>
       </c>
-      <c r="J173">
-        <v>5.3606864520328909E-5</v>
-      </c>
-      <c r="M173" t="s">
-        <v>14</v>
-      </c>
-      <c r="N173" t="s">
-        <v>254</v>
-      </c>
-      <c r="O173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H174" t="s">
-        <v>298</v>
-      </c>
-      <c r="I174" t="s">
+      <c r="J207">
+        <v>1.1395616335889864E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H208" t="s">
+        <v>299</v>
+      </c>
+      <c r="I208" t="s">
         <v>255</v>
       </c>
-      <c r="J174">
-        <v>5.1896109256116252E-5</v>
-      </c>
-      <c r="M174" t="s">
-        <v>14</v>
-      </c>
-      <c r="N174" t="s">
-        <v>255</v>
-      </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H175" t="s">
-        <v>298</v>
-      </c>
-      <c r="I175" t="s">
+      <c r="J208">
+        <v>1.1372042911745682E-4</v>
+      </c>
+    </row>
+    <row r="209" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H209" t="s">
+        <v>299</v>
+      </c>
+      <c r="I209" t="s">
         <v>256</v>
       </c>
-      <c r="J175">
-        <v>4.9439173504321457E-5</v>
-      </c>
-      <c r="M175" t="s">
-        <v>14</v>
-      </c>
-      <c r="N175" t="s">
-        <v>256</v>
-      </c>
-      <c r="O175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H176" t="s">
-        <v>298</v>
-      </c>
-      <c r="I176" t="s">
+      <c r="J209">
+        <v>1.133818746217691E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H210" t="s">
+        <v>299</v>
+      </c>
+      <c r="I210" t="s">
         <v>257</v>
       </c>
-      <c r="J176">
-        <v>4.4652698669343482E-5</v>
-      </c>
-      <c r="M176" t="s">
-        <v>14</v>
-      </c>
-      <c r="N176" t="s">
-        <v>257</v>
-      </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H177" t="s">
-        <v>298</v>
-      </c>
-      <c r="I177" t="s">
+      <c r="J210">
+        <v>1.1272232030794785E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H211" t="s">
+        <v>299</v>
+      </c>
+      <c r="I211" t="s">
         <v>258</v>
       </c>
-      <c r="J177">
-        <v>4.1194789092743424E-5</v>
-      </c>
-      <c r="M177" t="s">
-        <v>14</v>
-      </c>
-      <c r="N177" t="s">
-        <v>258</v>
-      </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H178" t="s">
-        <v>298</v>
-      </c>
-      <c r="I178" t="s">
+      <c r="J211">
+        <v>1.1224583620290586E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H212" t="s">
+        <v>299</v>
+      </c>
+      <c r="I212" t="s">
         <v>259</v>
       </c>
-      <c r="J178">
-        <v>4.3998022295654277E-5</v>
-      </c>
-      <c r="M178" t="s">
-        <v>14</v>
-      </c>
-      <c r="N178" t="s">
-        <v>259</v>
-      </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H179" t="s">
-        <v>298</v>
-      </c>
-      <c r="I179" t="s">
+      <c r="J212">
+        <v>1.1225464064222204E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H213" t="s">
+        <v>299</v>
+      </c>
+      <c r="I213" t="s">
         <v>260</v>
       </c>
-      <c r="J179">
-        <v>4.3561233717557432E-5</v>
-      </c>
-      <c r="M179" t="s">
-        <v>14</v>
-      </c>
-      <c r="N179" t="s">
-        <v>260</v>
-      </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H180" t="s">
-        <v>298</v>
-      </c>
-      <c r="I180" t="s">
+      <c r="J213">
+        <v>1.1219445317632199E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H214" t="s">
+        <v>299</v>
+      </c>
+      <c r="I214" t="s">
         <v>261</v>
       </c>
-      <c r="J180">
-        <v>4.3597632765732162E-5</v>
-      </c>
-      <c r="M180" t="s">
-        <v>14</v>
-      </c>
-      <c r="N180" t="s">
-        <v>261</v>
-      </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H181" t="s">
-        <v>298</v>
-      </c>
-      <c r="I181" t="s">
+      <c r="J214">
+        <v>1.1219946879848033E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H215" t="s">
+        <v>299</v>
+      </c>
+      <c r="I215" t="s">
         <v>262</v>
       </c>
-      <c r="J181">
-        <v>4.5708777559866941E-5</v>
-      </c>
-      <c r="M181" t="s">
-        <v>14</v>
-      </c>
-      <c r="N181" t="s">
-        <v>262</v>
-      </c>
-      <c r="O181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H182" t="s">
-        <v>298</v>
-      </c>
-      <c r="I182" t="s">
+      <c r="J215">
+        <v>1.1249037488366387E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H216" t="s">
+        <v>299</v>
+      </c>
+      <c r="I216" t="s">
         <v>263</v>
       </c>
-      <c r="J182">
-        <v>5.3024986242989171E-5</v>
-      </c>
-      <c r="M182" t="s">
-        <v>14</v>
-      </c>
-      <c r="N182" t="s">
-        <v>263</v>
-      </c>
-      <c r="O182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H183" t="s">
-        <v>298</v>
-      </c>
-      <c r="I183" t="s">
+      <c r="J216">
+        <v>1.134985149374895E-4</v>
+      </c>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H217" t="s">
+        <v>299</v>
+      </c>
+      <c r="I217" t="s">
         <v>264</v>
       </c>
-      <c r="J183">
-        <v>6.2470539244333543E-5</v>
-      </c>
-      <c r="M183" t="s">
-        <v>14</v>
-      </c>
-      <c r="N183" t="s">
-        <v>264</v>
-      </c>
-      <c r="O183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H184" t="s">
-        <v>298</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="J217">
+        <v>1.1480006888757785E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H218" t="s">
+        <v>299</v>
+      </c>
+      <c r="I218" t="s">
         <v>265</v>
       </c>
-      <c r="J184">
-        <v>6.6001246917283082E-5</v>
-      </c>
-      <c r="M184" t="s">
-        <v>14</v>
-      </c>
-      <c r="N184" t="s">
-        <v>265</v>
-      </c>
-      <c r="O184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H185" t="s">
-        <v>298</v>
-      </c>
-      <c r="I185" t="s">
+      <c r="J218">
+        <v>1.1528658423693649E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H219" t="s">
+        <v>299</v>
+      </c>
+      <c r="I219" t="s">
         <v>266</v>
       </c>
-      <c r="J185">
-        <v>6.7784800277845213E-5</v>
-      </c>
-      <c r="M185" t="s">
-        <v>14</v>
-      </c>
-      <c r="N185" t="s">
-        <v>266</v>
-      </c>
-      <c r="O185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H186" t="s">
-        <v>298</v>
-      </c>
-      <c r="I186" t="s">
+      <c r="J219">
+        <v>1.1553234972269499E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H220" t="s">
+        <v>299</v>
+      </c>
+      <c r="I220" t="s">
         <v>267</v>
       </c>
-      <c r="J186">
-        <v>6.572825405597254E-5</v>
-      </c>
-      <c r="M186" t="s">
-        <v>14</v>
-      </c>
-      <c r="N186" t="s">
-        <v>267</v>
-      </c>
-      <c r="O186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H187" t="s">
-        <v>298</v>
-      </c>
-      <c r="I187" t="s">
+      <c r="J220">
+        <v>1.1524896707074898E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H221" t="s">
+        <v>299</v>
+      </c>
+      <c r="I221" t="s">
         <v>268</v>
       </c>
-      <c r="J187">
-        <v>6.5073071188827272E-5</v>
-      </c>
-      <c r="M187" t="s">
-        <v>14</v>
-      </c>
-      <c r="N187" t="s">
-        <v>268</v>
-      </c>
-      <c r="O187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H188" t="s">
-        <v>298</v>
-      </c>
-      <c r="I188" t="s">
+      <c r="J221">
+        <v>1.1515868587189892E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H222" t="s">
+        <v>299</v>
+      </c>
+      <c r="I222" t="s">
         <v>269</v>
       </c>
-      <c r="J188">
-        <v>6.3416914496876721E-5</v>
-      </c>
-      <c r="M188" t="s">
-        <v>14</v>
-      </c>
-      <c r="N188" t="s">
-        <v>269</v>
-      </c>
-      <c r="O188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H189" t="s">
-        <v>298</v>
-      </c>
-      <c r="I189" t="s">
+      <c r="J222">
+        <v>1.1493047506369461E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H223" t="s">
+        <v>299</v>
+      </c>
+      <c r="I223" t="s">
         <v>270</v>
       </c>
-      <c r="J189">
-        <v>6.3307717352352509E-5</v>
-      </c>
-      <c r="M189" t="s">
-        <v>14</v>
-      </c>
-      <c r="N189" t="s">
-        <v>270</v>
-      </c>
-      <c r="O189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H190" t="s">
-        <v>298</v>
-      </c>
-      <c r="I190" t="s">
+      <c r="J223">
+        <v>1.1491542819721959E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H224" t="s">
+        <v>299</v>
+      </c>
+      <c r="I224" t="s">
         <v>271</v>
       </c>
-      <c r="J190">
-        <v>6.3307717352352509E-5</v>
-      </c>
-      <c r="M190" t="s">
-        <v>14</v>
-      </c>
-      <c r="N190" t="s">
-        <v>271</v>
-      </c>
-      <c r="O190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H191" t="s">
-        <v>298</v>
-      </c>
-      <c r="I191" t="s">
-        <v>272</v>
-      </c>
-      <c r="J191">
-        <v>6.2889128298343033E-5</v>
-      </c>
-      <c r="M191" t="s">
-        <v>14</v>
-      </c>
-      <c r="N191" t="s">
-        <v>272</v>
-      </c>
-      <c r="O191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H192" t="s">
-        <v>298</v>
-      </c>
-      <c r="I192" t="s">
-        <v>273</v>
-      </c>
-      <c r="J192">
-        <v>6.2688933533381979E-5</v>
-      </c>
-      <c r="M192" t="s">
-        <v>14</v>
-      </c>
-      <c r="N192" t="s">
-        <v>273</v>
-      </c>
-      <c r="O192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H193" t="s">
-        <v>298</v>
-      </c>
-      <c r="I193" t="s">
-        <v>274</v>
-      </c>
-      <c r="J193">
-        <v>6.3981099743585159E-5</v>
-      </c>
-      <c r="M193" t="s">
-        <v>14</v>
-      </c>
-      <c r="N193" t="s">
-        <v>274</v>
-      </c>
-      <c r="O193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H194" t="s">
-        <v>298</v>
-      </c>
-      <c r="I194" t="s">
-        <v>275</v>
-      </c>
-      <c r="J194">
-        <v>6.4035698315847251E-5</v>
-      </c>
-      <c r="M194" t="s">
-        <v>14</v>
-      </c>
-      <c r="N194" t="s">
-        <v>275</v>
-      </c>
-      <c r="O194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H195" t="s">
-        <v>298</v>
-      </c>
-      <c r="I195" t="s">
-        <v>276</v>
-      </c>
-      <c r="J195">
-        <v>6.6474434543554664E-5</v>
-      </c>
-      <c r="M195" t="s">
-        <v>14</v>
-      </c>
-      <c r="N195" t="s">
-        <v>276</v>
-      </c>
-      <c r="O195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H196" t="s">
-        <v>298</v>
-      </c>
-      <c r="I196" t="s">
-        <v>277</v>
-      </c>
-      <c r="J196">
-        <v>6.6674629308515732E-5</v>
-      </c>
-      <c r="M196" t="s">
-        <v>14</v>
-      </c>
-      <c r="N196" t="s">
-        <v>277</v>
-      </c>
-      <c r="O196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H197" t="s">
-        <v>298</v>
-      </c>
-      <c r="I197" t="s">
-        <v>278</v>
-      </c>
-      <c r="J197">
-        <v>6.5564458339186237E-5</v>
-      </c>
-      <c r="M197" t="s">
-        <v>14</v>
-      </c>
-      <c r="N197" t="s">
-        <v>278</v>
-      </c>
-      <c r="O197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H198" t="s">
-        <v>298</v>
-      </c>
-      <c r="I198" t="s">
-        <v>279</v>
-      </c>
-      <c r="J198">
-        <v>6.1123774461868257E-5</v>
-      </c>
-      <c r="M198" t="s">
-        <v>14</v>
-      </c>
-      <c r="N198" t="s">
-        <v>279</v>
-      </c>
-      <c r="O198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H199" t="s">
-        <v>298</v>
-      </c>
-      <c r="I199" t="s">
-        <v>280</v>
-      </c>
-      <c r="J199">
-        <v>5.551832104295869E-5</v>
-      </c>
-      <c r="M199" t="s">
-        <v>14</v>
-      </c>
-      <c r="N199" t="s">
-        <v>280</v>
-      </c>
-      <c r="O199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H200" t="s">
-        <v>298</v>
-      </c>
-      <c r="I200" t="s">
-        <v>281</v>
-      </c>
-      <c r="J200">
-        <v>5.0458853346670172E-5</v>
-      </c>
-      <c r="M200" t="s">
-        <v>14</v>
-      </c>
-      <c r="N200" t="s">
-        <v>281</v>
-      </c>
-      <c r="O200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H201" t="s">
-        <v>298</v>
-      </c>
-      <c r="I201" t="s">
-        <v>282</v>
-      </c>
-      <c r="J201">
-        <v>4.6327561378837478E-5</v>
-      </c>
-      <c r="M201" t="s">
-        <v>14</v>
-      </c>
-      <c r="N201" t="s">
-        <v>282</v>
-      </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H202" t="s">
-        <v>298</v>
-      </c>
-      <c r="I202" t="s">
-        <v>385</v>
-      </c>
-      <c r="J202">
-        <v>2.4938290441756064E-2</v>
-      </c>
-      <c r="M202" t="s">
-        <v>14</v>
-      </c>
-      <c r="N202" t="s">
-        <v>385</v>
-      </c>
-      <c r="O202">
-        <v>0.14523739321635443</v>
-      </c>
-    </row>
-    <row r="203" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H203" t="s">
-        <v>298</v>
-      </c>
-      <c r="I203" t="s">
-        <v>283</v>
-      </c>
-      <c r="J203">
-        <v>4.0997448743024176E-3</v>
-      </c>
-      <c r="M203" t="s">
-        <v>14</v>
-      </c>
-      <c r="N203" t="s">
-        <v>283</v>
-      </c>
-      <c r="O203">
-        <v>0.16444092841228675</v>
-      </c>
-    </row>
-    <row r="204" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H204" t="s">
-        <v>298</v>
-      </c>
-      <c r="I204" t="s">
-        <v>284</v>
-      </c>
-      <c r="J204">
-        <v>1.0390548653007245E-3</v>
-      </c>
-      <c r="M204" t="s">
-        <v>14</v>
-      </c>
-      <c r="N204" t="s">
-        <v>284</v>
-      </c>
-      <c r="O204">
-        <v>7.2669806171538731E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H205" t="s">
-        <v>298</v>
-      </c>
-      <c r="I205" t="s">
-        <v>285</v>
-      </c>
-      <c r="J205">
-        <v>1.1104333987713847E-3</v>
-      </c>
-      <c r="M205" t="s">
-        <v>14</v>
-      </c>
-      <c r="N205" t="s">
-        <v>285</v>
-      </c>
-      <c r="O205">
-        <v>6.3220197574453074E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H206" t="s">
-        <v>298</v>
-      </c>
-      <c r="I206" t="s">
-        <v>286</v>
-      </c>
-      <c r="J206">
-        <v>8.0617419417596675E-3</v>
-      </c>
-      <c r="M206" t="s">
-        <v>14</v>
-      </c>
-      <c r="N206" t="s">
-        <v>286</v>
-      </c>
-      <c r="O206">
-        <v>5.7847842369799451E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H207" t="s">
-        <v>298</v>
-      </c>
-      <c r="I207" t="s">
-        <v>287</v>
-      </c>
-      <c r="J207">
-        <v>1.1600453014335519E-3</v>
-      </c>
-      <c r="M207" t="s">
-        <v>14</v>
-      </c>
-      <c r="N207" t="s">
-        <v>287</v>
-      </c>
-      <c r="O207">
-        <v>5.1610108979386338E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H208" t="s">
-        <v>298</v>
-      </c>
-      <c r="I208" t="s">
-        <v>288</v>
-      </c>
-      <c r="J208">
-        <v>1.1795278919690801E-3</v>
-      </c>
-      <c r="M208" t="s">
-        <v>14</v>
-      </c>
-      <c r="N208" t="s">
-        <v>288</v>
-      </c>
-      <c r="O208">
-        <v>4.3075393499384385E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H209" t="s">
-        <v>298</v>
-      </c>
-      <c r="I209" t="s">
-        <v>289</v>
-      </c>
-      <c r="J209">
-        <v>1.1887277513952452E-3</v>
-      </c>
-      <c r="M209" t="s">
-        <v>14</v>
-      </c>
-      <c r="N209" t="s">
-        <v>289</v>
-      </c>
-      <c r="O209">
-        <v>3.6124360668927213E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H210" t="s">
-        <v>298</v>
-      </c>
-      <c r="I210" t="s">
-        <v>290</v>
-      </c>
-      <c r="J210">
-        <v>7.0990144168239918E-3</v>
-      </c>
-      <c r="M210" t="s">
-        <v>14</v>
-      </c>
-      <c r="N210" t="s">
-        <v>290</v>
-      </c>
-      <c r="O210">
-        <v>0.16551913133020602</v>
-      </c>
-    </row>
-    <row r="211" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H211" t="s">
-        <v>386</v>
-      </c>
-      <c r="I211" t="s">
-        <v>299</v>
-      </c>
-      <c r="J211">
-        <v>0.24795699014578745</v>
-      </c>
-    </row>
-    <row r="212" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H212" t="s">
-        <v>386</v>
-      </c>
-      <c r="I212" t="s">
-        <v>300</v>
-      </c>
-      <c r="J212">
-        <v>5.0864722153963864E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H213" t="s">
-        <v>386</v>
-      </c>
-      <c r="I213" t="s">
-        <v>301</v>
-      </c>
-      <c r="J213">
-        <v>1.0328160883477952E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H214" t="s">
-        <v>386</v>
-      </c>
-      <c r="I214" t="s">
-        <v>302</v>
-      </c>
-      <c r="J214">
-        <v>1.0384426759802941E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H215" t="s">
-        <v>386</v>
-      </c>
-      <c r="I215" t="s">
-        <v>303</v>
-      </c>
-      <c r="J215">
-        <v>7.289524163453838E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H216" t="s">
-        <v>386</v>
-      </c>
-      <c r="I216" t="s">
-        <v>304</v>
-      </c>
-      <c r="J216">
-        <v>1.0409252208628397E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H217" t="s">
-        <v>386</v>
-      </c>
-      <c r="I217" t="s">
-        <v>305</v>
-      </c>
-      <c r="J217">
-        <v>1.0413160005242512E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H218" t="s">
-        <v>386</v>
-      </c>
-      <c r="I218" t="s">
-        <v>306</v>
-      </c>
-      <c r="J218">
-        <v>1.0415627064391643E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H219" t="s">
-        <v>386</v>
-      </c>
-      <c r="I219" t="s">
-        <v>307</v>
-      </c>
-      <c r="J219">
-        <v>7.2246399435741779E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H220" t="s">
-        <v>386</v>
-      </c>
-      <c r="I220" t="s">
-        <v>308</v>
-      </c>
-      <c r="J220">
-        <v>5.5840416993495066E-5</v>
-      </c>
-    </row>
-    <row r="221" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H221" t="s">
-        <v>386</v>
-      </c>
-      <c r="I221" t="s">
-        <v>309</v>
-      </c>
-      <c r="J221">
-        <v>5.5761420944501258E-5</v>
-      </c>
-    </row>
-    <row r="222" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H222" t="s">
-        <v>386</v>
-      </c>
-      <c r="I222" t="s">
-        <v>310</v>
-      </c>
-      <c r="J222">
-        <v>5.5753897511263761E-5</v>
-      </c>
-    </row>
-    <row r="223" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H223" t="s">
-        <v>386</v>
-      </c>
-      <c r="I223" t="s">
-        <v>311</v>
-      </c>
-      <c r="J223">
-        <v>5.5785245149753364E-5</v>
-      </c>
-    </row>
-    <row r="224" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H224" t="s">
-        <v>386</v>
-      </c>
-      <c r="I224" t="s">
-        <v>312</v>
-      </c>
       <c r="J224">
-        <v>5.5899350553855517E-5</v>
+        <v>1.1491542819721959E-4</v>
       </c>
     </row>
     <row r="225" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H225" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I225" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="J225">
-        <v>5.6173955867024441E-5</v>
+        <v>1.1485774854239872E-4</v>
       </c>
     </row>
     <row r="226" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H226" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I226" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="J226">
-        <v>5.6561412678755951E-5</v>
+        <v>1.1483016262052787E-4</v>
       </c>
     </row>
     <row r="227" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H227" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I227" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="J227">
-        <v>5.6754514131851898E-5</v>
+        <v>1.1500821720714881E-4</v>
       </c>
     </row>
     <row r="228" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H228" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I228" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="J228">
-        <v>5.6779592242643585E-5</v>
+        <v>1.1501574064038632E-4</v>
       </c>
     </row>
     <row r="229" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H229" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I229" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="J229">
-        <v>5.6736959454297722E-5</v>
+        <v>1.1535178732499486E-4</v>
       </c>
     </row>
     <row r="230" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H230" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I230" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="J230">
-        <v>5.6665486838541432E-5</v>
+        <v>1.1537937324686571E-4</v>
       </c>
     </row>
     <row r="231" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H231" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I231" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="J231">
-        <v>5.6664232933001844E-5</v>
+        <v>1.1522639677103646E-4</v>
       </c>
     </row>
     <row r="232" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H232" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I232" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="J232">
-        <v>5.6657963405303921E-5</v>
+        <v>1.1461449086771939E-4</v>
       </c>
     </row>
     <row r="233" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H233" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I233" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="J233">
-        <v>5.6644170444368494E-5</v>
+        <v>1.1384208505533556E-4</v>
       </c>
     </row>
     <row r="234" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H234" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I234" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="J234">
-        <v>5.6736959454297722E-5</v>
+        <v>1.1314491357532678E-4</v>
       </c>
     </row>
     <row r="235" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H235" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I235" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="J235">
-        <v>5.6867365630414477E-5</v>
+        <v>1.1257564046035559E-4</v>
       </c>
     </row>
     <row r="236" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H236" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I236" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="J236">
-        <v>5.69363304350916E-5</v>
+        <v>1.7412722955707265E-2</v>
       </c>
     </row>
     <row r="237" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H237" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I237" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="J237">
-        <v>5.7044166311495843E-5</v>
+        <v>3.5429281678678827E-3</v>
       </c>
     </row>
     <row r="238" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H238" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I238" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="J238">
-        <v>5.7054197555812508E-5</v>
+        <v>3.5625994379728785E-3</v>
       </c>
     </row>
     <row r="239" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H239" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I239" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="J239">
-        <v>5.7036642878258333E-5</v>
+        <v>2.5017761387918922E-2</v>
       </c>
     </row>
     <row r="240" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H240" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I240" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="J240">
-        <v>5.6947615584947859E-5</v>
+        <v>3.5762720239765045E-3</v>
       </c>
     </row>
     <row r="241" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H241" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I241" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="J241">
-        <v>5.6809685975593607E-5</v>
+        <v>3.5816412474970038E-3</v>
       </c>
     </row>
     <row r="242" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H242" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I242" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="J242">
-        <v>5.6319408909616204E-5</v>
+        <v>3.5841766444980427E-3</v>
       </c>
     </row>
     <row r="243" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H243" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="I243" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="J243">
-        <v>5.6135084795297341E-5</v>
-      </c>
-    </row>
-    <row r="244" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H244" t="s">
-        <v>386</v>
-      </c>
-      <c r="I244" t="s">
-        <v>332</v>
-      </c>
-      <c r="J244">
-        <v>5.5838281543967335E-5</v>
-      </c>
-    </row>
-    <row r="245" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H245" t="s">
-        <v>386</v>
-      </c>
-      <c r="I245" t="s">
-        <v>333</v>
-      </c>
-      <c r="J245">
-        <v>5.5832012016269405E-5</v>
-      </c>
-    </row>
-    <row r="246" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H246" t="s">
-        <v>386</v>
-      </c>
-      <c r="I246" t="s">
-        <v>334</v>
-      </c>
-      <c r="J246">
-        <v>5.5832012016269405E-5</v>
-      </c>
-    </row>
-    <row r="247" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H247" t="s">
-        <v>386</v>
-      </c>
-      <c r="I247" t="s">
-        <v>335</v>
-      </c>
-      <c r="J247">
-        <v>5.586712137137777E-5</v>
-      </c>
-    </row>
-    <row r="248" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H248" t="s">
-        <v>386</v>
-      </c>
-      <c r="I248" t="s">
-        <v>336</v>
-      </c>
-      <c r="J248">
-        <v>5.5991258019796602E-5</v>
-      </c>
-    </row>
-    <row r="249" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H249" t="s">
-        <v>386</v>
-      </c>
-      <c r="I249" t="s">
-        <v>337</v>
-      </c>
-      <c r="J249">
-        <v>5.6200660244907145E-5</v>
-      </c>
-    </row>
-    <row r="250" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H250" t="s">
-        <v>386</v>
-      </c>
-      <c r="I250" t="s">
-        <v>338</v>
-      </c>
-      <c r="J250">
-        <v>5.661068735635116E-5</v>
-      </c>
-    </row>
-    <row r="251" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H251" t="s">
-        <v>386</v>
-      </c>
-      <c r="I251" t="s">
-        <v>339</v>
-      </c>
-      <c r="J251">
-        <v>5.6906609063693021E-5</v>
-      </c>
-    </row>
-    <row r="252" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H252" t="s">
-        <v>386</v>
-      </c>
-      <c r="I252" t="s">
-        <v>340</v>
-      </c>
-      <c r="J252">
-        <v>5.6874007519663838E-5</v>
-      </c>
-    </row>
-    <row r="253" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H253" t="s">
-        <v>386</v>
-      </c>
-      <c r="I253" t="s">
-        <v>341</v>
-      </c>
-      <c r="J253">
-        <v>5.6867737991965908E-5</v>
-      </c>
-    </row>
-    <row r="254" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H254" t="s">
-        <v>386</v>
-      </c>
-      <c r="I254" t="s">
-        <v>342</v>
-      </c>
-      <c r="J254">
-        <v>5.687275361412425E-5</v>
-      </c>
-    </row>
-    <row r="255" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H255" t="s">
-        <v>386</v>
-      </c>
-      <c r="I255" t="s">
-        <v>343</v>
-      </c>
-      <c r="J255">
-        <v>5.6867737991965908E-5</v>
-      </c>
-    </row>
-    <row r="256" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H256" t="s">
-        <v>386</v>
-      </c>
-      <c r="I256" t="s">
-        <v>344</v>
-      </c>
-      <c r="J256">
-        <v>5.6840152070095067E-5</v>
-      </c>
-    </row>
-    <row r="257" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H257" t="s">
-        <v>386</v>
-      </c>
-      <c r="I257" t="s">
-        <v>345</v>
-      </c>
-      <c r="J257">
-        <v>5.6820089581461716E-5</v>
-      </c>
-    </row>
-    <row r="258" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H258" t="s">
-        <v>386</v>
-      </c>
-      <c r="I258" t="s">
-        <v>346</v>
-      </c>
-      <c r="J258">
-        <v>5.6820089581461716E-5</v>
-      </c>
-    </row>
-    <row r="259" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H259" t="s">
-        <v>386</v>
-      </c>
-      <c r="I259" t="s">
-        <v>347</v>
-      </c>
-      <c r="J259">
-        <v>5.6845167692253403E-5</v>
-      </c>
-    </row>
-    <row r="260" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H260" t="s">
-        <v>386</v>
-      </c>
-      <c r="I260" t="s">
-        <v>348</v>
-      </c>
-      <c r="J260">
-        <v>5.691037078031177E-5</v>
-      </c>
-    </row>
-    <row r="261" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H261" t="s">
-        <v>386</v>
-      </c>
-      <c r="I261" t="s">
-        <v>349</v>
-      </c>
-      <c r="J261">
-        <v>5.7004413695780586E-5</v>
-      </c>
-    </row>
-    <row r="262" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H262" t="s">
-        <v>386</v>
-      </c>
-      <c r="I262" t="s">
-        <v>350</v>
-      </c>
-      <c r="J262">
-        <v>5.7003159790240999E-5</v>
-      </c>
-    </row>
-    <row r="263" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H263" t="s">
-        <v>386</v>
-      </c>
-      <c r="I263" t="s">
-        <v>351</v>
-      </c>
-      <c r="J263">
-        <v>5.6978081679449319E-5</v>
-      </c>
-    </row>
-    <row r="264" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H264" t="s">
-        <v>386</v>
-      </c>
-      <c r="I264" t="s">
-        <v>352</v>
-      </c>
-      <c r="J264">
-        <v>5.6860214558728411E-5</v>
-      </c>
-    </row>
-    <row r="265" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H265" t="s">
-        <v>386</v>
-      </c>
-      <c r="I265" t="s">
-        <v>353</v>
-      </c>
-      <c r="J265">
-        <v>5.6690937310884549E-5</v>
-      </c>
-    </row>
-    <row r="266" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H266" t="s">
-        <v>386</v>
-      </c>
-      <c r="I266" t="s">
-        <v>354</v>
-      </c>
-      <c r="J266">
-        <v>5.6361160153973923E-5</v>
-      </c>
-    </row>
-    <row r="267" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H267" t="s">
-        <v>386</v>
-      </c>
-      <c r="I267" t="s">
-        <v>355</v>
-      </c>
-      <c r="J267">
-        <v>5.6122918101452931E-5</v>
-      </c>
-    </row>
-    <row r="268" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H268" t="s">
-        <v>386</v>
-      </c>
-      <c r="I268" t="s">
-        <v>356</v>
-      </c>
-      <c r="J268">
-        <v>5.6127320321111019E-5</v>
-      </c>
-    </row>
-    <row r="269" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H269" t="s">
-        <v>386</v>
-      </c>
-      <c r="I269" t="s">
-        <v>357</v>
-      </c>
-      <c r="J269">
-        <v>5.6097226588160996E-5</v>
-      </c>
-    </row>
-    <row r="270" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H270" t="s">
-        <v>386</v>
-      </c>
-      <c r="I270" t="s">
-        <v>358</v>
-      </c>
-      <c r="J270">
-        <v>5.6099734399240164E-5</v>
-      </c>
-    </row>
-    <row r="271" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H271" t="s">
-        <v>386</v>
-      </c>
-      <c r="I271" t="s">
-        <v>359</v>
-      </c>
-      <c r="J271">
-        <v>5.6245187441831934E-5</v>
-      </c>
-    </row>
-    <row r="272" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H272" t="s">
-        <v>386</v>
-      </c>
-      <c r="I272" t="s">
-        <v>360</v>
-      </c>
-      <c r="J272">
-        <v>5.6749257468744751E-5</v>
-      </c>
-    </row>
-    <row r="273" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H273" t="s">
-        <v>386</v>
-      </c>
-      <c r="I273" t="s">
-        <v>361</v>
-      </c>
-      <c r="J273">
-        <v>5.7400034443788925E-5</v>
-      </c>
-    </row>
-    <row r="274" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H274" t="s">
-        <v>386</v>
-      </c>
-      <c r="I274" t="s">
-        <v>362</v>
-      </c>
-      <c r="J274">
-        <v>5.7643292118468246E-5</v>
-      </c>
-    </row>
-    <row r="275" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H275" t="s">
-        <v>386</v>
-      </c>
-      <c r="I275" t="s">
-        <v>363</v>
-      </c>
-      <c r="J275">
-        <v>5.7766174861347497E-5</v>
-      </c>
-    </row>
-    <row r="276" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H276" t="s">
-        <v>386</v>
-      </c>
-      <c r="I276" t="s">
-        <v>364</v>
-      </c>
-      <c r="J276">
-        <v>5.762448353537449E-5</v>
-      </c>
-    </row>
-    <row r="277" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H277" t="s">
-        <v>386</v>
-      </c>
-      <c r="I277" t="s">
-        <v>365</v>
-      </c>
-      <c r="J277">
-        <v>5.7579342935949459E-5</v>
-      </c>
-    </row>
-    <row r="278" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H278" t="s">
-        <v>386</v>
-      </c>
-      <c r="I278" t="s">
-        <v>366</v>
-      </c>
-      <c r="J278">
-        <v>5.7465237531847306E-5</v>
-      </c>
-    </row>
-    <row r="279" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H279" t="s">
-        <v>386</v>
-      </c>
-      <c r="I279" t="s">
-        <v>367</v>
-      </c>
-      <c r="J279">
-        <v>5.7457714098609796E-5</v>
-      </c>
-    </row>
-    <row r="280" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H280" t="s">
-        <v>386</v>
-      </c>
-      <c r="I280" t="s">
-        <v>368</v>
-      </c>
-      <c r="J280">
-        <v>5.7457714098609796E-5</v>
-      </c>
-    </row>
-    <row r="281" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H281" t="s">
-        <v>386</v>
-      </c>
-      <c r="I281" t="s">
-        <v>369</v>
-      </c>
-      <c r="J281">
-        <v>5.7428874271199361E-5</v>
-      </c>
-    </row>
-    <row r="282" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H282" t="s">
-        <v>386</v>
-      </c>
-      <c r="I282" t="s">
-        <v>370</v>
-      </c>
-      <c r="J282">
-        <v>5.7415081310263933E-5</v>
-      </c>
-    </row>
-    <row r="283" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H283" t="s">
-        <v>386</v>
-      </c>
-      <c r="I283" t="s">
-        <v>371</v>
-      </c>
-      <c r="J283">
-        <v>5.7504108603574407E-5</v>
-      </c>
-    </row>
-    <row r="284" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H284" t="s">
-        <v>386</v>
-      </c>
-      <c r="I284" t="s">
-        <v>372</v>
-      </c>
-      <c r="J284">
-        <v>5.7507870320193162E-5</v>
-      </c>
-    </row>
-    <row r="285" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H285" t="s">
-        <v>386</v>
-      </c>
-      <c r="I285" t="s">
-        <v>373</v>
-      </c>
-      <c r="J285">
-        <v>5.767589366249743E-5</v>
-      </c>
-    </row>
-    <row r="286" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H286" t="s">
-        <v>386</v>
-      </c>
-      <c r="I286" t="s">
-        <v>374</v>
-      </c>
-      <c r="J286">
-        <v>5.7689686623432857E-5</v>
-      </c>
-    </row>
-    <row r="287" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H287" t="s">
-        <v>386</v>
-      </c>
-      <c r="I287" t="s">
-        <v>375</v>
-      </c>
-      <c r="J287">
-        <v>5.761319838551823E-5</v>
-      </c>
-    </row>
-    <row r="288" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H288" t="s">
-        <v>386</v>
-      </c>
-      <c r="I288" t="s">
-        <v>376</v>
-      </c>
-      <c r="J288">
-        <v>5.7307245433859697E-5</v>
-      </c>
-    </row>
-    <row r="289" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H289" t="s">
-        <v>386</v>
-      </c>
-      <c r="I289" t="s">
-        <v>377</v>
-      </c>
-      <c r="J289">
-        <v>5.6921042527667781E-5</v>
-      </c>
-    </row>
-    <row r="290" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H290" t="s">
-        <v>386</v>
-      </c>
-      <c r="I290" t="s">
-        <v>378</v>
-      </c>
-      <c r="J290">
-        <v>5.6572456787663392E-5</v>
-      </c>
-    </row>
-    <row r="291" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H291" t="s">
-        <v>386</v>
-      </c>
-      <c r="I291" t="s">
-        <v>379</v>
-      </c>
-      <c r="J291">
-        <v>5.6287820230177796E-5</v>
-      </c>
-    </row>
-    <row r="292" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H292" t="s">
-        <v>386</v>
-      </c>
-      <c r="I292" t="s">
-        <v>380</v>
-      </c>
-      <c r="J292">
-        <v>0.10277457575182439</v>
-      </c>
-    </row>
-    <row r="293" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H293" t="s">
-        <v>386</v>
-      </c>
-      <c r="I293" t="s">
-        <v>169</v>
-      </c>
-      <c r="J293">
-        <v>2.1087257988860023E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H294" t="s">
-        <v>386</v>
-      </c>
-      <c r="I294" t="s">
-        <v>172</v>
-      </c>
-      <c r="J294">
-        <v>4.2857344032261524E-3</v>
-      </c>
-    </row>
-    <row r="295" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H295" t="s">
-        <v>386</v>
-      </c>
-      <c r="I295" t="s">
-        <v>173</v>
-      </c>
-      <c r="J295">
-        <v>4.3071216430620694E-3</v>
-      </c>
-    </row>
-    <row r="296" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H296" t="s">
-        <v>386</v>
-      </c>
-      <c r="I296" t="s">
-        <v>174</v>
-      </c>
-      <c r="J296">
-        <v>3.020719699042906E-2</v>
-      </c>
-    </row>
-    <row r="297" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H297" t="s">
-        <v>386</v>
-      </c>
-      <c r="I297" t="s">
-        <v>175</v>
-      </c>
-      <c r="J297">
-        <v>4.3138206334072974E-3</v>
-      </c>
-    </row>
-    <row r="298" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H298" t="s">
-        <v>386</v>
-      </c>
-      <c r="I298" t="s">
-        <v>176</v>
-      </c>
-      <c r="J298">
-        <v>4.3163353409669345E-3</v>
-      </c>
-    </row>
-    <row r="299" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H299" t="s">
-        <v>386</v>
-      </c>
-      <c r="I299" t="s">
-        <v>177</v>
-      </c>
-      <c r="J299">
-        <v>4.3173271802487449E-3</v>
-      </c>
-    </row>
-    <row r="300" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H300" t="s">
-        <v>386</v>
-      </c>
-      <c r="I300" t="s">
-        <v>178</v>
-      </c>
-      <c r="J300">
-        <v>2.9939781571624104E-2</v>
-      </c>
-    </row>
-    <row r="301" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H301" t="s">
-        <v>386</v>
-      </c>
-      <c r="I301" t="s">
-        <v>179</v>
-      </c>
-      <c r="J301">
-        <v>5.5840416993495066E-5</v>
-      </c>
-    </row>
-    <row r="302" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H302" t="s">
-        <v>386</v>
-      </c>
-      <c r="I302" t="s">
-        <v>180</v>
-      </c>
-      <c r="J302">
-        <v>5.5761420944501258E-5</v>
-      </c>
-    </row>
-    <row r="303" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H303" t="s">
-        <v>386</v>
-      </c>
-      <c r="I303" t="s">
-        <v>181</v>
-      </c>
-      <c r="J303">
-        <v>5.5753897511263761E-5</v>
-      </c>
-    </row>
-    <row r="304" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H304" t="s">
-        <v>386</v>
-      </c>
-      <c r="I304" t="s">
-        <v>182</v>
-      </c>
-      <c r="J304">
-        <v>5.5785245149753364E-5</v>
-      </c>
-    </row>
-    <row r="305" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H305" t="s">
-        <v>386</v>
-      </c>
-      <c r="I305" t="s">
-        <v>183</v>
-      </c>
-      <c r="J305">
-        <v>5.5899350553855517E-5</v>
-      </c>
-    </row>
-    <row r="306" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H306" t="s">
-        <v>386</v>
-      </c>
-      <c r="I306" t="s">
-        <v>184</v>
-      </c>
-      <c r="J306">
-        <v>5.6173955867024441E-5</v>
-      </c>
-    </row>
-    <row r="307" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H307" t="s">
-        <v>386</v>
-      </c>
-      <c r="I307" t="s">
-        <v>185</v>
-      </c>
-      <c r="J307">
-        <v>5.6561412678755951E-5</v>
-      </c>
-    </row>
-    <row r="308" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H308" t="s">
-        <v>386</v>
-      </c>
-      <c r="I308" t="s">
-        <v>186</v>
-      </c>
-      <c r="J308">
-        <v>5.6754514131851898E-5</v>
-      </c>
-    </row>
-    <row r="309" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H309" t="s">
-        <v>386</v>
-      </c>
-      <c r="I309" t="s">
-        <v>187</v>
-      </c>
-      <c r="J309">
-        <v>5.6779592242643585E-5</v>
-      </c>
-    </row>
-    <row r="310" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H310" t="s">
-        <v>386</v>
-      </c>
-      <c r="I310" t="s">
-        <v>188</v>
-      </c>
-      <c r="J310">
-        <v>5.6736959454297722E-5</v>
-      </c>
-    </row>
-    <row r="311" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H311" t="s">
-        <v>386</v>
-      </c>
-      <c r="I311" t="s">
-        <v>189</v>
-      </c>
-      <c r="J311">
-        <v>5.6665486838541432E-5</v>
-      </c>
-    </row>
-    <row r="312" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H312" t="s">
-        <v>386</v>
-      </c>
-      <c r="I312" t="s">
-        <v>190</v>
-      </c>
-      <c r="J312">
-        <v>5.6664232933001844E-5</v>
-      </c>
-    </row>
-    <row r="313" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H313" t="s">
-        <v>386</v>
-      </c>
-      <c r="I313" t="s">
-        <v>191</v>
-      </c>
-      <c r="J313">
-        <v>5.6657963405303921E-5</v>
-      </c>
-    </row>
-    <row r="314" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H314" t="s">
-        <v>386</v>
-      </c>
-      <c r="I314" t="s">
-        <v>192</v>
-      </c>
-      <c r="J314">
-        <v>5.6644170444368494E-5</v>
-      </c>
-    </row>
-    <row r="315" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H315" t="s">
-        <v>386</v>
-      </c>
-      <c r="I315" t="s">
-        <v>193</v>
-      </c>
-      <c r="J315">
-        <v>5.6736959454297722E-5</v>
-      </c>
-    </row>
-    <row r="316" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H316" t="s">
-        <v>386</v>
-      </c>
-      <c r="I316" t="s">
-        <v>194</v>
-      </c>
-      <c r="J316">
-        <v>5.6867365630414477E-5</v>
-      </c>
-    </row>
-    <row r="317" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H317" t="s">
-        <v>386</v>
-      </c>
-      <c r="I317" t="s">
-        <v>195</v>
-      </c>
-      <c r="J317">
-        <v>5.69363304350916E-5</v>
-      </c>
-    </row>
-    <row r="318" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H318" t="s">
-        <v>386</v>
-      </c>
-      <c r="I318" t="s">
-        <v>196</v>
-      </c>
-      <c r="J318">
-        <v>5.7044166311495843E-5</v>
-      </c>
-    </row>
-    <row r="319" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H319" t="s">
-        <v>386</v>
-      </c>
-      <c r="I319" t="s">
-        <v>197</v>
-      </c>
-      <c r="J319">
-        <v>5.7054197555812508E-5</v>
-      </c>
-    </row>
-    <row r="320" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H320" t="s">
-        <v>386</v>
-      </c>
-      <c r="I320" t="s">
-        <v>198</v>
-      </c>
-      <c r="J320">
-        <v>5.7036642878258333E-5</v>
-      </c>
-    </row>
-    <row r="321" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H321" t="s">
-        <v>386</v>
-      </c>
-      <c r="I321" t="s">
-        <v>199</v>
-      </c>
-      <c r="J321">
-        <v>5.6947615584947859E-5</v>
-      </c>
-    </row>
-    <row r="322" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H322" t="s">
-        <v>386</v>
-      </c>
-      <c r="I322" t="s">
-        <v>200</v>
-      </c>
-      <c r="J322">
-        <v>5.6809685975593607E-5</v>
-      </c>
-    </row>
-    <row r="323" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H323" t="s">
-        <v>386</v>
-      </c>
-      <c r="I323" t="s">
-        <v>201</v>
-      </c>
-      <c r="J323">
-        <v>5.6319408909616204E-5</v>
-      </c>
-    </row>
-    <row r="324" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H324" t="s">
-        <v>386</v>
-      </c>
-      <c r="I324" t="s">
-        <v>202</v>
-      </c>
-      <c r="J324">
-        <v>5.6135084795297341E-5</v>
-      </c>
-    </row>
-    <row r="325" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H325" t="s">
-        <v>386</v>
-      </c>
-      <c r="I325" t="s">
-        <v>381</v>
-      </c>
-      <c r="J325">
-        <v>2.0534152801071966E-2</v>
-      </c>
-    </row>
-    <row r="326" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H326" t="s">
-        <v>386</v>
-      </c>
-      <c r="I326" t="s">
-        <v>203</v>
-      </c>
-      <c r="J326">
-        <v>4.2127594141101428E-3</v>
-      </c>
-    </row>
-    <row r="327" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H327" t="s">
-        <v>386</v>
-      </c>
-      <c r="I327" t="s">
-        <v>204</v>
-      </c>
-      <c r="J327">
-        <v>8.5358386914984377E-4</v>
-      </c>
-    </row>
-    <row r="328" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H328" t="s">
-        <v>386</v>
-      </c>
-      <c r="I328" t="s">
-        <v>205</v>
-      </c>
-      <c r="J328">
-        <v>8.5888851653505446E-4</v>
-      </c>
-    </row>
-    <row r="329" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H329" t="s">
-        <v>386</v>
-      </c>
-      <c r="I329" t="s">
-        <v>206</v>
-      </c>
-      <c r="J329">
-        <v>6.0386619757641317E-3</v>
-      </c>
-    </row>
-    <row r="330" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H330" t="s">
-        <v>386</v>
-      </c>
-      <c r="I330" t="s">
-        <v>207</v>
-      </c>
-      <c r="J330">
-        <v>8.6199005188721586E-4</v>
-      </c>
-    </row>
-    <row r="331" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H331" t="s">
-        <v>386</v>
-      </c>
-      <c r="I331" t="s">
-        <v>208</v>
-      </c>
-      <c r="J331">
-        <v>8.6179130785919169E-4</v>
-      </c>
-    </row>
-    <row r="332" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H332" t="s">
-        <v>386</v>
-      </c>
-      <c r="I332" t="s">
-        <v>209</v>
-      </c>
-      <c r="J332">
-        <v>8.6186528828602717E-4</v>
-      </c>
-    </row>
-    <row r="333" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H333" t="s">
-        <v>386</v>
-      </c>
-      <c r="I333" t="s">
-        <v>210</v>
-      </c>
-      <c r="J333">
-        <v>5.9846123774803571E-3</v>
-      </c>
-    </row>
-    <row r="334" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H334" t="s">
-        <v>386</v>
-      </c>
-      <c r="I334" t="s">
-        <v>382</v>
-      </c>
-      <c r="J334">
-        <v>2.1220541176623378E-2</v>
-      </c>
-    </row>
-    <row r="335" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H335" t="s">
-        <v>386</v>
-      </c>
-      <c r="I335" t="s">
-        <v>211</v>
-      </c>
-      <c r="J335">
-        <v>4.3510792716115699E-3</v>
-      </c>
-    </row>
-    <row r="336" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H336" t="s">
-        <v>386</v>
-      </c>
-      <c r="I336" t="s">
-        <v>212</v>
-      </c>
-      <c r="J336">
-        <v>8.8211867804737041E-4</v>
-      </c>
-    </row>
-    <row r="337" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H337" t="s">
-        <v>386</v>
-      </c>
-      <c r="I337" t="s">
-        <v>213</v>
-      </c>
-      <c r="J337">
-        <v>8.8763021984661242E-4</v>
-      </c>
-    </row>
-    <row r="338" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H338" t="s">
-        <v>386</v>
-      </c>
-      <c r="I338" t="s">
-        <v>214</v>
-      </c>
-      <c r="J338">
-        <v>6.2432055884523458E-3</v>
-      </c>
-    </row>
-    <row r="339" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H339" t="s">
-        <v>386</v>
-      </c>
-      <c r="I339" t="s">
-        <v>215</v>
-      </c>
-      <c r="J339">
-        <v>8.9124773732831262E-4</v>
-      </c>
-    </row>
-    <row r="340" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H340" t="s">
-        <v>386</v>
-      </c>
-      <c r="I340" t="s">
-        <v>216</v>
-      </c>
-      <c r="J340">
-        <v>8.9101889956733852E-4</v>
-      </c>
-    </row>
-    <row r="341" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H341" t="s">
-        <v>386</v>
-      </c>
-      <c r="I341" t="s">
-        <v>217</v>
-      </c>
-      <c r="J341">
-        <v>8.9107532531661985E-4</v>
-      </c>
-    </row>
-    <row r="342" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H342" t="s">
-        <v>386</v>
-      </c>
-      <c r="I342" t="s">
-        <v>218</v>
-      </c>
-      <c r="J342">
-        <v>6.1831654564532086E-3</v>
-      </c>
-    </row>
-    <row r="343" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H343" t="s">
-        <v>386</v>
-      </c>
-      <c r="I343" t="s">
-        <v>383</v>
-      </c>
-      <c r="J343">
-        <v>2.1221035654272913E-2</v>
-      </c>
-    </row>
-    <row r="344" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H344" t="s">
-        <v>386</v>
-      </c>
-      <c r="I344" t="s">
-        <v>219</v>
-      </c>
-      <c r="J344">
-        <v>4.3496060501562019E-3</v>
-      </c>
-    </row>
-    <row r="345" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H345" t="s">
-        <v>386</v>
-      </c>
-      <c r="I345" t="s">
-        <v>220</v>
-      </c>
-      <c r="J345">
-        <v>8.8148372379285374E-4</v>
-      </c>
-    </row>
-    <row r="346" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H346" t="s">
-        <v>386</v>
-      </c>
-      <c r="I346" t="s">
-        <v>221</v>
-      </c>
-      <c r="J346">
-        <v>8.869701874813043E-4</v>
-      </c>
-    </row>
-    <row r="347" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H347" t="s">
-        <v>386</v>
-      </c>
-      <c r="I347" t="s">
-        <v>222</v>
-      </c>
-      <c r="J347">
-        <v>6.2443075598250797E-3</v>
-      </c>
-    </row>
-    <row r="348" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H348" t="s">
-        <v>386</v>
-      </c>
-      <c r="I348" t="s">
-        <v>223</v>
-      </c>
-      <c r="J348">
-        <v>8.9171183127924162E-4</v>
-      </c>
-    </row>
-    <row r="349" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H349" t="s">
-        <v>386</v>
-      </c>
-      <c r="I349" t="s">
-        <v>224</v>
-      </c>
-      <c r="J349">
-        <v>8.9139772794157588E-4</v>
-      </c>
-    </row>
-    <row r="350" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H350" t="s">
-        <v>386</v>
-      </c>
-      <c r="I350" t="s">
-        <v>225</v>
-      </c>
-      <c r="J350">
-        <v>8.9147860484887901E-4</v>
-      </c>
-    </row>
-    <row r="351" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H351" t="s">
-        <v>386</v>
-      </c>
-      <c r="I351" t="s">
-        <v>226</v>
-      </c>
-      <c r="J351">
-        <v>6.1840799689477748E-3</v>
-      </c>
-    </row>
-    <row r="352" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H352" t="s">
-        <v>386</v>
-      </c>
-      <c r="I352" t="s">
-        <v>384</v>
-      </c>
-      <c r="J352">
-        <v>6.0949048670841159E-2</v>
-      </c>
-    </row>
-    <row r="353" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H353" t="s">
-        <v>386</v>
-      </c>
-      <c r="I353" t="s">
-        <v>227</v>
-      </c>
-      <c r="J353">
-        <v>1.2510838690299111E-2</v>
-      </c>
-    </row>
-    <row r="354" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H354" t="s">
-        <v>386</v>
-      </c>
-      <c r="I354" t="s">
-        <v>228</v>
-      </c>
-      <c r="J354">
-        <v>2.5395081672947599E-3</v>
-      </c>
-    </row>
-    <row r="355" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H355" t="s">
-        <v>386</v>
-      </c>
-      <c r="I355" t="s">
-        <v>229</v>
-      </c>
-      <c r="J355">
-        <v>2.5531663333846805E-3</v>
-      </c>
-    </row>
-    <row r="356" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H356" t="s">
-        <v>386</v>
-      </c>
-      <c r="I356" t="s">
-        <v>230</v>
-      </c>
-      <c r="J356">
-        <v>1.7907429173088029E-2</v>
-      </c>
-    </row>
-    <row r="357" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H357" t="s">
-        <v>386</v>
-      </c>
-      <c r="I357" t="s">
-        <v>231</v>
-      </c>
-      <c r="J357">
-        <v>2.556413948732203E-3</v>
-      </c>
-    </row>
-    <row r="358" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H358" t="s">
-        <v>386</v>
-      </c>
-      <c r="I358" t="s">
-        <v>232</v>
-      </c>
-      <c r="J358">
-        <v>2.5572064170332207E-3</v>
-      </c>
-    </row>
-    <row r="359" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H359" t="s">
-        <v>386</v>
-      </c>
-      <c r="I359" t="s">
-        <v>233</v>
-      </c>
-      <c r="J359">
-        <v>2.5578365045668613E-3</v>
-      </c>
-    </row>
-    <row r="360" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H360" t="s">
-        <v>386</v>
-      </c>
-      <c r="I360" t="s">
-        <v>234</v>
-      </c>
-      <c r="J360">
-        <v>1.7766649436442294E-2</v>
-      </c>
-    </row>
-    <row r="361" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H361" t="s">
-        <v>386</v>
-      </c>
-      <c r="I361" t="s">
-        <v>235</v>
-      </c>
-      <c r="J361">
-        <v>5.5838281543967335E-5</v>
-      </c>
-    </row>
-    <row r="362" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H362" t="s">
-        <v>386</v>
-      </c>
-      <c r="I362" t="s">
-        <v>236</v>
-      </c>
-      <c r="J362">
-        <v>5.5832012016269405E-5</v>
-      </c>
-    </row>
-    <row r="363" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H363" t="s">
-        <v>386</v>
-      </c>
-      <c r="I363" t="s">
-        <v>237</v>
-      </c>
-      <c r="J363">
-        <v>5.5832012016269405E-5</v>
-      </c>
-    </row>
-    <row r="364" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H364" t="s">
-        <v>386</v>
-      </c>
-      <c r="I364" t="s">
-        <v>238</v>
-      </c>
-      <c r="J364">
-        <v>5.586712137137777E-5</v>
-      </c>
-    </row>
-    <row r="365" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H365" t="s">
-        <v>386</v>
-      </c>
-      <c r="I365" t="s">
-        <v>239</v>
-      </c>
-      <c r="J365">
-        <v>5.5991258019796602E-5</v>
-      </c>
-    </row>
-    <row r="366" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H366" t="s">
-        <v>386</v>
-      </c>
-      <c r="I366" t="s">
-        <v>240</v>
-      </c>
-      <c r="J366">
-        <v>5.6200660244907145E-5</v>
-      </c>
-    </row>
-    <row r="367" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H367" t="s">
-        <v>386</v>
-      </c>
-      <c r="I367" t="s">
-        <v>241</v>
-      </c>
-      <c r="J367">
-        <v>5.661068735635116E-5</v>
-      </c>
-    </row>
-    <row r="368" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H368" t="s">
-        <v>386</v>
-      </c>
-      <c r="I368" t="s">
-        <v>242</v>
-      </c>
-      <c r="J368">
-        <v>5.6906609063693021E-5</v>
-      </c>
-    </row>
-    <row r="369" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H369" t="s">
-        <v>386</v>
-      </c>
-      <c r="I369" t="s">
-        <v>243</v>
-      </c>
-      <c r="J369">
-        <v>5.6874007519663838E-5</v>
-      </c>
-    </row>
-    <row r="370" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H370" t="s">
-        <v>386</v>
-      </c>
-      <c r="I370" t="s">
-        <v>244</v>
-      </c>
-      <c r="J370">
-        <v>5.6867737991965908E-5</v>
-      </c>
-    </row>
-    <row r="371" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H371" t="s">
-        <v>386</v>
-      </c>
-      <c r="I371" t="s">
-        <v>245</v>
-      </c>
-      <c r="J371">
-        <v>5.687275361412425E-5</v>
-      </c>
-    </row>
-    <row r="372" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H372" t="s">
-        <v>386</v>
-      </c>
-      <c r="I372" t="s">
-        <v>246</v>
-      </c>
-      <c r="J372">
-        <v>5.6867737991965908E-5</v>
-      </c>
-    </row>
-    <row r="373" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H373" t="s">
-        <v>386</v>
-      </c>
-      <c r="I373" t="s">
-        <v>247</v>
-      </c>
-      <c r="J373">
-        <v>5.6840152070095067E-5</v>
-      </c>
-    </row>
-    <row r="374" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H374" t="s">
-        <v>386</v>
-      </c>
-      <c r="I374" t="s">
-        <v>248</v>
-      </c>
-      <c r="J374">
-        <v>5.6820089581461716E-5</v>
-      </c>
-    </row>
-    <row r="375" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H375" t="s">
-        <v>386</v>
-      </c>
-      <c r="I375" t="s">
-        <v>249</v>
-      </c>
-      <c r="J375">
-        <v>5.6820089581461716E-5</v>
-      </c>
-    </row>
-    <row r="376" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H376" t="s">
-        <v>386</v>
-      </c>
-      <c r="I376" t="s">
-        <v>250</v>
-      </c>
-      <c r="J376">
-        <v>5.6845167692253403E-5</v>
-      </c>
-    </row>
-    <row r="377" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H377" t="s">
-        <v>386</v>
-      </c>
-      <c r="I377" t="s">
-        <v>251</v>
-      </c>
-      <c r="J377">
-        <v>5.691037078031177E-5</v>
-      </c>
-    </row>
-    <row r="378" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H378" t="s">
-        <v>386</v>
-      </c>
-      <c r="I378" t="s">
-        <v>252</v>
-      </c>
-      <c r="J378">
-        <v>5.7004413695780586E-5</v>
-      </c>
-    </row>
-    <row r="379" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H379" t="s">
-        <v>386</v>
-      </c>
-      <c r="I379" t="s">
-        <v>253</v>
-      </c>
-      <c r="J379">
-        <v>5.7003159790240999E-5</v>
-      </c>
-    </row>
-    <row r="380" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H380" t="s">
-        <v>386</v>
-      </c>
-      <c r="I380" t="s">
-        <v>254</v>
-      </c>
-      <c r="J380">
-        <v>5.6978081679449319E-5</v>
-      </c>
-    </row>
-    <row r="381" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H381" t="s">
-        <v>386</v>
-      </c>
-      <c r="I381" t="s">
-        <v>255</v>
-      </c>
-      <c r="J381">
-        <v>5.6860214558728411E-5</v>
-      </c>
-    </row>
-    <row r="382" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H382" t="s">
-        <v>386</v>
-      </c>
-      <c r="I382" t="s">
-        <v>256</v>
-      </c>
-      <c r="J382">
-        <v>5.6690937310884549E-5</v>
-      </c>
-    </row>
-    <row r="383" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H383" t="s">
-        <v>386</v>
-      </c>
-      <c r="I383" t="s">
-        <v>257</v>
-      </c>
-      <c r="J383">
-        <v>5.6361160153973923E-5</v>
-      </c>
-    </row>
-    <row r="384" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H384" t="s">
-        <v>386</v>
-      </c>
-      <c r="I384" t="s">
-        <v>258</v>
-      </c>
-      <c r="J384">
-        <v>5.6122918101452931E-5</v>
-      </c>
-    </row>
-    <row r="385" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H385" t="s">
-        <v>386</v>
-      </c>
-      <c r="I385" t="s">
-        <v>259</v>
-      </c>
-      <c r="J385">
-        <v>5.6127320321111019E-5</v>
-      </c>
-    </row>
-    <row r="386" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H386" t="s">
-        <v>386</v>
-      </c>
-      <c r="I386" t="s">
-        <v>260</v>
-      </c>
-      <c r="J386">
-        <v>5.6097226588160996E-5</v>
-      </c>
-    </row>
-    <row r="387" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H387" t="s">
-        <v>386</v>
-      </c>
-      <c r="I387" t="s">
-        <v>261</v>
-      </c>
-      <c r="J387">
-        <v>5.6099734399240164E-5</v>
-      </c>
-    </row>
-    <row r="388" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H388" t="s">
-        <v>386</v>
-      </c>
-      <c r="I388" t="s">
-        <v>262</v>
-      </c>
-      <c r="J388">
-        <v>5.6245187441831934E-5</v>
-      </c>
-    </row>
-    <row r="389" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H389" t="s">
-        <v>386</v>
-      </c>
-      <c r="I389" t="s">
-        <v>263</v>
-      </c>
-      <c r="J389">
-        <v>5.6749257468744751E-5</v>
-      </c>
-    </row>
-    <row r="390" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H390" t="s">
-        <v>386</v>
-      </c>
-      <c r="I390" t="s">
-        <v>264</v>
-      </c>
-      <c r="J390">
-        <v>5.7400034443788925E-5</v>
-      </c>
-    </row>
-    <row r="391" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H391" t="s">
-        <v>386</v>
-      </c>
-      <c r="I391" t="s">
-        <v>265</v>
-      </c>
-      <c r="J391">
-        <v>5.7643292118468246E-5</v>
-      </c>
-    </row>
-    <row r="392" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H392" t="s">
-        <v>386</v>
-      </c>
-      <c r="I392" t="s">
-        <v>266</v>
-      </c>
-      <c r="J392">
-        <v>5.7766174861347497E-5</v>
-      </c>
-    </row>
-    <row r="393" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H393" t="s">
-        <v>386</v>
-      </c>
-      <c r="I393" t="s">
-        <v>267</v>
-      </c>
-      <c r="J393">
-        <v>5.762448353537449E-5</v>
-      </c>
-    </row>
-    <row r="394" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H394" t="s">
-        <v>386</v>
-      </c>
-      <c r="I394" t="s">
-        <v>268</v>
-      </c>
-      <c r="J394">
-        <v>5.7579342935949459E-5</v>
-      </c>
-    </row>
-    <row r="395" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H395" t="s">
-        <v>386</v>
-      </c>
-      <c r="I395" t="s">
-        <v>269</v>
-      </c>
-      <c r="J395">
-        <v>5.7465237531847306E-5</v>
-      </c>
-    </row>
-    <row r="396" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H396" t="s">
-        <v>386</v>
-      </c>
-      <c r="I396" t="s">
-        <v>270</v>
-      </c>
-      <c r="J396">
-        <v>5.7457714098609796E-5</v>
-      </c>
-    </row>
-    <row r="397" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H397" t="s">
-        <v>386</v>
-      </c>
-      <c r="I397" t="s">
-        <v>271</v>
-      </c>
-      <c r="J397">
-        <v>5.7457714098609796E-5</v>
-      </c>
-    </row>
-    <row r="398" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H398" t="s">
-        <v>386</v>
-      </c>
-      <c r="I398" t="s">
-        <v>272</v>
-      </c>
-      <c r="J398">
-        <v>5.7428874271199361E-5</v>
-      </c>
-    </row>
-    <row r="399" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H399" t="s">
-        <v>386</v>
-      </c>
-      <c r="I399" t="s">
-        <v>273</v>
-      </c>
-      <c r="J399">
-        <v>5.7415081310263933E-5</v>
-      </c>
-    </row>
-    <row r="400" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H400" t="s">
-        <v>386</v>
-      </c>
-      <c r="I400" t="s">
-        <v>274</v>
-      </c>
-      <c r="J400">
-        <v>5.7504108603574407E-5</v>
-      </c>
-    </row>
-    <row r="401" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H401" t="s">
-        <v>386</v>
-      </c>
-      <c r="I401" t="s">
-        <v>275</v>
-      </c>
-      <c r="J401">
-        <v>5.7507870320193162E-5</v>
-      </c>
-    </row>
-    <row r="402" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H402" t="s">
-        <v>386</v>
-      </c>
-      <c r="I402" t="s">
-        <v>276</v>
-      </c>
-      <c r="J402">
-        <v>5.767589366249743E-5</v>
-      </c>
-    </row>
-    <row r="403" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H403" t="s">
-        <v>386</v>
-      </c>
-      <c r="I403" t="s">
-        <v>277</v>
-      </c>
-      <c r="J403">
-        <v>5.7689686623432857E-5</v>
-      </c>
-    </row>
-    <row r="404" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H404" t="s">
-        <v>386</v>
-      </c>
-      <c r="I404" t="s">
-        <v>278</v>
-      </c>
-      <c r="J404">
-        <v>5.761319838551823E-5</v>
-      </c>
-    </row>
-    <row r="405" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H405" t="s">
-        <v>386</v>
-      </c>
-      <c r="I405" t="s">
-        <v>279</v>
-      </c>
-      <c r="J405">
-        <v>5.7307245433859697E-5</v>
-      </c>
-    </row>
-    <row r="406" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H406" t="s">
-        <v>386</v>
-      </c>
-      <c r="I406" t="s">
-        <v>280</v>
-      </c>
-      <c r="J406">
-        <v>5.6921042527667781E-5</v>
-      </c>
-    </row>
-    <row r="407" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H407" t="s">
-        <v>386</v>
-      </c>
-      <c r="I407" t="s">
-        <v>281</v>
-      </c>
-      <c r="J407">
-        <v>5.6572456787663392E-5</v>
-      </c>
-    </row>
-    <row r="408" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H408" t="s">
-        <v>386</v>
-      </c>
-      <c r="I408" t="s">
-        <v>282</v>
-      </c>
-      <c r="J408">
-        <v>5.6287820230177796E-5</v>
-      </c>
-    </row>
-    <row r="409" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H409" t="s">
-        <v>386</v>
-      </c>
-      <c r="I409" t="s">
-        <v>385</v>
-      </c>
-      <c r="J409">
-        <v>2.1257636091153664E-2</v>
-      </c>
-    </row>
-    <row r="410" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H410" t="s">
-        <v>386</v>
-      </c>
-      <c r="I410" t="s">
-        <v>283</v>
-      </c>
-      <c r="J410">
-        <v>4.3531807389268163E-3</v>
-      </c>
-    </row>
-    <row r="411" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H411" t="s">
-        <v>386</v>
-      </c>
-      <c r="I411" t="s">
-        <v>284</v>
-      </c>
-      <c r="J411">
-        <v>8.8573204196697067E-4</v>
-      </c>
-    </row>
-    <row r="412" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H412" t="s">
-        <v>386</v>
-      </c>
-      <c r="I412" t="s">
-        <v>285</v>
-      </c>
-      <c r="J412">
-        <v>8.9064985949321963E-4</v>
-      </c>
-    </row>
-    <row r="413" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H413" t="s">
-        <v>386</v>
-      </c>
-      <c r="I413" t="s">
-        <v>286</v>
-      </c>
-      <c r="J413">
-        <v>6.2544403469797305E-3</v>
-      </c>
-    </row>
-    <row r="414" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H414" t="s">
-        <v>386</v>
-      </c>
-      <c r="I414" t="s">
-        <v>287</v>
-      </c>
-      <c r="J414">
-        <v>8.9406800599412613E-4</v>
-      </c>
-    </row>
-    <row r="415" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H415" t="s">
-        <v>386</v>
-      </c>
-      <c r="I415" t="s">
-        <v>288</v>
-      </c>
-      <c r="J415">
-        <v>8.9541031187425095E-4</v>
-      </c>
-    </row>
-    <row r="416" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H416" t="s">
-        <v>386</v>
-      </c>
-      <c r="I416" t="s">
-        <v>289</v>
-      </c>
-      <c r="J416">
-        <v>8.9604416112451068E-4</v>
-      </c>
-    </row>
-    <row r="417" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H417" t="s">
-        <v>386</v>
-      </c>
-      <c r="I417" t="s">
-        <v>290</v>
-      </c>
-      <c r="J417">
-        <v>6.1881106247940387E-3</v>
+        <v>2.4752442499176155E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57628DA6-7DAE-4CBB-ADB6-732AE414CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F7ACF-5ECF-4E4B-9C40-A914F65480AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h16,S4aH5,S5c1013h07,S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5c1013h18,S5d1107h12,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S5c1013h17,S5d1107h09,S1aH3,S5c1013h13,S3aH3,S5d1107h07,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h10,S3aH7,S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7</t>
-  </si>
-  <si>
-    <t>S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h24,S5c1013h01,S5d1107h05,S3aH2,S5c1013h19,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1b0203h04,S5d1107h06,S1aH1,S1b0203h03,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S2aH8,S4aH2,S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h22,S3aH1,S5d1107h21</t>
+    <t>S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5c1013h18,S5d1107h12,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1aH3,S5c1013h13,S5c1013h17,S5d1107h09,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S3aH3,S5d1107h07,S1b0203h10,S3aH7,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h16,S4aH5,S5c1013h07</t>
+  </si>
+  <si>
+    <t>S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h04,S5d1107h06,S1b0203h22,S3aH1,S5d1107h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h24,S5c1013h01,S5d1107h05,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1aH1,S1b0203h03,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S2aH8,S4aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S3aH2</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h24,S5c1013h01,S5d1107h05,S3aH2,S5c1013h19,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1b0203h04,S5d1107h06,S1aH1,S1b0203h03,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S2aH8,S4aH2,S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h22,S3aH1,S5d1107h21</v>
+        <v>S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h04,S5d1107h06,S1b0203h22,S3aH1,S5d1107h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h24,S5c1013h01,S5d1107h05,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1aH1,S1b0203h03,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S2aH8,S4aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S3aH2</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h16,S4aH5,S5c1013h07,S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5c1013h18,S5d1107h12,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S5c1013h17,S5d1107h09,S1aH3,S5c1013h13,S3aH3,S5d1107h07,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h10,S3aH7,S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7</v>
+        <v>S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5c1013h18,S5d1107h12,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1aH3,S5c1013h13,S5c1013h17,S5d1107h09,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S3aH3,S5d1107h07,S1b0203h10,S3aH7,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h16,S4aH5,S5c1013h07</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4894CE9-805D-4758-8D07-9BBC2CEB2921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B111101-0C24-48B7-8A59-C4CDD77051F5}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315C3A5D-3554-4EB1-894D-A40A7EBF162C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15B951-E52A-4C6D-95EE-25514F6BD659}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.11210051898388418</v>
+        <v>0.14323955203496314</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N5">
-        <v>0.1858508604206501</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.5913138486752253</v>
+        <v>0.11210051898388418</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>8.5878175361922965E-2</v>
+        <v>0.5913138486752253</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.14323955203496314</v>
+        <v>8.5878175361922965E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N9">
-        <v>8.161704452335429E-2</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7938194C-462C-4694-A65B-BFEAD7935853}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C5B76D-394A-4F33-BE6E-7EA9EEFC1C5F}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F7ACF-5ECF-4E4B-9C40-A914F65480AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32AB2A5-F0AA-4B6F-85CB-23CE0998AC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5c1013h18,S5d1107h12,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1aH3,S5c1013h13,S5c1013h17,S5d1107h09,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S3aH3,S5d1107h07,S1b0203h10,S3aH7,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h16,S4aH5,S5c1013h07</t>
-  </si>
-  <si>
-    <t>S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h04,S5d1107h06,S1b0203h22,S3aH1,S5d1107h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h24,S5c1013h01,S5d1107h05,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1aH1,S1b0203h03,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S2aH8,S4aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S3aH2</t>
+    <t>S1b0203h15,S5c1013h09,S6aH5,S5c1013h18,S5d1107h12,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1b0203h16,S4aH5,S5c1013h07,S1aH5,S2aH4,S2aH5,S5aH5,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h10,S3aH7,S3aH3,S5d1107h07,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5c1013h17,S5d1107h09,S5d1107h08,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1aH3,S5c1013h13</t>
+  </si>
+  <si>
+    <t>S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S3aH2,S5c1013h19,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S2aH8,S4aH2,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h22,S3aH1,S5d1107h21,S1aH1,S1b0203h03,S3aH8,S5d1107h04,S1b0203h01,S5c1013h22,S5d1107h01,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h04,S5d1107h06,S1b0203h22,S3aH1,S5d1107h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h24,S5c1013h01,S5d1107h05,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1aH1,S1b0203h03,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S2aH8,S4aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S3aH2</v>
+        <v>S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S3aH2,S5c1013h19,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S2aH8,S4aH2,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h22,S3aH1,S5d1107h21,S1aH1,S1b0203h03,S3aH8,S5d1107h04,S1b0203h01,S5c1013h22,S5d1107h01,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5c1013h18,S5d1107h12,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1aH3,S5c1013h13,S5c1013h17,S5d1107h09,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S3aH3,S5d1107h07,S1b0203h10,S3aH7,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h16,S4aH5,S5c1013h07</v>
+        <v>S1b0203h15,S5c1013h09,S6aH5,S5c1013h18,S5d1107h12,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1b0203h16,S4aH5,S5c1013h07,S1aH5,S2aH4,S2aH5,S5aH5,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h10,S3aH7,S3aH3,S5d1107h07,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5c1013h17,S5d1107h09,S5d1107h08,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1aH3,S5c1013h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B111101-0C24-48B7-8A59-C4CDD77051F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CF7DB0-AB25-4EFC-BCFE-E213BC480EAA}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15B951-E52A-4C6D-95EE-25514F6BD659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5001B51-176F-4D6E-90D0-8D73A028DE36}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N4">
-        <v>0.14323955203496314</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>8.161704452335429E-2</v>
+        <v>0.11210051898388418</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>0.11210051898388418</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>0.5913138486752253</v>
+        <v>8.5878175361922965E-2</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>8.5878175361922965E-2</v>
+        <v>0.14323955203496314</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N9">
-        <v>0.1858508604206501</v>
+        <v>0.5913138486752253</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C5B76D-394A-4F33-BE6E-7EA9EEFC1C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C487688-CA30-4743-B268-17F422E1A18D}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32AB2A5-F0AA-4B6F-85CB-23CE0998AC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5DCA68-92F9-4B0C-902D-CCE8C307DE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0203h15,S5c1013h09,S6aH5,S5c1013h18,S5d1107h12,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1b0203h16,S4aH5,S5c1013h07,S1aH5,S2aH4,S2aH5,S5aH5,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h10,S3aH7,S3aH3,S5d1107h07,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5c1013h17,S5d1107h09,S5d1107h08,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1aH3,S5c1013h13</t>
-  </si>
-  <si>
-    <t>S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S3aH2,S5c1013h19,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S2aH8,S4aH2,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h22,S3aH1,S5d1107h21,S1aH1,S1b0203h03,S3aH8,S5d1107h04,S1b0203h01,S5c1013h22,S5d1107h01,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24</t>
+    <t>S1aH3,S5c1013h13,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S3aH3,S5d1107h07,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1b0203h16,S4aH5,S5c1013h07,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S5c1013h18,S5d1107h12,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5d1107h08,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h10,S3aH7</t>
+  </si>
+  <si>
+    <t>S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h01,S5c1013h22,S5d1107h01,S3aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h04,S5d1107h06,S1b0203h22,S3aH1,S5d1107h21,S3aH8,S5d1107h04,S1b0203h24,S5c1013h01,S5d1107h05,S2aH8,S4aH2</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S3aH2,S5c1013h19,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S2aH8,S4aH2,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h22,S3aH1,S5d1107h21,S1aH1,S1b0203h03,S3aH8,S5d1107h04,S1b0203h01,S5c1013h22,S5d1107h01,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24</v>
+        <v>S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h01,S5c1013h22,S5d1107h01,S3aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h04,S5d1107h06,S1b0203h22,S3aH1,S5d1107h21,S3aH8,S5d1107h04,S1b0203h24,S5c1013h01,S5d1107h05,S2aH8,S4aH2</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0203h15,S5c1013h09,S6aH5,S5c1013h18,S5d1107h12,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1b0203h16,S4aH5,S5c1013h07,S1aH5,S2aH4,S2aH5,S5aH5,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h10,S3aH7,S3aH3,S5d1107h07,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5c1013h17,S5d1107h09,S5d1107h08,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1aH3,S5c1013h13</v>
+        <v>S1aH3,S5c1013h13,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S3aH3,S5d1107h07,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1b0203h16,S4aH5,S5c1013h07,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S5c1013h18,S5d1107h12,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5d1107h08,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h10,S3aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CF7DB0-AB25-4EFC-BCFE-E213BC480EAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13BE696-5525-4C84-947F-A3B9566B7553}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5001B51-176F-4D6E-90D0-8D73A028DE36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170C987F-EAE6-45A6-BAAD-69C5CEEAE96E}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.11210051898388418</v>
+        <v>0.14323955203496314</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.1858508604206501</v>
+        <v>0.11210051898388418</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>8.5878175361922965E-2</v>
+        <v>0.5913138486752253</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.14323955203496314</v>
+        <v>8.5878175361922965E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N9">
-        <v>0.5913138486752253</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C487688-CA30-4743-B268-17F422E1A18D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68756920-4B2A-49F0-918D-84B753973ACE}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5DCA68-92F9-4B0C-902D-CCE8C307DE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2C9D62-FEF9-4852-8C22-79CE9EFAD406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S5c1013h13,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S3aH3,S5d1107h07,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1b0203h16,S4aH5,S5c1013h07,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S5c1013h18,S5d1107h12,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5d1107h08,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h10,S3aH7</t>
-  </si>
-  <si>
-    <t>S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h01,S5c1013h22,S5d1107h01,S3aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h04,S5d1107h06,S1b0203h22,S3aH1,S5d1107h21,S3aH8,S5d1107h04,S1b0203h24,S5c1013h01,S5d1107h05,S2aH8,S4aH2</t>
+    <t>S3aH3,S5d1107h07,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h10,S3aH7,S1aH3,S5c1013h13,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S5c1013h18,S5d1107h12,S5d1107h08,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h16,S4aH5,S5c1013h07,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18</t>
+  </si>
+  <si>
+    <t>S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h22,S3aH1,S5d1107h21,S2aH8,S4aH2,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH8,S5d1107h04,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S3aH2,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h01,S5c1013h22,S5d1107h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h01,S5c1013h22,S5d1107h01,S3aH2,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h04,S5d1107h06,S1b0203h22,S3aH1,S5d1107h21,S3aH8,S5d1107h04,S1b0203h24,S5c1013h01,S5d1107h05,S2aH8,S4aH2</v>
+        <v>S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h22,S3aH1,S5d1107h21,S2aH8,S4aH2,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH8,S5d1107h04,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S3aH2,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h01,S5c1013h22,S5d1107h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S5c1013h13,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S3aH3,S5d1107h07,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S1b0203h16,S4aH5,S5c1013h07,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S5c1013h18,S5d1107h12,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S5d1107h08,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h10,S3aH7</v>
+        <v>S3aH3,S5d1107h07,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h10,S3aH7,S1aH3,S5c1013h13,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S5c1013h18,S5d1107h12,S5d1107h08,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h16,S4aH5,S5c1013h07,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13BE696-5525-4C84-947F-A3B9566B7553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF99A5F-95C3-4A5A-BA51-E999D4CBD665}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170C987F-EAE6-45A6-BAAD-69C5CEEAE96E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31492FA8-4929-4084-9ECF-05A79F4F769A}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>8.161704452335429E-2</v>
+        <v>0.14323955203496314</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>0.14323955203496314</v>
+        <v>0.11210051898388418</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.11210051898388418</v>
+        <v>0.5913138486752253</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>0.5913138486752253</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>8.5878175361922965E-2</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>0.1858508604206501</v>
+        <v>8.5878175361922965E-2</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68756920-4B2A-49F0-918D-84B753973ACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323A3B7-3782-4E40-8F6B-F90FA37A0144}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2C9D62-FEF9-4852-8C22-79CE9EFAD406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAD750-5C21-4C8C-A4A7-53112152ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH3,S5d1107h07,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h10,S3aH7,S1aH3,S5c1013h13,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S5c1013h18,S5d1107h12,S5d1107h08,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h16,S4aH5,S5c1013h07,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18</t>
-  </si>
-  <si>
-    <t>S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h22,S3aH1,S5d1107h21,S2aH8,S4aH2,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH8,S5d1107h04,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S3aH2,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h01,S5c1013h22,S5d1107h01</t>
+    <t>S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h16,S4aH5,S5c1013h07,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5c1013h18,S5d1107h12,S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S5c1013h17,S5d1107h09,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH3,S5c1013h13,S1b0203h10,S3aH7,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S3aH3,S5d1107h07</t>
+  </si>
+  <si>
+    <t>S5c1013h19,S3aH2,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1aH1,S1b0203h03,S1b0203h22,S3aH1,S5d1107h21,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S2aH8,S4aH2,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h22,S3aH1,S5d1107h21,S2aH8,S4aH2,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S5c1013h19,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH8,S5d1107h04,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S3aH2,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1b0203h01,S5c1013h22,S5d1107h01</v>
+        <v>S5c1013h19,S3aH2,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1aH1,S1b0203h03,S1b0203h22,S3aH1,S5d1107h21,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S2aH8,S4aH2,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH3,S5d1107h07,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h10,S3aH7,S1aH3,S5c1013h13,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH5,S2aH4,S2aH5,S5aH5,S5c1013h18,S5d1107h12,S5d1107h08,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h16,S4aH5,S5c1013h07,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18</v>
+        <v>S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h16,S4aH5,S5c1013h07,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5c1013h18,S5d1107h12,S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S5c1013h17,S5d1107h09,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH3,S5c1013h13,S1b0203h10,S3aH7,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S3aH3,S5d1107h07</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF99A5F-95C3-4A5A-BA51-E999D4CBD665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF0885-C398-44E2-829A-4371B092E67C}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31492FA8-4929-4084-9ECF-05A79F4F769A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CB50EC-3DC1-4845-9290-3EF1ED15AD58}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>0.14323955203496314</v>
+        <v>0.11210051898388421</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.11210051898388418</v>
+        <v>0.59131384867522541</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>0.5913138486752253</v>
+        <v>0.18585086042065013</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N7">
-        <v>8.161704452335429E-2</v>
+        <v>0.14323955203496316</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.1858508604206501</v>
+        <v>8.5878175361922979E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>8.5878175361922965E-2</v>
+        <v>8.1617044523354304E-2</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323A3B7-3782-4E40-8F6B-F90FA37A0144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F371C6F-880A-49C5-8823-9FA8CCE85202}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAD750-5C21-4C8C-A4A7-53112152ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E6CA4C-FF26-4607-9C49-E4770B0F028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h16,S4aH5,S5c1013h07,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5c1013h18,S5d1107h12,S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S5c1013h17,S5d1107h09,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH3,S5c1013h13,S1b0203h10,S3aH7,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S3aH3,S5d1107h07</t>
-  </si>
-  <si>
-    <t>S5c1013h19,S3aH2,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1aH1,S1b0203h03,S1b0203h22,S3aH1,S5d1107h21,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S2aH8,S4aH2,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22</t>
+    <t>S1aH3,S5c1013h13,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S3aH3,S5d1107h07,S5c1013h18,S5d1107h12,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1b0203h10,S3aH7,S1aH5,S2aH4,S2aH5,S5aH5,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5d1107h08,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S1b0203h16,S4aH5,S5c1013h07</t>
+  </si>
+  <si>
+    <t>S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S2aH8,S4aH2,S5c1013h19,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h22,S3aH1,S5d1107h21,S1b0203h04,S5d1107h06,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h01,S5c1013h22,S5d1107h01,S3aH8,S5d1107h04,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S3aH2</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S5c1013h19,S3aH2,S1b0203h01,S5c1013h22,S5d1107h01,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S3aH8,S5d1107h04,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S1aH1,S1b0203h03,S1b0203h22,S3aH1,S5d1107h21,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h04,S5d1107h06,S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S2aH8,S4aH2,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22</v>
+        <v>S1aH2,S1b0203h05,S1b0203h20,S5c1013h24,S1b0203h24,S5c1013h01,S5d1107h05,S1b0203h06,S2aH2,S5c1013h06,S5d1107h22,S1b0203h19,S2aH1,S5aH8,S5c1013h02,S5c1013h23,S5d1107h23,S1b0203h23,S4aH1,S5c1013h03,S5d1107h02,S6aH1,S2aH8,S4aH2,S5c1013h19,S1b0203h21,S5aH2,S5d1107h24,S6aH2,S6aH8,S1b0203h22,S3aH1,S5d1107h21,S1b0203h04,S5d1107h06,S1aH8,S1b0203h02,S5aH1,S5c1013h20,S5d1107h03,S5d1107h19,S5d1107h20,S1b0203h01,S5c1013h22,S5d1107h01,S3aH8,S5d1107h04,S1aH1,S1b0203h03,S4aH8,S5c1013h04,S5c1013h05,S5c1013h21,S3aH2</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH5,S2aH4,S2aH5,S5aH5,S1b0203h16,S4aH5,S5c1013h07,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5c1013h18,S5d1107h12,S5d1107h08,S1b0203h15,S5c1013h09,S6aH5,S5c1013h17,S5d1107h09,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S1aH3,S5c1013h13,S1b0203h10,S3aH7,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S3aH3,S5d1107h07</v>
+        <v>S1aH3,S5c1013h13,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5c1013h10,S5c1013h15,S6aH6,S3aH3,S5d1107h07,S5c1013h18,S5d1107h12,S1aH4,S1b0203h08,S1b0203h18,S4aH6,S5c1013h14,S5d1107h14,S1b0203h10,S3aH7,S1aH5,S2aH4,S2aH5,S5aH5,S1aH6,S1b0203h14,S1b0203h17,S5c1013h08,S5c1013h11,S1b0203h11,S5d1107h11,S5d1107h13,S6aH7,S1b0203h07,S1b0203h09,S5aH4,S5c1013h16,S5d1107h10,S5d1107h16,S6aH3,S6aH4,S2aH6,S3aH5,S5aH3,S5c1013h12,S5d1107h15,S1b0203h12,S1b0203h13,S2aH7,S3aH4,S4aH3,S4aH4,S5d1107h17,S5d1107h18,S5d1107h08,S5c1013h17,S5d1107h09,S1b0203h15,S5c1013h09,S6aH5,S1b0203h16,S4aH5,S5c1013h07</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2147,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF0885-C398-44E2-829A-4371B092E67C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC153EE8-AC84-42B4-A40C-8AC41EF7F7A7}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CB50EC-3DC1-4845-9290-3EF1ED15AD58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D1D1FC-0BB3-43FE-BAFF-EEF05702A57C}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2946,7 +2946,7 @@
         <v>81</v>
       </c>
       <c r="N4">
-        <v>0.11210051898388421</v>
+        <v>0.11210051898388418</v>
       </c>
       <c r="O4" t="s">
         <v>302</v>
@@ -2978,10 +2978,10 @@
         <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.59131384867522541</v>
+        <v>8.5878175361922965E-2</v>
       </c>
       <c r="O5" t="s">
         <v>302</v>
@@ -3013,10 +3013,10 @@
         <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.18585086042065013</v>
+        <v>0.14323955203496314</v>
       </c>
       <c r="O6" t="s">
         <v>302</v>
@@ -3048,10 +3048,10 @@
         <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.14323955203496316</v>
+        <v>0.5913138486752253</v>
       </c>
       <c r="O7" t="s">
         <v>302</v>
@@ -3083,10 +3083,10 @@
         <v>291</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>8.5878175361922979E-2</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O8" t="s">
         <v>302</v>
@@ -3118,10 +3118,10 @@
         <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N9">
-        <v>8.1617044523354304E-2</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O9" t="s">
         <v>302</v>
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F371C6F-880A-49C5-8823-9FA8CCE85202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD0B392-F0D3-4526-B9F6-C7DE4A81BE8D}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
